--- a/data-raw/bd_eliminadas_enc_edomex_general_ene_2025.xlsx
+++ b/data-raw/bd_eliminadas_enc_edomex_general_ene_2025.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="271">
   <si>
     <t>ID</t>
   </si>
@@ -621,6 +621,475 @@
 Esta en una cancha de futbol, se escuchan muchos 
 gritos mas que la entrevista.</t>
   </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIANA MARTÍNEZ </t>
+  </si>
+  <si>
+    <t>La ubicación y el registro fotográfico refieren que la aplicación de la encuesta fue en la entrada de una tienda de abarrotes.</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Sin registro de audio; no es posible verificar la aplicación de la entrevista.</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>ARELI MARTINEZ</t>
+  </si>
+  <si>
+    <t>Observación:
+ No escribe el nombre del presidente municipal 
+ SI MARCA LOS RECHAZOS.
+ B4 P7, P9, P12: Debe insistir por una respuesta concreta 
+ B5 P18, P19: Debe insistir por una respuesta concreta 
+ B5 P20 (F): Debe insistir por una respuesta concreta 
+ B6 P22 (1)(2)(3)(4)(6): Debe insistir por una respuesta concreta 
+ B6 P23: (1)(2)(3): Debe insistir por una respuesta concreta 
+ B8 P30: No lee las opciones de respuesta 
+ Resolución: Retroalimentación</t>
+  </si>
+  <si>
+    <t>ATIZAPAN DE ZARAGOZA</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>VIRGINIA ROCHA</t>
+  </si>
+  <si>
+    <t>Observación:
+ MARCA LOS RECHAZOS
+ B4 P6, P10: No lee la pregunta textualmente
+ B4 P15, P16: No lee la pregunta textualmente
+ B5 P17: No lee las opciones de respuesta
+ B6 P25: No lee las opciones de respuesta
+ B8 P29, P30: Debe insistir por una respuesta concreta 
+ B9 P32: No lee las opciones de respuesta 
+ Resolución: Eliminar</t>
+  </si>
+  <si>
+    <t>CUAUTITLAN IZCALLI</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>PABLO DANIEL BARRERA SAUCEDO</t>
+  </si>
+  <si>
+    <t>Observación:
+ MARCA LOS RECHAZOS
+ B3 P1: Debe insistir por una respuesta concreta 
+ B4 P9, P12: Debe insistir por una respuesta concreta 
+ B5 P17, P19: No lee las opciones de respuesta
+ B5 P18: Debe insistir por una respuesta concreta 
+ B6 P22 (1)(3)(4)(5)(6): Debe insistir por una respuesta concreta 
+ B6 P23: (3)(4): Debe insistir por una respuesta concreta 
+ B6 P25: No lee las opciones de respuesta
+ B8 P29, P30: Debe insistir por una respuesta concreta 
+ B11 P40, P41, P43, P44: Omite la pregunta
+ Resolución: Eliminar</t>
+  </si>
+  <si>
+    <t>NAUCALPAN DE JUAREZ</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>KAREN ANGELICA LOPEZ</t>
+  </si>
+  <si>
+    <t>NO MARCA LOS RECHAZOS.
+ B3P2, B5P17, B6P22(Turismo, pobreza). Responde un tercero, agente toma su respuesta como valida
+ B4P8. Cuidar ortografía
+ B4P14. Leer textual, es Estancado no “Estancando”.</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>NO MARCA LOS RECHAZOS
+ B2FiltroA. Agente dice: “Me dice que usted vive aquí en este domicilio”
+ B2FiltroB. Leer textual. No “me dice que tenía treinta y que”
+ B3P3. Leer textual la pregunta, es (Usted utiliza), no (usted tiene)
+ B4P6, P12, B5P26. Leer textual la pregunta, No parafrasear.
+ B5P19. Le dicen “asaltos” agente debe mencionar todos los tipos de robo, no solo dos
+ B5P20, No se escuchan las respuestas
+ B6P23. No leer todas las opciones de respuesta de corrido, Se debe Indagar de lo general (Satisfecho o Insatisfecho) a lo particular (Algo o Muy).</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>SERAFIN DE JESUS BAEZ</t>
+  </si>
+  <si>
+    <t>SI MARCA LOS RECHAZOS
+ B2FiltroB, B4P6, P8, P12, Leer textualmente la pregunta
+ Según el registro fotográfico se realiza al interior de la vivienda.</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>ALMA VARONA DIAZ</t>
+  </si>
+  <si>
+    <t>SI MARCA LOS RECHAZOS
+ B4P7. No dar ns/nc como una opción 
+ B5P17. Leer las opciones de respuesta
+ B11P37, Corregir, Le dicen “que trabaja y ama de casa” agente la hace elegir, la opción correcta es (Labores del hogar y trabajo)
+ B11P38. Leer la pregunta, no solo pasar la Tablet
+ Según el registro fotográfico se realiza al interior de una vivienda</t>
+  </si>
+  <si>
+    <t>ACULCO</t>
+  </si>
+  <si>
+    <t>3251</t>
+  </si>
+  <si>
+    <t>FIDEL CAMACHO</t>
+  </si>
+  <si>
+    <t>SI MARCA RECHAZOS
+  B6P23: leer la pregunta textualmente
+  B6P23: No indaga de lo general a lo particular, persona responde insatisfecho, agente no indaga si muy o algo, Agente no indaga lo particular, selecciona arbitrariamente. arbitrariamente.</t>
+  </si>
+  <si>
+    <t>LUVIANOS</t>
+  </si>
+  <si>
+    <t>SI MARCA RECHAZOS
+ No se evidencia preguntas filtro ¿Usted vive en este domicilio? ¿ Que edad tiene, salta directamentea a B3P1.
+ B4P18: No indaga para una respuesta mas especifica
+ B6P23: No indaga de lo general a lo particular, persona responde insatisfecho, agente no indaga si muy o algo, Agente no indaga lo particular, selecciona arbitrariamente. arbitrariamente.</t>
+  </si>
+  <si>
+    <t>SI MARCA RECHAZOS
+ B6P23: Solo se da dos opciones "muy insatisfecho" o "muy satisfecho". No tomar el tiempo para indagar un respuesta mas concreta</t>
+  </si>
+  <si>
+    <t>SI MARCA RECHAZOS
+ No hace la introducción, empieza la encuesta directamente con la pregunta 1
+ B3P1: el encuestado responder"Deportes" y el agente coloca "Política"
+ B4P5, B5P7, B5P11: El agente no indaga en una respuesta mas especifica (mucho o poco)
+ B6P23: No indaga de lo general a lo particular, persona responde insatisfecho, agente no indaga si muy o algo, Agente no indaga lo particular, selecciona arbitrariamente.</t>
+  </si>
+  <si>
+    <t>REYNA SELENE CHAVEZ FRIAS</t>
+  </si>
+  <si>
+    <t>NO MARCA LOS RECHAZOS
+ Se le recomienda al agente acercarse un poco a la persona o pedirle amablemente que hable más fuerte, las respuestas se escuchan muy lejos.
+ B4P6: Cuidar la ortografía.
+ B4P7, B4P9, B8P29: No indaga en una respuesta específica basado en lo que ha escuchado o sabe el entrevistado.
+ La entrevista se realiza en una avenida donde no hay casas, solo arboles.</t>
+  </si>
+  <si>
+    <t>CHIMALHUACAN</t>
+  </si>
+  <si>
+    <t>NO MARCA LOS RECHAZOS
+ No hace la introducción, empieza la encuesta directamente con la pregunta 1
+ B2P1, B2P2: El agente no hace las preguntas dice en voz alta "Usted vive en este domicilio y me dice que tiene 59 años" selecciona la respuesta Si y anota la edad, luego lee la siguiente pregunta.
+ B4P5, B4P7: No indaga en una respuesta específica basado en lo que ha escuchado o sabe el entrevistado.
+ B4P10: Cuidar la ortografía.</t>
+  </si>
+  <si>
+    <t>YOLANDA ORTIZ MEDINA</t>
+  </si>
+  <si>
+    <t>B2,F1,F2,B3,P2,B5,P18,B6,P22(1):la respuesta no es clara
+B3,P2:insistir por 3 respuestas
+Solicitar que la entrevistada hable mas fuerte o acercar el telefono
+B4,P5,P6,P7,P7,P8,P12,P14,P15,P16,P19,P20(Ia,b,c,d,e,f,g,h)B5,P26
+B6,P22(63)(64),B6,P23,B7,P26,B8,P29,P30,,B9P32,B11P36,P37,P39.P40,P41,P42,P43,P44:no se escucha la respuesta
+B6,P23,B9,P31(74,75):indagar si es muy o algo, insatisfecho o satisfecho</t>
+  </si>
+  <si>
+    <t>Tultitlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no escribe el nombre del presidente municipal
+B3F2:respuesta edad 66 entrevistadora ingresa 64
+B3P3:insistir por tres respuestas
+B4P6:escribir la respuesta completa 
+leer textualmente y completas las preguntas
+Poner total atención a la encuesta
+B6P23(65,66):Indagar si es algo o mucho de insatisfecho o insatisfecho
+B8P29B9P31(74,75):la respuesta no es clara
+B10P34:La respuesta fue 'probablemente votare'
+en la foto se percibe que esta afuera de un negocio
+</t>
+  </si>
+  <si>
+    <t>DALIA ESPINOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no escribe el nombre del presidente municipal
+No mencionar tiempo concreto de la encuesta
+B2F1,B4P4(1)B5P20(F,G.H):no aceptar como respuesta 'aja''umum''ok'
+evitar muletillas 'muy bien'
+B3P3,B9p32:Insistir en tres respuestas
+B4P8:Cuidar la ortografía
+B6P23(65,66):Indagar si es algo o muy en insatisfecho o satisfecho
+B9P31(74,75):Mencionar todos los programas y solicitar un si o un no
+AMAI40,41:La respuesta no es clara </t>
+  </si>
+  <si>
+    <t>Atizapan de Zaragoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2F1:el entrevistado menciona en dos ocasiones que no vive en ese domicilio, entrevistador le indica que diga que si </t>
+  </si>
+  <si>
+    <t>Cuautitlan Izcalli</t>
+  </si>
+  <si>
+    <t>KAREN ANGELICA LOPEZ MENDOZA</t>
+  </si>
+  <si>
+    <t>B4P4(2,9): no se alcanza a escuchar la respuesta
+B4P10:cuidar ortografía
+B6P23(65,66)por la música acercar mas el telefono o pedirle a la entrevistada que hable mas fuerte
+B5P20(59)B622(62,63/1,64,B6P24,B7P30,B9P31(1,2,3,4),b10p33,p34b11p35,AMAI40,P41,P42,P44:no se escucha la respuesta</t>
+  </si>
+  <si>
+    <t>Chimalhuacan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKECHI MONROY </t>
+  </si>
+  <si>
+    <t>no brindar tiempo estimado de la encuesta
+menciona un nombre diferente al del registro de la aplicación
+no usar muletillas:'digame por favor''ok'
+B3P2:insistir por tres respuestas
+B4P10:escribir completa la respuesta
+B5(59)P1:no se escucha bien la respuesta
+B6P22(62,63,64):no permite hablar a la entrevistada, no ingresa las respuestas correctas
+lleva la entrevista muy rapido con respuestas incorrectas
+se nota tono de desesperación en el entrevistador, no permite que la entrevistada conteste completamente</t>
+  </si>
+  <si>
+    <t>ADRIAN FERNÁNDEZ HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>evitar muletillas 'ok''vale'
+las fotografias que anexa parecen dentro de un domicilio, en la ubicación si aparece sobre la calle
+B6(64)P5,6:No aceptar como respuesta también
+Leer mas lento las preguntas 
+B931:debe mencionar uno por uno los programas sociales esperar un si o un no 
+B6P23:es satisfecho o insatisfecho, no bien o mal
+esta dentro de una vivienda</t>
+  </si>
+  <si>
+    <t>HUGO RODRIGUEZ ARCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hay dos audios pero ninguno es la entrevista completa </t>
+  </si>
+  <si>
+    <t>EDUARDO FUENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3P1:el entrevistador selecciona respuesta incorrecta
+B3P2:Insistir por tres respuestas
+B4P6,P8,P10:cuidar ortografía y escribir la respuesta completa adicional a que no se escucha bien la respuesta
+B6P20(59):la respuesta es si o no 
+hay dos audios pero la encuesta no se lleva a cabo de forma completa
+B4P14:No se escucha la respuesta
+</t>
+  </si>
+  <si>
+    <t>Tlalnepantla de Baz</t>
+  </si>
+  <si>
+    <t>BRIAN BRIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audio de 9 segundos </t>
+  </si>
+  <si>
+    <t>LERMA</t>
+  </si>
+  <si>
+    <t>Yeudiel Jimenez</t>
+  </si>
+  <si>
+    <t>SI MARCA LOS RECHAZOS
+Se le recomienda al agente acercarse un poco a la persona o pedirle amablemente que hable más fuerte, las respuestas se escuchan muy lejos.
+B4P5, B4P11, B5P20, B6P23: No indaga en una respuesta específica basado en lo que ha escuchado o sabe el entrevistado.
+B4P7: No indaga de lo general a lo particular, persona contesta que mas o menos por el seguimiento que ha hecho, agente anota Aprueba mucho sin indagar más y pasa a la siguiente pregunta.
+B6P23: No indaga de lo general a lo particular, la persona responde satisfecho, agente no indaga si muy o algo.</t>
+  </si>
+  <si>
+    <t>LUIS ARMANDO LIMAS REYES</t>
+  </si>
+  <si>
+    <t>SI MARCA LOS RECHAZOS
+Se le recomienda al agente acercarse un poco a la persona o pedirle amablemente que hable más fuerte, las respuestas se escuchan muy lejos.
+B7P27: No indaga en una respuesta específica basado en lo que ha escuchado o sabe el entrevistado.
+B6P23: No indaga de lo general a lo particular, la persona responde satisfecho, agente no indaga si muy o algo.</t>
+  </si>
+  <si>
+    <t>24/01/0202</t>
+  </si>
+  <si>
+    <t>IXTAPALUCA</t>
+  </si>
+  <si>
+    <t>NO MARCA LOS RECHAZOS
+B4P5, B4P7, B6P23: No lee la pregunta textualmente.
+B4P6, B4P8: Cuidar la ortografía.
+La encuesta se realiza dentro de una vivienda.</t>
+  </si>
+  <si>
+    <t>SI MARCA LOS RECHAZOS
+B2P1: Se salta el filtro hace la introducción y empieza el cuestionario con la pregunta B2P2.
+B4P7, B4P9, B6P22: No indaga en una respuesta específica basado en lo que ha escuchado o sabe el entrevistado.
+B4P12: No lee la pregunta textualmente.</t>
+  </si>
+  <si>
+    <t>JUAN ENRIQUE ORTIZ CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>SI MARCA LOS RECHAZOS
+B2P2: La persona contesta 67 años, agente anota 57, corregir.
+B4P6, B4P8: Cuidar la ortografía.
+B4P9, B4P16, B6P22: No indaga en una respuesta específica basado en lo que ha escuchado o sabe el entrevistado.
+La encuesta se realiza dentro de una vivienda.</t>
+  </si>
+  <si>
+    <t>SI MARCA LOS RECHAZOS
+Se le recomienda al agente acercarse un poco a la persona o pedirle amablemente que hable más fuerte, las respuestas se escuchan muy lejos.
+B4P9: No indaga en una respuesta específica basado en lo que ha escuchado o sabe el entrevistado.
+B6P23: No indaga de lo general a lo particular, la persona responde insatisfecho, agente no indaga si muy insatisfecho o algo insatisfecho, anota Algo insatisfecho y sigue con la siguiente pregunta.</t>
+  </si>
+  <si>
+    <t>DEYSI HERNANDEZ</t>
+  </si>
+  <si>
+    <t>NO MARCA LOS RECHAZOS
+Se le recomienda al agente acercarse un poco a la persona o pedirle amablemente que hable más fuerte, las respuestas se escuchan muy lejos.
+B4P6, B4P8: Cuidar la ortografía.
+B4P9, B4P11, B4P12, B6P22: No indaga en una respuesta específica basado en lo que ha escuchado o sabe el entrevistado.
+B6P23: No indaga de lo general a lo particular, persona contesta satisfecho, agente anota Algo satisfecho sin indagar y continúa con la siguiente pregunta.</t>
+  </si>
+  <si>
+    <t>NO MARCA LOS RECHAZOS
+B4P10: Cuidar la ortografía.
+B4P12, B4P15, B4P16: No lee la pregunta textualmente.
+B6P23: No indaga de lo general a lo particular, la persona dice satisfecho, agente anota Muy satisfecho sin indagar si es Muy satisfecho o Algo satisfecho.</t>
+  </si>
+  <si>
+    <t>MIGUEL MEJÍA GARCÍA</t>
+  </si>
+  <si>
+    <t>SÍ MARCÓ RECHAZOS. INGRESA A DOMICILIO.</t>
+  </si>
+  <si>
+    <t>TLALNEPLANTA DE BAEZ</t>
+  </si>
+  <si>
+    <t>B. 10 P. 34 LA ENCUESTADA RESPONDE QUE SÍ VOTARÁ "SI VENGO SÍ, PORQUE NO ESTOY AQUÍ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atizapan de Zaragoza </t>
+  </si>
+  <si>
+    <t>ANDRES CRUZ DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>TERESA ACOSTA</t>
+  </si>
+  <si>
+    <t>SHERLIN MADIN GARCIA</t>
+  </si>
+  <si>
+    <t>JAZMIN RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>Esther Cid</t>
+  </si>
+  <si>
+    <t>TLANEPANTLA</t>
+  </si>
+  <si>
+    <t>Diana Martinez</t>
+  </si>
+  <si>
+    <t>Germán Morales</t>
+  </si>
+  <si>
+    <t>Pablo López</t>
+  </si>
+  <si>
+    <t>Guadalupe García</t>
+  </si>
+  <si>
+    <t>Veronica Unda</t>
+  </si>
+  <si>
+    <t>Rocío Coronel Prieto</t>
+  </si>
+  <si>
+    <t>Alejandro Ramirez</t>
+  </si>
+  <si>
+    <t>Antonio Martinez Campos</t>
+  </si>
+  <si>
+    <t>Rigoberto Bautista</t>
+  </si>
+  <si>
+    <t>Angelica Garnica</t>
+  </si>
+  <si>
+    <t>Pedro Garcia Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado de México </t>
+  </si>
+  <si>
+    <t>Christopher Balderas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAMIAN HERNÁNDEZ </t>
+  </si>
+  <si>
+    <t>Aplicadas en un deportivo</t>
+  </si>
 </sst>
 </file>
 
@@ -631,7 +1100,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -649,6 +1118,12 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -675,6 +1150,17 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -711,7 +1197,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -731,13 +1217,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -746,76 +1232,135 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1040,7 +1585,7 @@
     <col customWidth="1" min="3" max="3" width="25.38"/>
     <col customWidth="1" min="4" max="4" width="19.88"/>
     <col customWidth="1" min="5" max="5" width="30.75"/>
-    <col customWidth="1" min="6" max="6" width="49.25"/>
+    <col customWidth="1" min="6" max="6" width="55.13"/>
     <col customWidth="1" min="7" max="11" width="16.88"/>
   </cols>
   <sheetData>
@@ -2854,7 +3399,7 @@
       <c r="C96" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="16">
+      <c r="D96" s="30">
         <v>195.0</v>
       </c>
       <c r="E96" s="16" t="s">
@@ -2914,7 +3459,7 @@
       <c r="C99" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="16">
+      <c r="D99" s="30">
         <v>66.0</v>
       </c>
       <c r="E99" s="18" t="s">
@@ -3025,2944 +3570,7646 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="31"/>
+      <c r="A105" s="31">
+        <v>2.14524147E8</v>
+      </c>
+      <c r="B105" s="25">
+        <v>45679.0</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F105" s="34" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="31"/>
+      <c r="A106" s="31">
+        <v>2.14474809E8</v>
+      </c>
+      <c r="B106" s="25">
+        <v>45678.43263888889</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F106" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="24"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="31"/>
+      <c r="A107" s="31">
+        <v>2.14476195E8</v>
+      </c>
+      <c r="B107" s="25">
+        <v>45678.46041666667</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F107" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="31"/>
+      <c r="A108" s="31">
+        <v>2.14477611E8</v>
+      </c>
+      <c r="B108" s="25">
+        <v>45678.47986111111</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F108" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="31"/>
+      <c r="A109" s="31">
+        <v>2.14478741E8</v>
+      </c>
+      <c r="B109" s="25">
+        <v>45678.49791666667</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F109" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="31"/>
+      <c r="A110" s="31">
+        <v>2.14479492E8</v>
+      </c>
+      <c r="B110" s="25">
+        <v>45678.51944444444</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F110" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="24"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="31"/>
+      <c r="A111" s="31">
+        <v>2.14482456E8</v>
+      </c>
+      <c r="B111" s="25">
+        <v>45678.572222222225</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="31"/>
+      <c r="A112" s="31">
+        <v>2.14483364E8</v>
+      </c>
+      <c r="B112" s="25">
+        <v>45678.59027777778</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F112" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="31"/>
+      <c r="A113" s="31">
+        <v>2.14485098E8</v>
+      </c>
+      <c r="B113" s="25">
+        <v>45678.62291666667</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F113" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="31"/>
+      <c r="A114" s="31">
+        <v>2.14485823E8</v>
+      </c>
+      <c r="B114" s="25">
+        <v>45678.638194444444</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F114" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="31"/>
+      <c r="A115" s="31">
+        <v>2.14486888E8</v>
+      </c>
+      <c r="B115" s="25">
+        <v>45678.66111111111</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F115" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="31"/>
+      <c r="A116" s="31">
+        <v>2.14490508E8</v>
+      </c>
+      <c r="B116" s="25">
+        <v>45678.75</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F116" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="31"/>
+      <c r="A117" s="31">
+        <v>2.1449121E8</v>
+      </c>
+      <c r="B117" s="25">
+        <v>45678.77638888889</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F117" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="31"/>
+      <c r="A118" s="31">
+        <v>2.14517488E8</v>
+      </c>
+      <c r="B118" s="25">
+        <v>45679.46111111111</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F118" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="31"/>
+      <c r="A119" s="31">
+        <v>2.14519739E8</v>
+      </c>
+      <c r="B119" s="25">
+        <v>45679.509722222225</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F119" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="31"/>
+      <c r="A120" s="31">
+        <v>2.1452083E8</v>
+      </c>
+      <c r="B120" s="25">
+        <v>45679.524305555555</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F120" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="32"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="34"/>
+      <c r="A121" s="31">
+        <v>2.14521693E8</v>
+      </c>
+      <c r="B121" s="25">
+        <v>45679.552777777775</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F121" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="32"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="34"/>
+      <c r="A122" s="31">
+        <v>2.14525397E8</v>
+      </c>
+      <c r="B122" s="25">
+        <v>45679.618055555555</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F122" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="32"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="34"/>
+      <c r="A123" s="31">
+        <v>2.14526809E8</v>
+      </c>
+      <c r="B123" s="25">
+        <v>45679.631944444445</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F123" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="32"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="34"/>
+      <c r="A124" s="31">
+        <v>2.14527309E8</v>
+      </c>
+      <c r="B124" s="25">
+        <v>45679.65833333333</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F124" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="32"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="34"/>
+      <c r="A125" s="31">
+        <v>2.14529648E8</v>
+      </c>
+      <c r="B125" s="25">
+        <v>45679.71319444444</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F125" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="32"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="34"/>
+      <c r="A126" s="31">
+        <v>2.14530317E8</v>
+      </c>
+      <c r="B126" s="25">
+        <v>45679.725694444445</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F126" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="32"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="34"/>
+      <c r="A127" s="31">
+        <v>2.14530865E8</v>
+      </c>
+      <c r="B127" s="25">
+        <v>45679.74375</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F127" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="32"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="34"/>
+      <c r="A128" s="31">
+        <v>2.14535259E8</v>
+      </c>
+      <c r="B128" s="25">
+        <v>45679.78680555556</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F128" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="32"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="34"/>
+      <c r="A129" s="31">
+        <v>2.14562217E8</v>
+      </c>
+      <c r="B129" s="25">
+        <v>45680.50208333333</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D129" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F129" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="32"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="34"/>
+      <c r="A130" s="31">
+        <v>2.14563086E8</v>
+      </c>
+      <c r="B130" s="25">
+        <v>45680.51666666667</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D130" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F130" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="32"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="32"/>
-      <c r="F131" s="34"/>
+      <c r="A131" s="31">
+        <v>2.1456544E8</v>
+      </c>
+      <c r="B131" s="25">
+        <v>45680.566666666666</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F131" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="32"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="34"/>
+      <c r="A132" s="31">
+        <v>2.14566141E8</v>
+      </c>
+      <c r="B132" s="25">
+        <v>45680.580555555556</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F132" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="32"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="34"/>
+      <c r="A133" s="31">
+        <v>2.14566794E8</v>
+      </c>
+      <c r="B133" s="25">
+        <v>45680.592361111114</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F133" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="32"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="34"/>
+      <c r="A134" s="31">
+        <v>2.14570645E8</v>
+      </c>
+      <c r="B134" s="25">
+        <v>45680.68125</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F134" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="32"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="34"/>
+      <c r="A135" s="31">
+        <v>2.14571334E8</v>
+      </c>
+      <c r="B135" s="25">
+        <v>45680.694444444445</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F135" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="32"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="34"/>
+      <c r="A136" s="31">
+        <v>2.14571827E8</v>
+      </c>
+      <c r="B136" s="25">
+        <v>45680.71319444444</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F136" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" s="32"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="34"/>
+      <c r="A137" s="31">
+        <v>2.14573097E8</v>
+      </c>
+      <c r="B137" s="25">
+        <v>45680.763194444444</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F137" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" s="32"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="34"/>
+      <c r="A138" s="31">
+        <v>2.14573591E8</v>
+      </c>
+      <c r="B138" s="25">
+        <v>45680.78402777778</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F138" s="35" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" s="32"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="32"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="34"/>
-    </row>
-    <row r="140">
-      <c r="D140" s="35"/>
-      <c r="F140" s="34"/>
-    </row>
-    <row r="141">
-      <c r="D141" s="35"/>
-      <c r="F141" s="34"/>
-    </row>
-    <row r="142">
-      <c r="D142" s="35"/>
-      <c r="F142" s="34"/>
-    </row>
-    <row r="143">
-      <c r="D143" s="35"/>
-      <c r="F143" s="34"/>
-    </row>
-    <row r="144">
-      <c r="D144" s="35"/>
-      <c r="F144" s="34"/>
-    </row>
-    <row r="145">
-      <c r="D145" s="35"/>
-      <c r="F145" s="34"/>
-    </row>
-    <row r="146">
-      <c r="D146" s="35"/>
-      <c r="F146" s="34"/>
-    </row>
-    <row r="147">
-      <c r="D147" s="35"/>
-      <c r="F147" s="34"/>
-    </row>
-    <row r="148">
-      <c r="F148" s="34"/>
-    </row>
-    <row r="149">
-      <c r="F149" s="34"/>
-    </row>
-    <row r="150">
-      <c r="F150" s="34"/>
-    </row>
-    <row r="151">
-      <c r="F151" s="34"/>
-    </row>
-    <row r="152">
-      <c r="F152" s="34"/>
+      <c r="A139" s="31">
+        <v>2.14573973E8</v>
+      </c>
+      <c r="B139" s="25">
+        <v>45680.81805555556</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F139" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" ht="40.5" customHeight="1">
+      <c r="A140" s="36">
+        <v>2.14521186E8</v>
+      </c>
+      <c r="B140" s="37">
+        <v>45679.0</v>
+      </c>
+      <c r="C140" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D140" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E140" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="F140" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G140" s="40"/>
+      <c r="H140" s="40"/>
+    </row>
+    <row r="141" ht="40.5" customHeight="1">
+      <c r="A141" s="36">
+        <v>2.14601165E8</v>
+      </c>
+      <c r="B141" s="37">
+        <v>45681.0</v>
+      </c>
+      <c r="C141" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D141" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E141" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="F141" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="G141" s="40"/>
+      <c r="H141" s="40"/>
+    </row>
+    <row r="142" ht="40.5" customHeight="1">
+      <c r="A142" s="36">
+        <v>2.14601326E8</v>
+      </c>
+      <c r="B142" s="37">
+        <v>45681.0</v>
+      </c>
+      <c r="C142" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D142" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E142" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F142" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G142" s="40"/>
+      <c r="H142" s="40"/>
+    </row>
+    <row r="143" ht="40.5" customHeight="1">
+      <c r="A143" s="36">
+        <v>2.14481877E8</v>
+      </c>
+      <c r="B143" s="41">
+        <v>45678.0</v>
+      </c>
+      <c r="C143" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D143" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E143" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F143" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="G143" s="40"/>
+      <c r="H143" s="40"/>
+    </row>
+    <row r="144" ht="40.5" customHeight="1">
+      <c r="A144" s="36">
+        <v>2.14570008E8</v>
+      </c>
+      <c r="B144" s="42">
+        <v>45680.0</v>
+      </c>
+      <c r="C144" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E144" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="G144" s="44"/>
+      <c r="H144" s="44"/>
+    </row>
+    <row r="145" ht="40.5" customHeight="1">
+      <c r="A145" s="36">
+        <v>2.14570266E8</v>
+      </c>
+      <c r="B145" s="42">
+        <v>45680.0</v>
+      </c>
+      <c r="C145" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D145" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E145" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F145" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="G145" s="44"/>
+      <c r="H145" s="44"/>
+    </row>
+    <row r="146" ht="40.5" customHeight="1">
+      <c r="A146" s="36">
+        <v>2.14570276E8</v>
+      </c>
+      <c r="B146" s="42">
+        <v>45680.0</v>
+      </c>
+      <c r="C146" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E146" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F146" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="G146" s="44"/>
+      <c r="H146" s="44"/>
+    </row>
+    <row r="147" ht="40.5" customHeight="1">
+      <c r="A147" s="45">
+        <v>2.1457329E8</v>
+      </c>
+      <c r="B147" s="42">
+        <v>45680.0</v>
+      </c>
+      <c r="C147" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D147" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E147" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F147" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="G147" s="44"/>
+      <c r="H147" s="44"/>
+    </row>
+    <row r="148" ht="40.5" customHeight="1">
+      <c r="A148" s="45">
+        <v>2.14573316E8</v>
+      </c>
+      <c r="B148" s="42">
+        <v>45680.0</v>
+      </c>
+      <c r="C148" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D148" s="46">
+        <v>2706.0</v>
+      </c>
+      <c r="E148" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="G148" s="44"/>
+      <c r="H148" s="44"/>
+    </row>
+    <row r="149" ht="40.5" customHeight="1">
+      <c r="A149" s="45">
+        <v>2.14573317E8</v>
+      </c>
+      <c r="B149" s="42">
+        <v>45680.0</v>
+      </c>
+      <c r="C149" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D149" s="46">
+        <v>2706.0</v>
+      </c>
+      <c r="E149" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="G149" s="44"/>
+      <c r="H149" s="44"/>
+    </row>
+    <row r="150" ht="40.5" customHeight="1">
+      <c r="A150" s="45">
+        <v>2.14573449E8</v>
+      </c>
+      <c r="B150" s="42">
+        <v>45680.0</v>
+      </c>
+      <c r="C150" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D150" s="46">
+        <v>3251.0</v>
+      </c>
+      <c r="E150" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F150" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="G150" s="44"/>
+      <c r="H150" s="44"/>
+    </row>
+    <row r="151" ht="40.5" customHeight="1">
+      <c r="A151" s="43">
+        <v>2.14601499E8</v>
+      </c>
+      <c r="B151" s="47">
+        <v>45681.0</v>
+      </c>
+      <c r="C151" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D151" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E151" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F151" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="G151" s="44"/>
+      <c r="H151" s="44"/>
+    </row>
+    <row r="152" ht="40.5" customHeight="1">
+      <c r="A152" s="43">
+        <v>2.14601605E8</v>
+      </c>
+      <c r="B152" s="47">
+        <v>45681.0</v>
+      </c>
+      <c r="C152" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="D152" s="46">
+        <v>54.0</v>
+      </c>
+      <c r="E152" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F152" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="G152" s="44"/>
+      <c r="H152" s="44"/>
     </row>
     <row r="153">
-      <c r="F153" s="34"/>
+      <c r="A153" s="36">
+        <v>2.14573607E8</v>
+      </c>
+      <c r="B153" s="37">
+        <v>45680.0</v>
+      </c>
+      <c r="C153" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D153" s="48">
+        <v>174.0</v>
+      </c>
+      <c r="E153" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F153" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
     </row>
     <row r="154">
-      <c r="F154" s="34"/>
+      <c r="A154" s="36">
+        <v>2.14573865E8</v>
+      </c>
+      <c r="B154" s="37">
+        <v>45680.0</v>
+      </c>
+      <c r="C154" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D154" s="46">
+        <v>115.0</v>
+      </c>
+      <c r="E154" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F154" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
     </row>
     <row r="155">
-      <c r="F155" s="34"/>
+      <c r="A155" s="49">
+        <v>2.14573879E8</v>
+      </c>
+      <c r="B155" s="50">
+        <v>45680.0</v>
+      </c>
+      <c r="C155" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D155" s="51">
+        <v>115.0</v>
+      </c>
+      <c r="E155" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="F155" s="22" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="156">
-      <c r="F156" s="34"/>
+      <c r="A156" s="49">
+        <v>2.14600634E8</v>
+      </c>
+      <c r="B156" s="50">
+        <v>45681.0</v>
+      </c>
+      <c r="C156" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D156" s="51">
+        <v>54.0</v>
+      </c>
+      <c r="E156" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F156" s="22" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="157">
-      <c r="F157" s="34"/>
+      <c r="A157" s="49">
+        <v>2.14600653E8</v>
+      </c>
+      <c r="B157" s="50">
+        <v>45681.0</v>
+      </c>
+      <c r="C157" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D157" s="51">
+        <v>178.0</v>
+      </c>
+      <c r="E157" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="158">
-      <c r="F158" s="34"/>
+      <c r="A158" s="49">
+        <v>2.14600697E8</v>
+      </c>
+      <c r="B158" s="50">
+        <v>45681.0</v>
+      </c>
+      <c r="C158" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="D158" s="51">
+        <v>135.0</v>
+      </c>
+      <c r="E158" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="F158" s="22" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="159">
-      <c r="F159" s="34"/>
+      <c r="A159" s="49">
+        <v>2.14600865E8</v>
+      </c>
+      <c r="B159" s="50">
+        <v>45681.0</v>
+      </c>
+      <c r="C159" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="D159" s="51">
+        <v>35.0</v>
+      </c>
+      <c r="E159" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="F159" s="22" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="160">
-      <c r="F160" s="34"/>
+      <c r="A160" s="49">
+        <v>2.14600969E8</v>
+      </c>
+      <c r="B160" s="50">
+        <v>45681.0</v>
+      </c>
+      <c r="C160" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D160" s="51">
+        <v>200.0</v>
+      </c>
+      <c r="E160" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="F160" s="22" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="161">
-      <c r="F161" s="34"/>
+      <c r="A161" s="49">
+        <v>2.14601028E8</v>
+      </c>
+      <c r="B161" s="50">
+        <v>45681.0</v>
+      </c>
+      <c r="C161" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D161" s="51">
+        <v>54.0</v>
+      </c>
+      <c r="E161" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="F161" s="22" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="162">
-      <c r="F162" s="34"/>
+      <c r="A162" s="49">
+        <v>2.14655102E8</v>
+      </c>
+      <c r="B162" s="50">
+        <v>45682.0</v>
+      </c>
+      <c r="C162" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="D162" s="51">
+        <v>183.0</v>
+      </c>
+      <c r="E162" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F162" s="22" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="163">
-      <c r="F163" s="34"/>
+      <c r="A163" s="49">
+        <v>2.14570308E8</v>
+      </c>
+      <c r="B163" s="50">
+        <v>45680.0</v>
+      </c>
+      <c r="C163" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="D163" s="51">
+        <v>201.0</v>
+      </c>
+      <c r="E163" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="F163" s="22" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="164">
-      <c r="F164" s="34"/>
+      <c r="A164" s="49">
+        <v>2.14570358E8</v>
+      </c>
+      <c r="B164" s="50">
+        <v>45680.0</v>
+      </c>
+      <c r="C164" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D164" s="51">
+        <v>52.0</v>
+      </c>
+      <c r="E164" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="F164" s="22" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="165">
-      <c r="F165" s="34"/>
+      <c r="A165" s="49">
+        <v>2.14570491E8</v>
+      </c>
+      <c r="B165" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C165" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="D165" s="51">
+        <v>1810.0</v>
+      </c>
+      <c r="E165" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F165" s="22" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="166">
-      <c r="F166" s="34"/>
+      <c r="A166" s="49">
+        <v>2.14600434E8</v>
+      </c>
+      <c r="B166" s="50">
+        <v>45681.0</v>
+      </c>
+      <c r="C166" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D166" s="51">
+        <v>200.0</v>
+      </c>
+      <c r="E166" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F166" s="22" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="167">
-      <c r="F167" s="34"/>
+      <c r="A167" s="49">
+        <v>2.1460396E8</v>
+      </c>
+      <c r="B167" s="50">
+        <v>45681.0</v>
+      </c>
+      <c r="C167" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D167" s="51">
+        <v>167.0</v>
+      </c>
+      <c r="E167" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="F167" s="22" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="168">
-      <c r="F168" s="34"/>
+      <c r="A168" s="49">
+        <v>2.14604059E8</v>
+      </c>
+      <c r="B168" s="50">
+        <v>45681.0</v>
+      </c>
+      <c r="C168" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D168" s="51">
+        <v>209.0</v>
+      </c>
+      <c r="E168" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F168" s="22" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="169">
-      <c r="F169" s="34"/>
+      <c r="A169" s="49">
+        <v>2.14653729E8</v>
+      </c>
+      <c r="B169" s="50">
+        <v>45682.0</v>
+      </c>
+      <c r="C169" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D169" s="51">
+        <v>155.0</v>
+      </c>
+      <c r="E169" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="F169" s="22" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="170">
-      <c r="F170" s="34"/>
+      <c r="A170" s="49">
+        <v>2.14653972E8</v>
+      </c>
+      <c r="B170" s="50">
+        <v>45682.0</v>
+      </c>
+      <c r="C170" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="51">
+        <v>565.0</v>
+      </c>
+      <c r="E170" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F170" s="22" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="171">
-      <c r="F171" s="34"/>
+      <c r="A171" s="49">
+        <v>2.14603514E8</v>
+      </c>
+      <c r="B171" s="50">
+        <v>45681.0</v>
+      </c>
+      <c r="C171" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D171" s="51">
+        <v>35.0</v>
+      </c>
+      <c r="E171" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="F171" s="22" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="172">
-      <c r="F172" s="34"/>
+      <c r="A172" s="49">
+        <v>2.14603627E8</v>
+      </c>
+      <c r="B172" s="50">
+        <v>45681.0</v>
+      </c>
+      <c r="C172" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="D172" s="51">
+        <v>251.0</v>
+      </c>
+      <c r="E172" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="F172" s="22" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="173">
-      <c r="F173" s="34"/>
+      <c r="A173" s="49">
+        <v>2.14654337E8</v>
+      </c>
+      <c r="B173" s="52"/>
+      <c r="C173" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="D173" s="51">
+        <v>16.0</v>
+      </c>
+      <c r="E173" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F173" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="174">
-      <c r="F174" s="34"/>
+      <c r="A174" s="49">
+        <v>2.14647606E8</v>
+      </c>
+      <c r="B174" s="52"/>
+      <c r="C174" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="D174" s="51">
+        <v>44.0</v>
+      </c>
+      <c r="E174" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F174" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="175">
-      <c r="F175" s="34"/>
+      <c r="A175" s="49">
+        <v>2.14599472E8</v>
+      </c>
+      <c r="B175" s="52"/>
+      <c r="C175" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D175" s="51">
+        <v>136.0</v>
+      </c>
+      <c r="E175" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="F175" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="176">
-      <c r="F176" s="34"/>
+      <c r="A176" s="49">
+        <v>2.14600052E8</v>
+      </c>
+      <c r="B176" s="52"/>
+      <c r="C176" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D176" s="51">
+        <v>66.0</v>
+      </c>
+      <c r="E176" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="F176" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="177">
-      <c r="F177" s="34"/>
+      <c r="A177" s="49">
+        <v>2.14645273E8</v>
+      </c>
+      <c r="B177" s="52"/>
+      <c r="C177" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D177" s="51">
+        <v>58.0</v>
+      </c>
+      <c r="E177" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="F177" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="178">
-      <c r="F178" s="34"/>
+      <c r="A178" s="49">
+        <v>2.14652153E8</v>
+      </c>
+      <c r="B178" s="52"/>
+      <c r="C178" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="D178" s="51">
+        <v>51.0</v>
+      </c>
+      <c r="E178" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F178" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="179">
-      <c r="F179" s="34"/>
+      <c r="A179" s="49">
+        <v>2.14649285E8</v>
+      </c>
+      <c r="B179" s="52"/>
+      <c r="C179" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D179" s="51">
+        <v>210.0</v>
+      </c>
+      <c r="E179" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="F179" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="180">
-      <c r="F180" s="34"/>
+      <c r="A180" s="49">
+        <v>2.14680569E8</v>
+      </c>
+      <c r="B180" s="52"/>
+      <c r="C180" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D180" s="51">
+        <v>230.0</v>
+      </c>
+      <c r="E180" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="F180" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="181">
-      <c r="F181" s="34"/>
+      <c r="A181" s="49">
+        <v>2.14600032E8</v>
+      </c>
+      <c r="B181" s="52"/>
+      <c r="C181" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D181" s="51">
+        <v>230.0</v>
+      </c>
+      <c r="E181" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F181" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="182">
-      <c r="F182" s="34"/>
+      <c r="A182" s="49">
+        <v>2.14569755E8</v>
+      </c>
+      <c r="B182" s="52"/>
+      <c r="C182" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D182" s="51">
+        <v>39.0</v>
+      </c>
+      <c r="E182" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F182" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="183">
-      <c r="F183" s="34"/>
+      <c r="A183" s="49">
+        <v>2.14486962E8</v>
+      </c>
+      <c r="B183" s="52"/>
+      <c r="C183" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="51">
+        <v>643.0</v>
+      </c>
+      <c r="E183" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F183" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="184">
-      <c r="F184" s="34"/>
+      <c r="A184" s="49">
+        <v>2.14484E8</v>
+      </c>
+      <c r="B184" s="52"/>
+      <c r="C184" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="51">
+        <v>68.0</v>
+      </c>
+      <c r="E184" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="F184" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="185">
-      <c r="F185" s="34"/>
+      <c r="A185" s="49">
+        <v>2.14649812E8</v>
+      </c>
+      <c r="B185" s="52"/>
+      <c r="C185" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D185" s="51">
+        <v>26.0</v>
+      </c>
+      <c r="E185" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="F185" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="186">
-      <c r="F186" s="34"/>
+      <c r="A186" s="49">
+        <v>2.1465337E8</v>
+      </c>
+      <c r="B186" s="52"/>
+      <c r="C186" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D186" s="51">
+        <v>3.0</v>
+      </c>
+      <c r="E186" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="F186" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="187">
-      <c r="F187" s="34"/>
+      <c r="A187" s="49">
+        <v>2.14653061E8</v>
+      </c>
+      <c r="B187" s="52"/>
+      <c r="C187" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D187" s="51">
+        <v>156.0</v>
+      </c>
+      <c r="E187" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="F187" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="188">
-      <c r="F188" s="34"/>
+      <c r="A188" s="49">
+        <v>2.14683195E8</v>
+      </c>
+      <c r="B188" s="52"/>
+      <c r="C188" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D188" s="51">
+        <v>173.0</v>
+      </c>
+      <c r="E188" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="F188" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="189">
-      <c r="F189" s="34"/>
+      <c r="A189" s="49">
+        <v>2.1468595E8</v>
+      </c>
+      <c r="B189" s="52"/>
+      <c r="C189" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D189" s="51">
+        <v>281.0</v>
+      </c>
+      <c r="E189" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="F189" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="190">
-      <c r="F190" s="34"/>
+      <c r="A190" s="49">
+        <v>2.14685853E8</v>
+      </c>
+      <c r="B190" s="52"/>
+      <c r="C190" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D190" s="51">
+        <v>281.0</v>
+      </c>
+      <c r="E190" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="F190" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="191">
-      <c r="F191" s="34"/>
+      <c r="A191" s="49">
+        <v>2.14685334E8</v>
+      </c>
+      <c r="B191" s="52"/>
+      <c r="C191" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D191" s="51">
+        <v>281.0</v>
+      </c>
+      <c r="E191" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="F191" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="192">
-      <c r="F192" s="34"/>
+      <c r="A192" s="49">
+        <v>2.14685951E8</v>
+      </c>
+      <c r="B192" s="52"/>
+      <c r="C192" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D192" s="51">
+        <v>281.0</v>
+      </c>
+      <c r="E192" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="F192" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="193">
-      <c r="F193" s="34"/>
+      <c r="A193" s="49">
+        <v>2.14681405E8</v>
+      </c>
+      <c r="B193" s="52"/>
+      <c r="C193" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D193" s="51">
+        <v>376.0</v>
+      </c>
+      <c r="E193" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="F193" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="194">
-      <c r="F194" s="34"/>
+      <c r="A194" s="49">
+        <v>2.14681828E8</v>
+      </c>
+      <c r="B194" s="52"/>
+      <c r="C194" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D194" s="51">
+        <v>272.0</v>
+      </c>
+      <c r="E194" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="F194" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="195">
-      <c r="F195" s="34"/>
+      <c r="A195" s="49">
+        <v>2.14572581E8</v>
+      </c>
+      <c r="B195" s="52"/>
+      <c r="C195" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="51">
+        <v>83.0</v>
+      </c>
+      <c r="E195" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="F195" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="196">
-      <c r="F196" s="34"/>
+      <c r="A196" s="49">
+        <v>2.14566874E8</v>
+      </c>
+      <c r="B196" s="52"/>
+      <c r="C196" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="51">
+        <v>656.0</v>
+      </c>
+      <c r="E196" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="197">
-      <c r="F197" s="34"/>
+      <c r="A197" s="49">
+        <v>2.14566436E8</v>
+      </c>
+      <c r="B197" s="52"/>
+      <c r="C197" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="51">
+        <v>657.0</v>
+      </c>
+      <c r="E197" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="F197" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="198">
-      <c r="F198" s="34"/>
+      <c r="A198" s="49">
+        <v>2.14566541E8</v>
+      </c>
+      <c r="B198" s="52"/>
+      <c r="C198" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="51">
+        <v>656.0</v>
+      </c>
+      <c r="E198" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="F198" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="199">
-      <c r="F199" s="34"/>
+      <c r="A199" s="49">
+        <v>2.14566317E8</v>
+      </c>
+      <c r="B199" s="52"/>
+      <c r="C199" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="51">
+        <v>656.0</v>
+      </c>
+      <c r="E199" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="F199" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="200">
-      <c r="F200" s="34"/>
+      <c r="A200" s="49">
+        <v>2.14571281E8</v>
+      </c>
+      <c r="B200" s="52"/>
+      <c r="C200" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="51">
+        <v>656.0</v>
+      </c>
+      <c r="E200" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F200" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="201">
-      <c r="F201" s="34"/>
+      <c r="A201" s="49">
+        <v>2.14571224E8</v>
+      </c>
+      <c r="B201" s="52"/>
+      <c r="C201" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="51">
+        <v>657.0</v>
+      </c>
+      <c r="E201" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="F201" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="202">
-      <c r="F202" s="34"/>
+      <c r="A202" s="49">
+        <v>2.14480939E8</v>
+      </c>
+      <c r="B202" s="52"/>
+      <c r="C202" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D202" s="51">
+        <v>88.0</v>
+      </c>
+      <c r="E202" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="F202" s="22"/>
     </row>
     <row r="203">
-      <c r="F203" s="34"/>
+      <c r="A203" s="49">
+        <v>2.14480273E8</v>
+      </c>
+      <c r="B203" s="52"/>
+      <c r="C203" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D203" s="51">
+        <v>88.0</v>
+      </c>
+      <c r="E203" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="F203" s="53"/>
     </row>
     <row r="204">
-      <c r="F204" s="34"/>
+      <c r="A204" s="49">
+        <v>2.14561908E8</v>
+      </c>
+      <c r="B204" s="52"/>
+      <c r="C204" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="D204" s="51">
+        <v>1535.0</v>
+      </c>
+      <c r="E204" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F204" s="53"/>
     </row>
     <row r="205">
-      <c r="F205" s="34"/>
+      <c r="A205" s="49">
+        <v>2.14562007E8</v>
+      </c>
+      <c r="B205" s="52"/>
+      <c r="C205" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="D205" s="51">
+        <v>2526.0</v>
+      </c>
+      <c r="E205" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="F205" s="53"/>
     </row>
     <row r="206">
-      <c r="F206" s="34"/>
+      <c r="A206" s="49">
+        <v>2.14566649E8</v>
+      </c>
+      <c r="B206" s="52"/>
+      <c r="C206" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="D206" s="51">
+        <v>339.0</v>
+      </c>
+      <c r="E206" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="F206" s="53"/>
     </row>
     <row r="207">
-      <c r="F207" s="34"/>
+      <c r="A207" s="45">
+        <v>2.14608959E8</v>
+      </c>
+      <c r="B207" s="52"/>
+      <c r="C207" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D207" s="51">
+        <v>157.0</v>
+      </c>
+      <c r="E207" s="52"/>
+      <c r="F207" s="22" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="208">
-      <c r="F208" s="34"/>
+      <c r="A208" s="45">
+        <v>2.1460896E8</v>
+      </c>
+      <c r="B208" s="52"/>
+      <c r="C208" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D208" s="51">
+        <v>157.0</v>
+      </c>
+      <c r="E208" s="52"/>
+      <c r="F208" s="22" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="209">
-      <c r="F209" s="34"/>
+      <c r="A209" s="45">
+        <v>2.14609224E8</v>
+      </c>
+      <c r="B209" s="52"/>
+      <c r="C209" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D209" s="51">
+        <v>157.0</v>
+      </c>
+      <c r="E209" s="52"/>
+      <c r="F209" s="22" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="210">
-      <c r="F210" s="34"/>
+      <c r="A210" s="45">
+        <v>2.14609449E8</v>
+      </c>
+      <c r="B210" s="52"/>
+      <c r="C210" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D210" s="51">
+        <v>157.0</v>
+      </c>
+      <c r="E210" s="52"/>
+      <c r="F210" s="22" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="211">
-      <c r="F211" s="34"/>
+      <c r="A211" s="45">
+        <v>2.14609514E8</v>
+      </c>
+      <c r="B211" s="52"/>
+      <c r="C211" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D211" s="51">
+        <v>157.0</v>
+      </c>
+      <c r="E211" s="52"/>
+      <c r="F211" s="22" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="212">
-      <c r="F212" s="34"/>
+      <c r="A212" s="45">
+        <v>2.14610096E8</v>
+      </c>
+      <c r="B212" s="52"/>
+      <c r="C212" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D212" s="51">
+        <v>157.0</v>
+      </c>
+      <c r="E212" s="52"/>
+      <c r="F212" s="22" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="213">
-      <c r="F213" s="34"/>
+      <c r="A213" s="45">
+        <v>2.14610362E8</v>
+      </c>
+      <c r="B213" s="52"/>
+      <c r="C213" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D213" s="51">
+        <v>157.0</v>
+      </c>
+      <c r="E213" s="52"/>
+      <c r="F213" s="22" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="214">
-      <c r="F214" s="34"/>
+      <c r="A214" s="45">
+        <v>2.14611549E8</v>
+      </c>
+      <c r="B214" s="52"/>
+      <c r="C214" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D214" s="51">
+        <v>157.0</v>
+      </c>
+      <c r="E214" s="52"/>
+      <c r="F214" s="22" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="215">
-      <c r="F215" s="34"/>
+      <c r="A215" s="45">
+        <v>2.1461155E8</v>
+      </c>
+      <c r="B215" s="52"/>
+      <c r="C215" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D215" s="51">
+        <v>157.0</v>
+      </c>
+      <c r="E215" s="52"/>
+      <c r="F215" s="22" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="216">
-      <c r="F216" s="34"/>
+      <c r="A216" s="45">
+        <v>2.14611551E8</v>
+      </c>
+      <c r="B216" s="52"/>
+      <c r="C216" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D216" s="51">
+        <v>157.0</v>
+      </c>
+      <c r="E216" s="52"/>
+      <c r="F216" s="22" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="217">
-      <c r="F217" s="34"/>
+      <c r="A217" s="52"/>
+      <c r="B217" s="52"/>
+      <c r="C217" s="52"/>
+      <c r="D217" s="54"/>
+      <c r="E217" s="52"/>
+      <c r="F217" s="53"/>
     </row>
     <row r="218">
-      <c r="F218" s="34"/>
+      <c r="A218" s="52"/>
+      <c r="B218" s="52"/>
+      <c r="C218" s="52"/>
+      <c r="D218" s="54"/>
+      <c r="E218" s="52"/>
+      <c r="F218" s="53"/>
     </row>
     <row r="219">
-      <c r="F219" s="34"/>
+      <c r="A219" s="52"/>
+      <c r="B219" s="52"/>
+      <c r="C219" s="52"/>
+      <c r="D219" s="54"/>
+      <c r="E219" s="52"/>
+      <c r="F219" s="53"/>
     </row>
     <row r="220">
-      <c r="F220" s="34"/>
+      <c r="A220" s="52"/>
+      <c r="B220" s="52"/>
+      <c r="C220" s="52"/>
+      <c r="D220" s="54"/>
+      <c r="E220" s="52"/>
+      <c r="F220" s="53"/>
     </row>
     <row r="221">
-      <c r="F221" s="34"/>
+      <c r="A221" s="52"/>
+      <c r="B221" s="52"/>
+      <c r="C221" s="52"/>
+      <c r="D221" s="54"/>
+      <c r="E221" s="52"/>
+      <c r="F221" s="53"/>
     </row>
     <row r="222">
-      <c r="F222" s="34"/>
+      <c r="A222" s="52"/>
+      <c r="B222" s="52"/>
+      <c r="C222" s="52"/>
+      <c r="D222" s="54"/>
+      <c r="E222" s="52"/>
+      <c r="F222" s="53"/>
     </row>
     <row r="223">
-      <c r="F223" s="34"/>
+      <c r="A223" s="52"/>
+      <c r="B223" s="52"/>
+      <c r="C223" s="52"/>
+      <c r="D223" s="54"/>
+      <c r="E223" s="52"/>
+      <c r="F223" s="53"/>
     </row>
     <row r="224">
-      <c r="F224" s="34"/>
+      <c r="A224" s="52"/>
+      <c r="B224" s="52"/>
+      <c r="C224" s="52"/>
+      <c r="D224" s="54"/>
+      <c r="E224" s="52"/>
+      <c r="F224" s="53"/>
     </row>
     <row r="225">
-      <c r="F225" s="34"/>
+      <c r="A225" s="52"/>
+      <c r="B225" s="52"/>
+      <c r="C225" s="52"/>
+      <c r="D225" s="54"/>
+      <c r="E225" s="52"/>
+      <c r="F225" s="53"/>
     </row>
     <row r="226">
-      <c r="F226" s="34"/>
+      <c r="A226" s="52"/>
+      <c r="B226" s="52"/>
+      <c r="C226" s="52"/>
+      <c r="D226" s="54"/>
+      <c r="E226" s="52"/>
+      <c r="F226" s="53"/>
     </row>
     <row r="227">
-      <c r="F227" s="34"/>
+      <c r="A227" s="52"/>
+      <c r="B227" s="52"/>
+      <c r="C227" s="52"/>
+      <c r="D227" s="54"/>
+      <c r="E227" s="52"/>
+      <c r="F227" s="53"/>
     </row>
     <row r="228">
-      <c r="F228" s="34"/>
+      <c r="A228" s="52"/>
+      <c r="B228" s="52"/>
+      <c r="C228" s="52"/>
+      <c r="D228" s="54"/>
+      <c r="E228" s="52"/>
+      <c r="F228" s="53"/>
     </row>
     <row r="229">
-      <c r="F229" s="34"/>
+      <c r="A229" s="52"/>
+      <c r="B229" s="52"/>
+      <c r="C229" s="52"/>
+      <c r="D229" s="54"/>
+      <c r="E229" s="52"/>
+      <c r="F229" s="53"/>
     </row>
     <row r="230">
-      <c r="F230" s="34"/>
+      <c r="A230" s="52"/>
+      <c r="B230" s="52"/>
+      <c r="C230" s="52"/>
+      <c r="D230" s="54"/>
+      <c r="E230" s="52"/>
+      <c r="F230" s="53"/>
     </row>
     <row r="231">
-      <c r="F231" s="34"/>
+      <c r="A231" s="52"/>
+      <c r="B231" s="52"/>
+      <c r="C231" s="52"/>
+      <c r="D231" s="54"/>
+      <c r="E231" s="52"/>
+      <c r="F231" s="53"/>
     </row>
     <row r="232">
-      <c r="F232" s="34"/>
+      <c r="A232" s="52"/>
+      <c r="B232" s="52"/>
+      <c r="C232" s="52"/>
+      <c r="D232" s="54"/>
+      <c r="E232" s="52"/>
+      <c r="F232" s="53"/>
     </row>
     <row r="233">
-      <c r="F233" s="34"/>
+      <c r="A233" s="52"/>
+      <c r="B233" s="52"/>
+      <c r="C233" s="52"/>
+      <c r="D233" s="54"/>
+      <c r="E233" s="52"/>
+      <c r="F233" s="53"/>
     </row>
     <row r="234">
-      <c r="F234" s="34"/>
+      <c r="A234" s="52"/>
+      <c r="B234" s="52"/>
+      <c r="C234" s="52"/>
+      <c r="D234" s="54"/>
+      <c r="E234" s="52"/>
+      <c r="F234" s="53"/>
     </row>
     <row r="235">
-      <c r="F235" s="34"/>
+      <c r="A235" s="52"/>
+      <c r="B235" s="52"/>
+      <c r="C235" s="52"/>
+      <c r="D235" s="54"/>
+      <c r="E235" s="52"/>
+      <c r="F235" s="53"/>
     </row>
     <row r="236">
-      <c r="F236" s="34"/>
+      <c r="A236" s="52"/>
+      <c r="B236" s="52"/>
+      <c r="C236" s="52"/>
+      <c r="D236" s="54"/>
+      <c r="E236" s="52"/>
+      <c r="F236" s="53"/>
     </row>
     <row r="237">
-      <c r="F237" s="34"/>
+      <c r="A237" s="52"/>
+      <c r="B237" s="52"/>
+      <c r="C237" s="52"/>
+      <c r="D237" s="54"/>
+      <c r="E237" s="52"/>
+      <c r="F237" s="53"/>
     </row>
     <row r="238">
-      <c r="F238" s="34"/>
+      <c r="A238" s="52"/>
+      <c r="B238" s="52"/>
+      <c r="C238" s="52"/>
+      <c r="D238" s="54"/>
+      <c r="E238" s="52"/>
+      <c r="F238" s="53"/>
     </row>
     <row r="239">
-      <c r="F239" s="34"/>
+      <c r="A239" s="52"/>
+      <c r="B239" s="52"/>
+      <c r="C239" s="52"/>
+      <c r="D239" s="54"/>
+      <c r="E239" s="52"/>
+      <c r="F239" s="53"/>
     </row>
     <row r="240">
-      <c r="F240" s="34"/>
+      <c r="A240" s="52"/>
+      <c r="B240" s="52"/>
+      <c r="C240" s="52"/>
+      <c r="D240" s="54"/>
+      <c r="E240" s="52"/>
+      <c r="F240" s="53"/>
     </row>
     <row r="241">
-      <c r="F241" s="34"/>
+      <c r="A241" s="52"/>
+      <c r="B241" s="52"/>
+      <c r="C241" s="52"/>
+      <c r="D241" s="54"/>
+      <c r="E241" s="52"/>
+      <c r="F241" s="53"/>
     </row>
     <row r="242">
-      <c r="F242" s="34"/>
+      <c r="A242" s="52"/>
+      <c r="B242" s="52"/>
+      <c r="C242" s="52"/>
+      <c r="D242" s="54"/>
+      <c r="E242" s="52"/>
+      <c r="F242" s="53"/>
     </row>
     <row r="243">
-      <c r="F243" s="34"/>
+      <c r="A243" s="52"/>
+      <c r="B243" s="52"/>
+      <c r="C243" s="52"/>
+      <c r="D243" s="54"/>
+      <c r="E243" s="52"/>
+      <c r="F243" s="53"/>
     </row>
     <row r="244">
-      <c r="F244" s="34"/>
+      <c r="A244" s="52"/>
+      <c r="B244" s="52"/>
+      <c r="C244" s="52"/>
+      <c r="D244" s="54"/>
+      <c r="E244" s="52"/>
+      <c r="F244" s="53"/>
     </row>
     <row r="245">
-      <c r="F245" s="34"/>
+      <c r="A245" s="52"/>
+      <c r="B245" s="52"/>
+      <c r="D245" s="54"/>
+      <c r="E245" s="52"/>
+      <c r="F245" s="53"/>
     </row>
     <row r="246">
-      <c r="F246" s="34"/>
+      <c r="A246" s="52"/>
+      <c r="B246" s="52"/>
+      <c r="D246" s="54"/>
+      <c r="E246" s="52"/>
+      <c r="F246" s="53"/>
     </row>
     <row r="247">
-      <c r="F247" s="34"/>
+      <c r="A247" s="52"/>
+      <c r="B247" s="52"/>
+      <c r="D247" s="54"/>
+      <c r="E247" s="52"/>
+      <c r="F247" s="53"/>
     </row>
     <row r="248">
-      <c r="F248" s="34"/>
+      <c r="A248" s="52"/>
+      <c r="B248" s="52"/>
+      <c r="D248" s="54"/>
+      <c r="E248" s="52"/>
+      <c r="F248" s="53"/>
     </row>
     <row r="249">
-      <c r="F249" s="34"/>
+      <c r="A249" s="52"/>
+      <c r="B249" s="52"/>
+      <c r="D249" s="54"/>
+      <c r="E249" s="52"/>
+      <c r="F249" s="53"/>
     </row>
     <row r="250">
-      <c r="F250" s="34"/>
+      <c r="A250" s="52"/>
+      <c r="B250" s="52"/>
+      <c r="D250" s="54"/>
+      <c r="E250" s="52"/>
+      <c r="F250" s="53"/>
     </row>
     <row r="251">
-      <c r="F251" s="34"/>
+      <c r="A251" s="52"/>
+      <c r="B251" s="52"/>
+      <c r="D251" s="54"/>
+      <c r="E251" s="52"/>
+      <c r="F251" s="53"/>
     </row>
     <row r="252">
-      <c r="F252" s="34"/>
+      <c r="A252" s="52"/>
+      <c r="B252" s="52"/>
+      <c r="D252" s="54"/>
+      <c r="E252" s="52"/>
+      <c r="F252" s="53"/>
     </row>
     <row r="253">
-      <c r="F253" s="34"/>
+      <c r="A253" s="52"/>
+      <c r="B253" s="52"/>
+      <c r="D253" s="54"/>
+      <c r="E253" s="52"/>
+      <c r="F253" s="53"/>
     </row>
     <row r="254">
-      <c r="F254" s="34"/>
+      <c r="A254" s="52"/>
+      <c r="B254" s="52"/>
+      <c r="D254" s="54"/>
+      <c r="E254" s="52"/>
+      <c r="F254" s="53"/>
     </row>
     <row r="255">
-      <c r="F255" s="34"/>
+      <c r="A255" s="52"/>
+      <c r="B255" s="52"/>
+      <c r="D255" s="54"/>
+      <c r="E255" s="52"/>
+      <c r="F255" s="53"/>
     </row>
     <row r="256">
-      <c r="F256" s="34"/>
+      <c r="A256" s="52"/>
+      <c r="B256" s="52"/>
+      <c r="D256" s="54"/>
+      <c r="E256" s="52"/>
+      <c r="F256" s="53"/>
     </row>
     <row r="257">
-      <c r="F257" s="34"/>
+      <c r="A257" s="52"/>
+      <c r="B257" s="52"/>
+      <c r="D257" s="54"/>
+      <c r="E257" s="52"/>
+      <c r="F257" s="53"/>
     </row>
     <row r="258">
-      <c r="F258" s="34"/>
+      <c r="A258" s="52"/>
+      <c r="B258" s="52"/>
+      <c r="D258" s="54"/>
+      <c r="E258" s="52"/>
+      <c r="F258" s="53"/>
     </row>
     <row r="259">
-      <c r="F259" s="34"/>
+      <c r="A259" s="52"/>
+      <c r="B259" s="52"/>
+      <c r="D259" s="54"/>
+      <c r="E259" s="52"/>
+      <c r="F259" s="53"/>
     </row>
     <row r="260">
-      <c r="F260" s="34"/>
+      <c r="A260" s="52"/>
+      <c r="B260" s="52"/>
+      <c r="D260" s="54"/>
+      <c r="E260" s="52"/>
+      <c r="F260" s="53"/>
     </row>
     <row r="261">
-      <c r="F261" s="34"/>
+      <c r="A261" s="52"/>
+      <c r="B261" s="52"/>
+      <c r="D261" s="54"/>
+      <c r="E261" s="52"/>
+      <c r="F261" s="53"/>
     </row>
     <row r="262">
-      <c r="F262" s="34"/>
+      <c r="A262" s="52"/>
+      <c r="B262" s="52"/>
+      <c r="D262" s="54"/>
+      <c r="E262" s="52"/>
+      <c r="F262" s="53"/>
     </row>
     <row r="263">
-      <c r="F263" s="34"/>
+      <c r="A263" s="52"/>
+      <c r="B263" s="52"/>
+      <c r="D263" s="54"/>
+      <c r="E263" s="52"/>
+      <c r="F263" s="53"/>
     </row>
     <row r="264">
-      <c r="F264" s="34"/>
+      <c r="A264" s="52"/>
+      <c r="B264" s="52"/>
+      <c r="D264" s="54"/>
+      <c r="E264" s="52"/>
+      <c r="F264" s="53"/>
     </row>
     <row r="265">
-      <c r="F265" s="34"/>
+      <c r="A265" s="52"/>
+      <c r="B265" s="52"/>
+      <c r="D265" s="54"/>
+      <c r="E265" s="52"/>
+      <c r="F265" s="53"/>
     </row>
     <row r="266">
-      <c r="F266" s="34"/>
+      <c r="A266" s="52"/>
+      <c r="B266" s="52"/>
+      <c r="D266" s="54"/>
+      <c r="E266" s="52"/>
+      <c r="F266" s="53"/>
     </row>
     <row r="267">
-      <c r="F267" s="34"/>
+      <c r="A267" s="52"/>
+      <c r="B267" s="52"/>
+      <c r="D267" s="54"/>
+      <c r="E267" s="52"/>
+      <c r="F267" s="53"/>
     </row>
     <row r="268">
-      <c r="F268" s="34"/>
+      <c r="A268" s="52"/>
+      <c r="B268" s="52"/>
+      <c r="D268" s="54"/>
+      <c r="E268" s="52"/>
+      <c r="F268" s="53"/>
     </row>
     <row r="269">
-      <c r="F269" s="34"/>
+      <c r="A269" s="52"/>
+      <c r="B269" s="52"/>
+      <c r="D269" s="54"/>
+      <c r="E269" s="52"/>
+      <c r="F269" s="53"/>
     </row>
     <row r="270">
-      <c r="F270" s="34"/>
+      <c r="A270" s="52"/>
+      <c r="B270" s="52"/>
+      <c r="D270" s="54"/>
+      <c r="E270" s="52"/>
+      <c r="F270" s="53"/>
     </row>
     <row r="271">
-      <c r="F271" s="34"/>
+      <c r="A271" s="52"/>
+      <c r="B271" s="52"/>
+      <c r="D271" s="54"/>
+      <c r="E271" s="52"/>
+      <c r="F271" s="53"/>
     </row>
     <row r="272">
-      <c r="F272" s="34"/>
+      <c r="A272" s="52"/>
+      <c r="B272" s="52"/>
+      <c r="D272" s="54"/>
+      <c r="E272" s="52"/>
+      <c r="F272" s="53"/>
     </row>
     <row r="273">
-      <c r="F273" s="34"/>
+      <c r="A273" s="52"/>
+      <c r="B273" s="52"/>
+      <c r="D273" s="54"/>
+      <c r="E273" s="52"/>
+      <c r="F273" s="53"/>
     </row>
     <row r="274">
-      <c r="F274" s="34"/>
+      <c r="A274" s="52"/>
+      <c r="B274" s="52"/>
+      <c r="D274" s="54"/>
+      <c r="E274" s="52"/>
+      <c r="F274" s="53"/>
     </row>
     <row r="275">
-      <c r="F275" s="34"/>
+      <c r="A275" s="52"/>
+      <c r="B275" s="52"/>
+      <c r="D275" s="54"/>
+      <c r="E275" s="52"/>
+      <c r="F275" s="53"/>
     </row>
     <row r="276">
-      <c r="F276" s="34"/>
+      <c r="A276" s="52"/>
+      <c r="B276" s="52"/>
+      <c r="D276" s="54"/>
+      <c r="E276" s="52"/>
+      <c r="F276" s="53"/>
     </row>
     <row r="277">
-      <c r="F277" s="34"/>
+      <c r="A277" s="52"/>
+      <c r="B277" s="52"/>
+      <c r="D277" s="54"/>
+      <c r="E277" s="52"/>
+      <c r="F277" s="53"/>
     </row>
     <row r="278">
-      <c r="F278" s="34"/>
+      <c r="A278" s="52"/>
+      <c r="B278" s="52"/>
+      <c r="D278" s="54"/>
+      <c r="E278" s="52"/>
+      <c r="F278" s="53"/>
     </row>
     <row r="279">
-      <c r="F279" s="34"/>
+      <c r="A279" s="52"/>
+      <c r="B279" s="52"/>
+      <c r="D279" s="54"/>
+      <c r="E279" s="52"/>
+      <c r="F279" s="53"/>
     </row>
     <row r="280">
-      <c r="F280" s="34"/>
+      <c r="A280" s="52"/>
+      <c r="B280" s="52"/>
+      <c r="D280" s="54"/>
+      <c r="E280" s="52"/>
+      <c r="F280" s="53"/>
     </row>
     <row r="281">
-      <c r="F281" s="34"/>
+      <c r="A281" s="52"/>
+      <c r="B281" s="52"/>
+      <c r="D281" s="54"/>
+      <c r="E281" s="52"/>
+      <c r="F281" s="53"/>
     </row>
     <row r="282">
-      <c r="F282" s="34"/>
+      <c r="A282" s="52"/>
+      <c r="B282" s="52"/>
+      <c r="D282" s="54"/>
+      <c r="E282" s="52"/>
+      <c r="F282" s="53"/>
     </row>
     <row r="283">
-      <c r="F283" s="34"/>
+      <c r="A283" s="52"/>
+      <c r="B283" s="52"/>
+      <c r="D283" s="54"/>
+      <c r="E283" s="52"/>
+      <c r="F283" s="53"/>
     </row>
     <row r="284">
-      <c r="F284" s="34"/>
+      <c r="A284" s="52"/>
+      <c r="B284" s="52"/>
+      <c r="D284" s="54"/>
+      <c r="E284" s="52"/>
+      <c r="F284" s="53"/>
     </row>
     <row r="285">
-      <c r="F285" s="34"/>
+      <c r="A285" s="52"/>
+      <c r="B285" s="52"/>
+      <c r="D285" s="54"/>
+      <c r="E285" s="52"/>
+      <c r="F285" s="53"/>
     </row>
     <row r="286">
-      <c r="F286" s="34"/>
+      <c r="A286" s="52"/>
+      <c r="B286" s="52"/>
+      <c r="D286" s="54"/>
+      <c r="E286" s="52"/>
+      <c r="F286" s="53"/>
     </row>
     <row r="287">
-      <c r="F287" s="34"/>
+      <c r="A287" s="52"/>
+      <c r="B287" s="52"/>
+      <c r="D287" s="54"/>
+      <c r="E287" s="52"/>
+      <c r="F287" s="53"/>
     </row>
     <row r="288">
-      <c r="F288" s="34"/>
+      <c r="A288" s="52"/>
+      <c r="B288" s="52"/>
+      <c r="D288" s="54"/>
+      <c r="E288" s="52"/>
+      <c r="F288" s="53"/>
     </row>
     <row r="289">
-      <c r="F289" s="34"/>
+      <c r="A289" s="52"/>
+      <c r="B289" s="52"/>
+      <c r="D289" s="54"/>
+      <c r="E289" s="52"/>
+      <c r="F289" s="53"/>
     </row>
     <row r="290">
-      <c r="F290" s="34"/>
+      <c r="A290" s="52"/>
+      <c r="B290" s="52"/>
+      <c r="D290" s="54"/>
+      <c r="E290" s="52"/>
+      <c r="F290" s="53"/>
     </row>
     <row r="291">
-      <c r="F291" s="34"/>
+      <c r="A291" s="52"/>
+      <c r="B291" s="52"/>
+      <c r="D291" s="54"/>
+      <c r="E291" s="52"/>
+      <c r="F291" s="53"/>
     </row>
     <row r="292">
-      <c r="F292" s="34"/>
+      <c r="A292" s="52"/>
+      <c r="B292" s="52"/>
+      <c r="D292" s="54"/>
+      <c r="E292" s="52"/>
+      <c r="F292" s="53"/>
     </row>
     <row r="293">
-      <c r="F293" s="34"/>
+      <c r="A293" s="52"/>
+      <c r="B293" s="52"/>
+      <c r="D293" s="54"/>
+      <c r="E293" s="52"/>
+      <c r="F293" s="53"/>
     </row>
     <row r="294">
-      <c r="F294" s="34"/>
+      <c r="A294" s="52"/>
+      <c r="B294" s="52"/>
+      <c r="D294" s="54"/>
+      <c r="E294" s="52"/>
+      <c r="F294" s="53"/>
     </row>
     <row r="295">
-      <c r="F295" s="34"/>
+      <c r="A295" s="52"/>
+      <c r="B295" s="52"/>
+      <c r="D295" s="54"/>
+      <c r="E295" s="52"/>
+      <c r="F295" s="53"/>
     </row>
     <row r="296">
-      <c r="F296" s="34"/>
+      <c r="A296" s="52"/>
+      <c r="B296" s="52"/>
+      <c r="D296" s="54"/>
+      <c r="E296" s="52"/>
+      <c r="F296" s="53"/>
     </row>
     <row r="297">
-      <c r="F297" s="34"/>
+      <c r="A297" s="52"/>
+      <c r="B297" s="52"/>
+      <c r="D297" s="54"/>
+      <c r="E297" s="52"/>
+      <c r="F297" s="53"/>
     </row>
     <row r="298">
-      <c r="F298" s="34"/>
+      <c r="A298" s="52"/>
+      <c r="B298" s="52"/>
+      <c r="D298" s="54"/>
+      <c r="E298" s="52"/>
+      <c r="F298" s="53"/>
     </row>
     <row r="299">
-      <c r="F299" s="34"/>
+      <c r="A299" s="52"/>
+      <c r="B299" s="52"/>
+      <c r="D299" s="54"/>
+      <c r="E299" s="52"/>
+      <c r="F299" s="53"/>
     </row>
     <row r="300">
-      <c r="F300" s="34"/>
+      <c r="A300" s="52"/>
+      <c r="B300" s="52"/>
+      <c r="D300" s="54"/>
+      <c r="E300" s="52"/>
+      <c r="F300" s="53"/>
     </row>
     <row r="301">
-      <c r="F301" s="34"/>
+      <c r="A301" s="52"/>
+      <c r="B301" s="52"/>
+      <c r="D301" s="54"/>
+      <c r="E301" s="52"/>
+      <c r="F301" s="53"/>
     </row>
     <row r="302">
-      <c r="F302" s="34"/>
+      <c r="A302" s="52"/>
+      <c r="B302" s="52"/>
+      <c r="D302" s="54"/>
+      <c r="E302" s="52"/>
+      <c r="F302" s="53"/>
     </row>
     <row r="303">
-      <c r="F303" s="34"/>
+      <c r="A303" s="52"/>
+      <c r="B303" s="52"/>
+      <c r="D303" s="54"/>
+      <c r="E303" s="52"/>
+      <c r="F303" s="53"/>
     </row>
     <row r="304">
-      <c r="F304" s="34"/>
+      <c r="A304" s="52"/>
+      <c r="B304" s="52"/>
+      <c r="D304" s="54"/>
+      <c r="E304" s="52"/>
+      <c r="F304" s="53"/>
     </row>
     <row r="305">
-      <c r="F305" s="34"/>
+      <c r="A305" s="52"/>
+      <c r="B305" s="52"/>
+      <c r="D305" s="54"/>
+      <c r="E305" s="52"/>
+      <c r="F305" s="53"/>
     </row>
     <row r="306">
-      <c r="F306" s="34"/>
+      <c r="A306" s="52"/>
+      <c r="B306" s="52"/>
+      <c r="D306" s="54"/>
+      <c r="E306" s="52"/>
+      <c r="F306" s="53"/>
     </row>
     <row r="307">
-      <c r="F307" s="34"/>
+      <c r="A307" s="52"/>
+      <c r="B307" s="52"/>
+      <c r="D307" s="54"/>
+      <c r="E307" s="52"/>
+      <c r="F307" s="53"/>
     </row>
     <row r="308">
-      <c r="F308" s="34"/>
+      <c r="A308" s="52"/>
+      <c r="B308" s="52"/>
+      <c r="D308" s="54"/>
+      <c r="E308" s="52"/>
+      <c r="F308" s="53"/>
     </row>
     <row r="309">
-      <c r="F309" s="34"/>
+      <c r="A309" s="52"/>
+      <c r="B309" s="52"/>
+      <c r="D309" s="54"/>
+      <c r="E309" s="52"/>
+      <c r="F309" s="53"/>
     </row>
     <row r="310">
-      <c r="F310" s="34"/>
+      <c r="A310" s="52"/>
+      <c r="B310" s="52"/>
+      <c r="D310" s="54"/>
+      <c r="E310" s="52"/>
+      <c r="F310" s="53"/>
     </row>
     <row r="311">
-      <c r="F311" s="34"/>
+      <c r="A311" s="52"/>
+      <c r="B311" s="52"/>
+      <c r="D311" s="54"/>
+      <c r="E311" s="52"/>
+      <c r="F311" s="53"/>
     </row>
     <row r="312">
-      <c r="F312" s="34"/>
+      <c r="A312" s="52"/>
+      <c r="B312" s="52"/>
+      <c r="D312" s="54"/>
+      <c r="E312" s="52"/>
+      <c r="F312" s="53"/>
     </row>
     <row r="313">
-      <c r="F313" s="34"/>
+      <c r="A313" s="52"/>
+      <c r="B313" s="52"/>
+      <c r="D313" s="54"/>
+      <c r="E313" s="52"/>
+      <c r="F313" s="53"/>
     </row>
     <row r="314">
-      <c r="F314" s="34"/>
+      <c r="A314" s="52"/>
+      <c r="B314" s="52"/>
+      <c r="D314" s="54"/>
+      <c r="E314" s="52"/>
+      <c r="F314" s="53"/>
     </row>
     <row r="315">
-      <c r="F315" s="34"/>
+      <c r="A315" s="52"/>
+      <c r="B315" s="52"/>
+      <c r="D315" s="54"/>
+      <c r="E315" s="52"/>
+      <c r="F315" s="53"/>
     </row>
     <row r="316">
-      <c r="F316" s="34"/>
+      <c r="A316" s="52"/>
+      <c r="B316" s="52"/>
+      <c r="D316" s="54"/>
+      <c r="E316" s="52"/>
+      <c r="F316" s="53"/>
     </row>
     <row r="317">
-      <c r="F317" s="34"/>
+      <c r="A317" s="52"/>
+      <c r="B317" s="52"/>
+      <c r="D317" s="54"/>
+      <c r="E317" s="52"/>
+      <c r="F317" s="53"/>
     </row>
     <row r="318">
-      <c r="F318" s="34"/>
+      <c r="A318" s="52"/>
+      <c r="B318" s="52"/>
+      <c r="D318" s="54"/>
+      <c r="E318" s="52"/>
+      <c r="F318" s="53"/>
     </row>
     <row r="319">
-      <c r="F319" s="34"/>
+      <c r="A319" s="52"/>
+      <c r="B319" s="52"/>
+      <c r="D319" s="54"/>
+      <c r="E319" s="52"/>
+      <c r="F319" s="53"/>
     </row>
     <row r="320">
-      <c r="F320" s="34"/>
+      <c r="A320" s="52"/>
+      <c r="B320" s="52"/>
+      <c r="D320" s="54"/>
+      <c r="E320" s="52"/>
+      <c r="F320" s="53"/>
     </row>
     <row r="321">
-      <c r="F321" s="34"/>
+      <c r="A321" s="52"/>
+      <c r="B321" s="52"/>
+      <c r="D321" s="54"/>
+      <c r="E321" s="52"/>
+      <c r="F321" s="53"/>
     </row>
     <row r="322">
-      <c r="F322" s="34"/>
+      <c r="A322" s="52"/>
+      <c r="B322" s="52"/>
+      <c r="D322" s="54"/>
+      <c r="E322" s="52"/>
+      <c r="F322" s="53"/>
     </row>
     <row r="323">
-      <c r="F323" s="34"/>
+      <c r="A323" s="52"/>
+      <c r="B323" s="52"/>
+      <c r="D323" s="54"/>
+      <c r="E323" s="52"/>
+      <c r="F323" s="53"/>
     </row>
     <row r="324">
-      <c r="F324" s="34"/>
+      <c r="A324" s="52"/>
+      <c r="B324" s="52"/>
+      <c r="D324" s="54"/>
+      <c r="E324" s="52"/>
+      <c r="F324" s="53"/>
     </row>
     <row r="325">
-      <c r="F325" s="34"/>
+      <c r="A325" s="52"/>
+      <c r="B325" s="52"/>
+      <c r="D325" s="54"/>
+      <c r="E325" s="52"/>
+      <c r="F325" s="53"/>
     </row>
     <row r="326">
-      <c r="F326" s="34"/>
+      <c r="A326" s="52"/>
+      <c r="B326" s="52"/>
+      <c r="D326" s="54"/>
+      <c r="E326" s="52"/>
+      <c r="F326" s="53"/>
     </row>
     <row r="327">
-      <c r="F327" s="34"/>
+      <c r="A327" s="52"/>
+      <c r="B327" s="52"/>
+      <c r="D327" s="54"/>
+      <c r="E327" s="52"/>
+      <c r="F327" s="53"/>
     </row>
     <row r="328">
-      <c r="F328" s="34"/>
+      <c r="A328" s="52"/>
+      <c r="B328" s="52"/>
+      <c r="D328" s="54"/>
+      <c r="E328" s="52"/>
+      <c r="F328" s="53"/>
     </row>
     <row r="329">
-      <c r="F329" s="34"/>
+      <c r="A329" s="52"/>
+      <c r="B329" s="52"/>
+      <c r="D329" s="54"/>
+      <c r="E329" s="52"/>
+      <c r="F329" s="53"/>
     </row>
     <row r="330">
-      <c r="F330" s="34"/>
+      <c r="A330" s="52"/>
+      <c r="B330" s="52"/>
+      <c r="D330" s="54"/>
+      <c r="E330" s="52"/>
+      <c r="F330" s="53"/>
     </row>
     <row r="331">
-      <c r="F331" s="34"/>
+      <c r="A331" s="52"/>
+      <c r="B331" s="52"/>
+      <c r="D331" s="54"/>
+      <c r="E331" s="52"/>
+      <c r="F331" s="53"/>
     </row>
     <row r="332">
-      <c r="F332" s="34"/>
+      <c r="A332" s="52"/>
+      <c r="B332" s="52"/>
+      <c r="D332" s="54"/>
+      <c r="E332" s="52"/>
+      <c r="F332" s="53"/>
     </row>
     <row r="333">
-      <c r="F333" s="34"/>
+      <c r="A333" s="52"/>
+      <c r="B333" s="52"/>
+      <c r="D333" s="54"/>
+      <c r="E333" s="52"/>
+      <c r="F333" s="53"/>
     </row>
     <row r="334">
-      <c r="F334" s="34"/>
+      <c r="A334" s="52"/>
+      <c r="B334" s="52"/>
+      <c r="D334" s="54"/>
+      <c r="E334" s="52"/>
+      <c r="F334" s="53"/>
     </row>
     <row r="335">
-      <c r="F335" s="34"/>
+      <c r="A335" s="52"/>
+      <c r="B335" s="52"/>
+      <c r="D335" s="54"/>
+      <c r="E335" s="52"/>
+      <c r="F335" s="53"/>
     </row>
     <row r="336">
-      <c r="F336" s="34"/>
+      <c r="A336" s="52"/>
+      <c r="B336" s="52"/>
+      <c r="D336" s="54"/>
+      <c r="E336" s="52"/>
+      <c r="F336" s="53"/>
     </row>
     <row r="337">
-      <c r="F337" s="34"/>
+      <c r="A337" s="52"/>
+      <c r="B337" s="52"/>
+      <c r="D337" s="54"/>
+      <c r="E337" s="52"/>
+      <c r="F337" s="53"/>
     </row>
     <row r="338">
-      <c r="F338" s="34"/>
+      <c r="A338" s="52"/>
+      <c r="B338" s="52"/>
+      <c r="D338" s="54"/>
+      <c r="E338" s="52"/>
+      <c r="F338" s="53"/>
     </row>
     <row r="339">
-      <c r="F339" s="34"/>
+      <c r="A339" s="52"/>
+      <c r="B339" s="52"/>
+      <c r="D339" s="54"/>
+      <c r="E339" s="52"/>
+      <c r="F339" s="53"/>
     </row>
     <row r="340">
-      <c r="F340" s="34"/>
+      <c r="A340" s="52"/>
+      <c r="B340" s="52"/>
+      <c r="D340" s="54"/>
+      <c r="E340" s="52"/>
+      <c r="F340" s="53"/>
     </row>
     <row r="341">
-      <c r="F341" s="34"/>
+      <c r="A341" s="52"/>
+      <c r="B341" s="52"/>
+      <c r="D341" s="54"/>
+      <c r="E341" s="52"/>
+      <c r="F341" s="53"/>
     </row>
     <row r="342">
-      <c r="F342" s="34"/>
+      <c r="A342" s="52"/>
+      <c r="B342" s="52"/>
+      <c r="D342" s="54"/>
+      <c r="E342" s="52"/>
+      <c r="F342" s="53"/>
     </row>
     <row r="343">
-      <c r="F343" s="34"/>
+      <c r="A343" s="52"/>
+      <c r="B343" s="52"/>
+      <c r="D343" s="54"/>
+      <c r="E343" s="52"/>
+      <c r="F343" s="53"/>
     </row>
     <row r="344">
-      <c r="F344" s="34"/>
+      <c r="A344" s="52"/>
+      <c r="B344" s="52"/>
+      <c r="D344" s="54"/>
+      <c r="E344" s="52"/>
+      <c r="F344" s="53"/>
     </row>
     <row r="345">
-      <c r="F345" s="34"/>
+      <c r="A345" s="52"/>
+      <c r="B345" s="52"/>
+      <c r="D345" s="54"/>
+      <c r="E345" s="52"/>
+      <c r="F345" s="53"/>
     </row>
     <row r="346">
-      <c r="F346" s="34"/>
+      <c r="A346" s="52"/>
+      <c r="B346" s="52"/>
+      <c r="D346" s="54"/>
+      <c r="E346" s="52"/>
+      <c r="F346" s="53"/>
     </row>
     <row r="347">
-      <c r="F347" s="34"/>
+      <c r="A347" s="52"/>
+      <c r="B347" s="52"/>
+      <c r="D347" s="54"/>
+      <c r="E347" s="52"/>
+      <c r="F347" s="53"/>
     </row>
     <row r="348">
-      <c r="F348" s="34"/>
+      <c r="A348" s="52"/>
+      <c r="B348" s="52"/>
+      <c r="D348" s="54"/>
+      <c r="E348" s="52"/>
+      <c r="F348" s="53"/>
     </row>
     <row r="349">
-      <c r="F349" s="34"/>
+      <c r="A349" s="52"/>
+      <c r="B349" s="52"/>
+      <c r="D349" s="54"/>
+      <c r="E349" s="52"/>
+      <c r="F349" s="53"/>
     </row>
     <row r="350">
-      <c r="F350" s="34"/>
+      <c r="A350" s="52"/>
+      <c r="B350" s="52"/>
+      <c r="D350" s="54"/>
+      <c r="E350" s="52"/>
+      <c r="F350" s="53"/>
     </row>
     <row r="351">
-      <c r="F351" s="34"/>
+      <c r="A351" s="52"/>
+      <c r="B351" s="52"/>
+      <c r="D351" s="54"/>
+      <c r="E351" s="52"/>
+      <c r="F351" s="53"/>
     </row>
     <row r="352">
-      <c r="F352" s="34"/>
+      <c r="A352" s="52"/>
+      <c r="B352" s="52"/>
+      <c r="D352" s="54"/>
+      <c r="E352" s="52"/>
+      <c r="F352" s="53"/>
     </row>
     <row r="353">
-      <c r="F353" s="34"/>
+      <c r="A353" s="52"/>
+      <c r="B353" s="52"/>
+      <c r="D353" s="54"/>
+      <c r="E353" s="52"/>
+      <c r="F353" s="53"/>
     </row>
     <row r="354">
-      <c r="F354" s="34"/>
+      <c r="A354" s="52"/>
+      <c r="B354" s="52"/>
+      <c r="D354" s="54"/>
+      <c r="E354" s="52"/>
+      <c r="F354" s="53"/>
     </row>
     <row r="355">
-      <c r="F355" s="34"/>
+      <c r="A355" s="52"/>
+      <c r="B355" s="52"/>
+      <c r="D355" s="54"/>
+      <c r="E355" s="52"/>
+      <c r="F355" s="53"/>
     </row>
     <row r="356">
-      <c r="F356" s="34"/>
+      <c r="A356" s="52"/>
+      <c r="B356" s="52"/>
+      <c r="D356" s="54"/>
+      <c r="E356" s="52"/>
+      <c r="F356" s="53"/>
     </row>
     <row r="357">
-      <c r="F357" s="34"/>
+      <c r="A357" s="52"/>
+      <c r="B357" s="52"/>
+      <c r="D357" s="54"/>
+      <c r="E357" s="52"/>
+      <c r="F357" s="53"/>
     </row>
     <row r="358">
-      <c r="F358" s="34"/>
+      <c r="A358" s="52"/>
+      <c r="B358" s="52"/>
+      <c r="D358" s="54"/>
+      <c r="E358" s="52"/>
+      <c r="F358" s="53"/>
     </row>
     <row r="359">
-      <c r="F359" s="34"/>
+      <c r="A359" s="52"/>
+      <c r="B359" s="52"/>
+      <c r="D359" s="54"/>
+      <c r="E359" s="52"/>
+      <c r="F359" s="53"/>
     </row>
     <row r="360">
-      <c r="F360" s="34"/>
+      <c r="A360" s="52"/>
+      <c r="B360" s="52"/>
+      <c r="D360" s="54"/>
+      <c r="E360" s="52"/>
+      <c r="F360" s="53"/>
     </row>
     <row r="361">
-      <c r="F361" s="34"/>
+      <c r="A361" s="52"/>
+      <c r="B361" s="52"/>
+      <c r="D361" s="54"/>
+      <c r="E361" s="52"/>
+      <c r="F361" s="53"/>
     </row>
     <row r="362">
-      <c r="F362" s="34"/>
+      <c r="A362" s="52"/>
+      <c r="B362" s="52"/>
+      <c r="D362" s="54"/>
+      <c r="E362" s="52"/>
+      <c r="F362" s="53"/>
     </row>
     <row r="363">
-      <c r="F363" s="34"/>
+      <c r="A363" s="52"/>
+      <c r="B363" s="52"/>
+      <c r="D363" s="54"/>
+      <c r="E363" s="52"/>
+      <c r="F363" s="53"/>
     </row>
     <row r="364">
-      <c r="F364" s="34"/>
+      <c r="A364" s="52"/>
+      <c r="B364" s="52"/>
+      <c r="D364" s="54"/>
+      <c r="E364" s="52"/>
+      <c r="F364" s="53"/>
     </row>
     <row r="365">
-      <c r="F365" s="34"/>
+      <c r="A365" s="52"/>
+      <c r="B365" s="52"/>
+      <c r="D365" s="54"/>
+      <c r="E365" s="52"/>
+      <c r="F365" s="53"/>
     </row>
     <row r="366">
-      <c r="F366" s="34"/>
+      <c r="A366" s="52"/>
+      <c r="B366" s="52"/>
+      <c r="D366" s="54"/>
+      <c r="E366" s="52"/>
+      <c r="F366" s="53"/>
     </row>
     <row r="367">
-      <c r="F367" s="34"/>
+      <c r="A367" s="52"/>
+      <c r="B367" s="52"/>
+      <c r="D367" s="54"/>
+      <c r="E367" s="52"/>
+      <c r="F367" s="53"/>
     </row>
     <row r="368">
-      <c r="F368" s="34"/>
+      <c r="A368" s="52"/>
+      <c r="B368" s="52"/>
+      <c r="D368" s="54"/>
+      <c r="E368" s="52"/>
+      <c r="F368" s="53"/>
     </row>
     <row r="369">
-      <c r="F369" s="34"/>
+      <c r="A369" s="52"/>
+      <c r="B369" s="52"/>
+      <c r="D369" s="54"/>
+      <c r="E369" s="52"/>
+      <c r="F369" s="53"/>
     </row>
     <row r="370">
-      <c r="F370" s="34"/>
+      <c r="A370" s="52"/>
+      <c r="B370" s="52"/>
+      <c r="D370" s="54"/>
+      <c r="E370" s="52"/>
+      <c r="F370" s="53"/>
     </row>
     <row r="371">
-      <c r="F371" s="34"/>
+      <c r="A371" s="52"/>
+      <c r="B371" s="52"/>
+      <c r="D371" s="54"/>
+      <c r="E371" s="52"/>
+      <c r="F371" s="53"/>
     </row>
     <row r="372">
-      <c r="F372" s="34"/>
+      <c r="A372" s="52"/>
+      <c r="B372" s="52"/>
+      <c r="D372" s="54"/>
+      <c r="E372" s="52"/>
+      <c r="F372" s="53"/>
     </row>
     <row r="373">
-      <c r="F373" s="34"/>
+      <c r="A373" s="52"/>
+      <c r="B373" s="52"/>
+      <c r="D373" s="54"/>
+      <c r="E373" s="52"/>
+      <c r="F373" s="53"/>
     </row>
     <row r="374">
-      <c r="F374" s="34"/>
+      <c r="A374" s="52"/>
+      <c r="B374" s="52"/>
+      <c r="D374" s="54"/>
+      <c r="E374" s="52"/>
+      <c r="F374" s="53"/>
     </row>
     <row r="375">
-      <c r="F375" s="34"/>
+      <c r="A375" s="52"/>
+      <c r="B375" s="52"/>
+      <c r="D375" s="54"/>
+      <c r="E375" s="52"/>
+      <c r="F375" s="53"/>
     </row>
     <row r="376">
-      <c r="F376" s="34"/>
+      <c r="A376" s="52"/>
+      <c r="B376" s="52"/>
+      <c r="D376" s="54"/>
+      <c r="E376" s="52"/>
+      <c r="F376" s="53"/>
     </row>
     <row r="377">
-      <c r="F377" s="34"/>
+      <c r="A377" s="52"/>
+      <c r="B377" s="52"/>
+      <c r="D377" s="54"/>
+      <c r="E377" s="52"/>
+      <c r="F377" s="53"/>
     </row>
     <row r="378">
-      <c r="F378" s="34"/>
+      <c r="A378" s="52"/>
+      <c r="B378" s="52"/>
+      <c r="D378" s="54"/>
+      <c r="E378" s="52"/>
+      <c r="F378" s="53"/>
     </row>
     <row r="379">
-      <c r="F379" s="34"/>
+      <c r="A379" s="52"/>
+      <c r="B379" s="52"/>
+      <c r="D379" s="54"/>
+      <c r="E379" s="52"/>
+      <c r="F379" s="53"/>
     </row>
     <row r="380">
-      <c r="F380" s="34"/>
+      <c r="A380" s="52"/>
+      <c r="B380" s="52"/>
+      <c r="D380" s="54"/>
+      <c r="E380" s="52"/>
+      <c r="F380" s="53"/>
     </row>
     <row r="381">
-      <c r="F381" s="34"/>
+      <c r="A381" s="52"/>
+      <c r="B381" s="52"/>
+      <c r="D381" s="54"/>
+      <c r="E381" s="52"/>
+      <c r="F381" s="53"/>
     </row>
     <row r="382">
-      <c r="F382" s="34"/>
+      <c r="A382" s="52"/>
+      <c r="B382" s="52"/>
+      <c r="D382" s="54"/>
+      <c r="E382" s="52"/>
+      <c r="F382" s="53"/>
     </row>
     <row r="383">
-      <c r="F383" s="34"/>
+      <c r="A383" s="52"/>
+      <c r="B383" s="52"/>
+      <c r="D383" s="54"/>
+      <c r="E383" s="52"/>
+      <c r="F383" s="53"/>
     </row>
     <row r="384">
-      <c r="F384" s="34"/>
+      <c r="A384" s="52"/>
+      <c r="B384" s="52"/>
+      <c r="D384" s="54"/>
+      <c r="E384" s="52"/>
+      <c r="F384" s="53"/>
     </row>
     <row r="385">
-      <c r="F385" s="34"/>
+      <c r="A385" s="52"/>
+      <c r="B385" s="52"/>
+      <c r="D385" s="54"/>
+      <c r="E385" s="52"/>
+      <c r="F385" s="53"/>
     </row>
     <row r="386">
-      <c r="F386" s="34"/>
+      <c r="A386" s="52"/>
+      <c r="B386" s="52"/>
+      <c r="D386" s="54"/>
+      <c r="E386" s="52"/>
+      <c r="F386" s="53"/>
     </row>
     <row r="387">
-      <c r="F387" s="34"/>
+      <c r="A387" s="52"/>
+      <c r="B387" s="52"/>
+      <c r="D387" s="54"/>
+      <c r="E387" s="52"/>
+      <c r="F387" s="53"/>
     </row>
     <row r="388">
-      <c r="F388" s="34"/>
+      <c r="A388" s="52"/>
+      <c r="B388" s="52"/>
+      <c r="D388" s="54"/>
+      <c r="E388" s="52"/>
+      <c r="F388" s="53"/>
     </row>
     <row r="389">
-      <c r="F389" s="34"/>
+      <c r="A389" s="52"/>
+      <c r="B389" s="52"/>
+      <c r="D389" s="54"/>
+      <c r="E389" s="52"/>
+      <c r="F389" s="53"/>
     </row>
     <row r="390">
-      <c r="F390" s="34"/>
+      <c r="A390" s="52"/>
+      <c r="B390" s="52"/>
+      <c r="D390" s="54"/>
+      <c r="E390" s="52"/>
+      <c r="F390" s="53"/>
     </row>
     <row r="391">
-      <c r="F391" s="34"/>
+      <c r="A391" s="52"/>
+      <c r="B391" s="52"/>
+      <c r="D391" s="54"/>
+      <c r="E391" s="52"/>
+      <c r="F391" s="53"/>
     </row>
     <row r="392">
-      <c r="F392" s="34"/>
+      <c r="A392" s="52"/>
+      <c r="B392" s="52"/>
+      <c r="D392" s="54"/>
+      <c r="E392" s="52"/>
+      <c r="F392" s="53"/>
     </row>
     <row r="393">
-      <c r="F393" s="34"/>
+      <c r="A393" s="52"/>
+      <c r="B393" s="52"/>
+      <c r="D393" s="54"/>
+      <c r="E393" s="52"/>
+      <c r="F393" s="53"/>
     </row>
     <row r="394">
-      <c r="F394" s="34"/>
+      <c r="A394" s="52"/>
+      <c r="B394" s="52"/>
+      <c r="D394" s="54"/>
+      <c r="E394" s="52"/>
+      <c r="F394" s="53"/>
     </row>
     <row r="395">
-      <c r="F395" s="34"/>
+      <c r="A395" s="52"/>
+      <c r="B395" s="52"/>
+      <c r="D395" s="54"/>
+      <c r="E395" s="52"/>
+      <c r="F395" s="53"/>
     </row>
     <row r="396">
-      <c r="F396" s="34"/>
+      <c r="A396" s="52"/>
+      <c r="B396" s="52"/>
+      <c r="D396" s="54"/>
+      <c r="E396" s="52"/>
+      <c r="F396" s="53"/>
     </row>
     <row r="397">
-      <c r="F397" s="34"/>
+      <c r="A397" s="52"/>
+      <c r="B397" s="52"/>
+      <c r="D397" s="54"/>
+      <c r="E397" s="52"/>
+      <c r="F397" s="53"/>
     </row>
     <row r="398">
-      <c r="F398" s="34"/>
+      <c r="A398" s="52"/>
+      <c r="B398" s="52"/>
+      <c r="D398" s="54"/>
+      <c r="E398" s="52"/>
+      <c r="F398" s="53"/>
     </row>
     <row r="399">
-      <c r="F399" s="34"/>
+      <c r="A399" s="52"/>
+      <c r="B399" s="52"/>
+      <c r="D399" s="54"/>
+      <c r="E399" s="52"/>
+      <c r="F399" s="53"/>
     </row>
     <row r="400">
-      <c r="F400" s="34"/>
+      <c r="A400" s="52"/>
+      <c r="B400" s="52"/>
+      <c r="D400" s="54"/>
+      <c r="E400" s="52"/>
+      <c r="F400" s="53"/>
     </row>
     <row r="401">
-      <c r="F401" s="34"/>
+      <c r="A401" s="52"/>
+      <c r="B401" s="52"/>
+      <c r="D401" s="54"/>
+      <c r="E401" s="52"/>
+      <c r="F401" s="53"/>
     </row>
     <row r="402">
-      <c r="F402" s="34"/>
+      <c r="A402" s="52"/>
+      <c r="B402" s="52"/>
+      <c r="D402" s="54"/>
+      <c r="E402" s="52"/>
+      <c r="F402" s="53"/>
     </row>
     <row r="403">
-      <c r="F403" s="34"/>
+      <c r="A403" s="52"/>
+      <c r="B403" s="52"/>
+      <c r="D403" s="54"/>
+      <c r="E403" s="52"/>
+      <c r="F403" s="53"/>
     </row>
     <row r="404">
-      <c r="F404" s="34"/>
+      <c r="A404" s="52"/>
+      <c r="B404" s="52"/>
+      <c r="D404" s="54"/>
+      <c r="E404" s="52"/>
+      <c r="F404" s="53"/>
     </row>
     <row r="405">
-      <c r="F405" s="34"/>
+      <c r="A405" s="52"/>
+      <c r="B405" s="52"/>
+      <c r="D405" s="54"/>
+      <c r="E405" s="52"/>
+      <c r="F405" s="53"/>
     </row>
     <row r="406">
-      <c r="F406" s="34"/>
+      <c r="A406" s="52"/>
+      <c r="B406" s="52"/>
+      <c r="D406" s="54"/>
+      <c r="E406" s="52"/>
+      <c r="F406" s="53"/>
     </row>
     <row r="407">
-      <c r="F407" s="34"/>
+      <c r="A407" s="52"/>
+      <c r="B407" s="52"/>
+      <c r="D407" s="54"/>
+      <c r="E407" s="52"/>
+      <c r="F407" s="53"/>
     </row>
     <row r="408">
-      <c r="F408" s="34"/>
+      <c r="A408" s="52"/>
+      <c r="B408" s="52"/>
+      <c r="D408" s="54"/>
+      <c r="E408" s="52"/>
+      <c r="F408" s="53"/>
     </row>
     <row r="409">
-      <c r="F409" s="34"/>
+      <c r="A409" s="52"/>
+      <c r="B409" s="52"/>
+      <c r="D409" s="54"/>
+      <c r="E409" s="52"/>
+      <c r="F409" s="53"/>
     </row>
     <row r="410">
-      <c r="F410" s="34"/>
+      <c r="A410" s="52"/>
+      <c r="B410" s="52"/>
+      <c r="D410" s="54"/>
+      <c r="E410" s="52"/>
+      <c r="F410" s="53"/>
     </row>
     <row r="411">
-      <c r="F411" s="34"/>
+      <c r="A411" s="52"/>
+      <c r="B411" s="52"/>
+      <c r="D411" s="54"/>
+      <c r="E411" s="52"/>
+      <c r="F411" s="53"/>
     </row>
     <row r="412">
-      <c r="F412" s="34"/>
+      <c r="A412" s="52"/>
+      <c r="B412" s="52"/>
+      <c r="D412" s="54"/>
+      <c r="E412" s="52"/>
+      <c r="F412" s="53"/>
     </row>
     <row r="413">
-      <c r="F413" s="34"/>
+      <c r="A413" s="52"/>
+      <c r="B413" s="52"/>
+      <c r="D413" s="54"/>
+      <c r="E413" s="52"/>
+      <c r="F413" s="53"/>
     </row>
     <row r="414">
-      <c r="F414" s="34"/>
+      <c r="A414" s="52"/>
+      <c r="B414" s="52"/>
+      <c r="D414" s="54"/>
+      <c r="E414" s="52"/>
+      <c r="F414" s="53"/>
     </row>
     <row r="415">
-      <c r="F415" s="34"/>
+      <c r="A415" s="52"/>
+      <c r="B415" s="52"/>
+      <c r="D415" s="54"/>
+      <c r="E415" s="52"/>
+      <c r="F415" s="53"/>
     </row>
     <row r="416">
-      <c r="F416" s="34"/>
+      <c r="A416" s="52"/>
+      <c r="B416" s="52"/>
+      <c r="D416" s="54"/>
+      <c r="E416" s="52"/>
+      <c r="F416" s="53"/>
     </row>
     <row r="417">
-      <c r="F417" s="34"/>
+      <c r="A417" s="52"/>
+      <c r="B417" s="52"/>
+      <c r="D417" s="54"/>
+      <c r="E417" s="52"/>
+      <c r="F417" s="53"/>
     </row>
     <row r="418">
-      <c r="F418" s="34"/>
+      <c r="A418" s="52"/>
+      <c r="B418" s="52"/>
+      <c r="D418" s="54"/>
+      <c r="E418" s="52"/>
+      <c r="F418" s="53"/>
     </row>
     <row r="419">
-      <c r="F419" s="34"/>
+      <c r="A419" s="52"/>
+      <c r="B419" s="52"/>
+      <c r="D419" s="54"/>
+      <c r="E419" s="52"/>
+      <c r="F419" s="53"/>
     </row>
     <row r="420">
-      <c r="F420" s="34"/>
+      <c r="A420" s="52"/>
+      <c r="B420" s="52"/>
+      <c r="D420" s="54"/>
+      <c r="E420" s="52"/>
+      <c r="F420" s="53"/>
     </row>
     <row r="421">
-      <c r="F421" s="34"/>
+      <c r="A421" s="52"/>
+      <c r="B421" s="52"/>
+      <c r="D421" s="54"/>
+      <c r="E421" s="52"/>
+      <c r="F421" s="53"/>
     </row>
     <row r="422">
-      <c r="F422" s="34"/>
+      <c r="A422" s="52"/>
+      <c r="B422" s="52"/>
+      <c r="D422" s="54"/>
+      <c r="E422" s="52"/>
+      <c r="F422" s="53"/>
     </row>
     <row r="423">
-      <c r="F423" s="34"/>
+      <c r="A423" s="52"/>
+      <c r="B423" s="52"/>
+      <c r="D423" s="54"/>
+      <c r="E423" s="52"/>
+      <c r="F423" s="53"/>
     </row>
     <row r="424">
-      <c r="F424" s="34"/>
+      <c r="A424" s="52"/>
+      <c r="B424" s="52"/>
+      <c r="D424" s="54"/>
+      <c r="E424" s="52"/>
+      <c r="F424" s="53"/>
     </row>
     <row r="425">
-      <c r="F425" s="34"/>
+      <c r="A425" s="52"/>
+      <c r="B425" s="52"/>
+      <c r="D425" s="54"/>
+      <c r="E425" s="52"/>
+      <c r="F425" s="53"/>
     </row>
     <row r="426">
-      <c r="F426" s="34"/>
+      <c r="A426" s="52"/>
+      <c r="B426" s="52"/>
+      <c r="D426" s="54"/>
+      <c r="E426" s="52"/>
+      <c r="F426" s="53"/>
     </row>
     <row r="427">
-      <c r="F427" s="34"/>
+      <c r="A427" s="52"/>
+      <c r="B427" s="52"/>
+      <c r="D427" s="54"/>
+      <c r="E427" s="52"/>
+      <c r="F427" s="53"/>
     </row>
     <row r="428">
-      <c r="F428" s="34"/>
+      <c r="A428" s="52"/>
+      <c r="B428" s="52"/>
+      <c r="D428" s="54"/>
+      <c r="E428" s="52"/>
+      <c r="F428" s="53"/>
     </row>
     <row r="429">
-      <c r="F429" s="34"/>
+      <c r="A429" s="52"/>
+      <c r="B429" s="52"/>
+      <c r="D429" s="54"/>
+      <c r="E429" s="52"/>
+      <c r="F429" s="53"/>
     </row>
     <row r="430">
-      <c r="F430" s="34"/>
+      <c r="A430" s="52"/>
+      <c r="B430" s="52"/>
+      <c r="D430" s="54"/>
+      <c r="E430" s="52"/>
+      <c r="F430" s="53"/>
     </row>
     <row r="431">
-      <c r="F431" s="34"/>
+      <c r="A431" s="52"/>
+      <c r="B431" s="52"/>
+      <c r="D431" s="54"/>
+      <c r="E431" s="52"/>
+      <c r="F431" s="53"/>
     </row>
     <row r="432">
-      <c r="F432" s="34"/>
+      <c r="A432" s="52"/>
+      <c r="B432" s="52"/>
+      <c r="D432" s="54"/>
+      <c r="E432" s="52"/>
+      <c r="F432" s="53"/>
     </row>
     <row r="433">
-      <c r="F433" s="34"/>
+      <c r="A433" s="52"/>
+      <c r="B433" s="52"/>
+      <c r="D433" s="54"/>
+      <c r="E433" s="52"/>
+      <c r="F433" s="53"/>
     </row>
     <row r="434">
-      <c r="F434" s="34"/>
+      <c r="A434" s="52"/>
+      <c r="B434" s="52"/>
+      <c r="D434" s="54"/>
+      <c r="E434" s="52"/>
+      <c r="F434" s="53"/>
     </row>
     <row r="435">
-      <c r="F435" s="34"/>
+      <c r="A435" s="52"/>
+      <c r="B435" s="52"/>
+      <c r="D435" s="54"/>
+      <c r="E435" s="52"/>
+      <c r="F435" s="53"/>
     </row>
     <row r="436">
-      <c r="F436" s="34"/>
+      <c r="A436" s="52"/>
+      <c r="B436" s="52"/>
+      <c r="D436" s="54"/>
+      <c r="E436" s="52"/>
+      <c r="F436" s="53"/>
     </row>
     <row r="437">
-      <c r="F437" s="34"/>
+      <c r="A437" s="52"/>
+      <c r="B437" s="52"/>
+      <c r="D437" s="54"/>
+      <c r="E437" s="52"/>
+      <c r="F437" s="53"/>
     </row>
     <row r="438">
-      <c r="F438" s="34"/>
+      <c r="A438" s="52"/>
+      <c r="B438" s="52"/>
+      <c r="D438" s="54"/>
+      <c r="E438" s="52"/>
+      <c r="F438" s="53"/>
     </row>
     <row r="439">
-      <c r="F439" s="34"/>
+      <c r="A439" s="52"/>
+      <c r="B439" s="52"/>
+      <c r="D439" s="54"/>
+      <c r="E439" s="52"/>
+      <c r="F439" s="53"/>
     </row>
     <row r="440">
-      <c r="F440" s="34"/>
+      <c r="A440" s="52"/>
+      <c r="B440" s="52"/>
+      <c r="D440" s="54"/>
+      <c r="E440" s="52"/>
+      <c r="F440" s="53"/>
     </row>
     <row r="441">
-      <c r="F441" s="34"/>
+      <c r="A441" s="52"/>
+      <c r="B441" s="52"/>
+      <c r="D441" s="54"/>
+      <c r="E441" s="52"/>
+      <c r="F441" s="53"/>
     </row>
     <row r="442">
-      <c r="F442" s="34"/>
+      <c r="A442" s="52"/>
+      <c r="B442" s="52"/>
+      <c r="D442" s="54"/>
+      <c r="E442" s="52"/>
+      <c r="F442" s="53"/>
     </row>
     <row r="443">
-      <c r="F443" s="34"/>
+      <c r="A443" s="52"/>
+      <c r="B443" s="52"/>
+      <c r="D443" s="54"/>
+      <c r="E443" s="52"/>
+      <c r="F443" s="53"/>
     </row>
     <row r="444">
-      <c r="F444" s="34"/>
+      <c r="A444" s="52"/>
+      <c r="B444" s="52"/>
+      <c r="D444" s="54"/>
+      <c r="E444" s="52"/>
+      <c r="F444" s="53"/>
     </row>
     <row r="445">
-      <c r="F445" s="34"/>
+      <c r="A445" s="52"/>
+      <c r="B445" s="52"/>
+      <c r="D445" s="54"/>
+      <c r="E445" s="52"/>
+      <c r="F445" s="53"/>
     </row>
     <row r="446">
-      <c r="F446" s="34"/>
+      <c r="A446" s="52"/>
+      <c r="B446" s="52"/>
+      <c r="D446" s="54"/>
+      <c r="E446" s="52"/>
+      <c r="F446" s="53"/>
     </row>
     <row r="447">
-      <c r="F447" s="34"/>
+      <c r="A447" s="52"/>
+      <c r="B447" s="52"/>
+      <c r="D447" s="54"/>
+      <c r="E447" s="52"/>
+      <c r="F447" s="53"/>
     </row>
     <row r="448">
-      <c r="F448" s="34"/>
+      <c r="A448" s="52"/>
+      <c r="B448" s="52"/>
+      <c r="D448" s="54"/>
+      <c r="E448" s="52"/>
+      <c r="F448" s="53"/>
     </row>
     <row r="449">
-      <c r="F449" s="34"/>
+      <c r="A449" s="52"/>
+      <c r="B449" s="52"/>
+      <c r="D449" s="54"/>
+      <c r="E449" s="52"/>
+      <c r="F449" s="53"/>
     </row>
     <row r="450">
-      <c r="F450" s="34"/>
+      <c r="A450" s="52"/>
+      <c r="B450" s="52"/>
+      <c r="D450" s="54"/>
+      <c r="E450" s="52"/>
+      <c r="F450" s="53"/>
     </row>
     <row r="451">
-      <c r="F451" s="34"/>
+      <c r="A451" s="52"/>
+      <c r="B451" s="52"/>
+      <c r="D451" s="54"/>
+      <c r="E451" s="52"/>
+      <c r="F451" s="53"/>
     </row>
     <row r="452">
-      <c r="F452" s="34"/>
+      <c r="A452" s="52"/>
+      <c r="B452" s="52"/>
+      <c r="D452" s="54"/>
+      <c r="E452" s="52"/>
+      <c r="F452" s="53"/>
     </row>
     <row r="453">
-      <c r="F453" s="34"/>
+      <c r="A453" s="52"/>
+      <c r="B453" s="52"/>
+      <c r="D453" s="54"/>
+      <c r="E453" s="52"/>
+      <c r="F453" s="53"/>
     </row>
     <row r="454">
-      <c r="F454" s="34"/>
+      <c r="A454" s="52"/>
+      <c r="B454" s="52"/>
+      <c r="D454" s="54"/>
+      <c r="E454" s="52"/>
+      <c r="F454" s="53"/>
     </row>
     <row r="455">
-      <c r="F455" s="34"/>
+      <c r="A455" s="52"/>
+      <c r="B455" s="52"/>
+      <c r="D455" s="54"/>
+      <c r="E455" s="52"/>
+      <c r="F455" s="53"/>
     </row>
     <row r="456">
-      <c r="F456" s="34"/>
+      <c r="A456" s="52"/>
+      <c r="B456" s="52"/>
+      <c r="D456" s="54"/>
+      <c r="E456" s="52"/>
+      <c r="F456" s="53"/>
     </row>
     <row r="457">
-      <c r="F457" s="34"/>
+      <c r="A457" s="52"/>
+      <c r="B457" s="52"/>
+      <c r="D457" s="54"/>
+      <c r="E457" s="52"/>
+      <c r="F457" s="53"/>
     </row>
     <row r="458">
-      <c r="F458" s="34"/>
+      <c r="A458" s="52"/>
+      <c r="B458" s="52"/>
+      <c r="D458" s="54"/>
+      <c r="E458" s="52"/>
+      <c r="F458" s="53"/>
     </row>
     <row r="459">
-      <c r="F459" s="34"/>
+      <c r="A459" s="52"/>
+      <c r="B459" s="52"/>
+      <c r="D459" s="54"/>
+      <c r="E459" s="52"/>
+      <c r="F459" s="53"/>
     </row>
     <row r="460">
-      <c r="F460" s="34"/>
+      <c r="A460" s="52"/>
+      <c r="B460" s="52"/>
+      <c r="D460" s="54"/>
+      <c r="E460" s="52"/>
+      <c r="F460" s="53"/>
     </row>
     <row r="461">
-      <c r="F461" s="34"/>
+      <c r="A461" s="52"/>
+      <c r="B461" s="52"/>
+      <c r="D461" s="54"/>
+      <c r="E461" s="52"/>
+      <c r="F461" s="53"/>
     </row>
     <row r="462">
-      <c r="F462" s="34"/>
+      <c r="A462" s="52"/>
+      <c r="B462" s="52"/>
+      <c r="D462" s="54"/>
+      <c r="E462" s="52"/>
+      <c r="F462" s="53"/>
     </row>
     <row r="463">
-      <c r="F463" s="34"/>
+      <c r="A463" s="52"/>
+      <c r="B463" s="52"/>
+      <c r="D463" s="54"/>
+      <c r="E463" s="52"/>
+      <c r="F463" s="53"/>
     </row>
     <row r="464">
-      <c r="F464" s="34"/>
+      <c r="A464" s="52"/>
+      <c r="B464" s="52"/>
+      <c r="D464" s="54"/>
+      <c r="E464" s="52"/>
+      <c r="F464" s="53"/>
     </row>
     <row r="465">
-      <c r="F465" s="34"/>
+      <c r="A465" s="52"/>
+      <c r="B465" s="52"/>
+      <c r="D465" s="54"/>
+      <c r="E465" s="52"/>
+      <c r="F465" s="53"/>
     </row>
     <row r="466">
-      <c r="F466" s="34"/>
+      <c r="A466" s="52"/>
+      <c r="B466" s="52"/>
+      <c r="D466" s="54"/>
+      <c r="E466" s="52"/>
+      <c r="F466" s="53"/>
     </row>
     <row r="467">
-      <c r="F467" s="34"/>
+      <c r="A467" s="52"/>
+      <c r="B467" s="52"/>
+      <c r="D467" s="54"/>
+      <c r="E467" s="52"/>
+      <c r="F467" s="53"/>
     </row>
     <row r="468">
-      <c r="F468" s="34"/>
+      <c r="A468" s="52"/>
+      <c r="B468" s="52"/>
+      <c r="D468" s="54"/>
+      <c r="E468" s="52"/>
+      <c r="F468" s="53"/>
     </row>
     <row r="469">
-      <c r="F469" s="34"/>
+      <c r="A469" s="52"/>
+      <c r="B469" s="52"/>
+      <c r="D469" s="54"/>
+      <c r="E469" s="52"/>
+      <c r="F469" s="53"/>
     </row>
     <row r="470">
-      <c r="F470" s="34"/>
+      <c r="A470" s="52"/>
+      <c r="B470" s="52"/>
+      <c r="D470" s="54"/>
+      <c r="E470" s="52"/>
+      <c r="F470" s="53"/>
     </row>
     <row r="471">
-      <c r="F471" s="34"/>
+      <c r="A471" s="52"/>
+      <c r="B471" s="52"/>
+      <c r="D471" s="54"/>
+      <c r="E471" s="52"/>
+      <c r="F471" s="53"/>
     </row>
     <row r="472">
-      <c r="F472" s="34"/>
+      <c r="A472" s="52"/>
+      <c r="B472" s="52"/>
+      <c r="D472" s="54"/>
+      <c r="E472" s="52"/>
+      <c r="F472" s="53"/>
     </row>
     <row r="473">
-      <c r="F473" s="34"/>
+      <c r="A473" s="52"/>
     </row>
     <row r="474">
-      <c r="F474" s="34"/>
+      <c r="A474" s="52"/>
     </row>
     <row r="475">
-      <c r="F475" s="34"/>
+      <c r="A475" s="52"/>
     </row>
     <row r="476">
-      <c r="F476" s="34"/>
+      <c r="A476" s="52"/>
     </row>
     <row r="477">
-      <c r="F477" s="34"/>
+      <c r="A477" s="52"/>
     </row>
     <row r="478">
-      <c r="F478" s="34"/>
+      <c r="A478" s="52"/>
     </row>
     <row r="479">
-      <c r="F479" s="34"/>
+      <c r="A479" s="52"/>
     </row>
     <row r="480">
-      <c r="F480" s="34"/>
+      <c r="A480" s="52"/>
     </row>
     <row r="481">
-      <c r="F481" s="34"/>
+      <c r="A481" s="52"/>
     </row>
     <row r="482">
-      <c r="F482" s="34"/>
+      <c r="A482" s="52"/>
     </row>
     <row r="483">
-      <c r="F483" s="34"/>
+      <c r="A483" s="52"/>
+      <c r="B483" s="52"/>
+      <c r="D483" s="54"/>
+      <c r="E483" s="52"/>
+      <c r="F483" s="53"/>
     </row>
     <row r="484">
-      <c r="F484" s="34"/>
+      <c r="A484" s="52"/>
+      <c r="B484" s="52"/>
+      <c r="D484" s="54"/>
+      <c r="E484" s="52"/>
+      <c r="F484" s="53"/>
     </row>
     <row r="485">
-      <c r="F485" s="34"/>
+      <c r="A485" s="52"/>
+      <c r="B485" s="52"/>
+      <c r="D485" s="54"/>
+      <c r="E485" s="52"/>
+      <c r="F485" s="53"/>
     </row>
     <row r="486">
-      <c r="F486" s="34"/>
+      <c r="A486" s="52"/>
+      <c r="B486" s="52"/>
+      <c r="D486" s="54"/>
+      <c r="E486" s="52"/>
+      <c r="F486" s="53"/>
     </row>
     <row r="487">
-      <c r="F487" s="34"/>
+      <c r="A487" s="52"/>
+      <c r="B487" s="52"/>
+      <c r="D487" s="54"/>
+      <c r="E487" s="52"/>
+      <c r="F487" s="53"/>
     </row>
     <row r="488">
-      <c r="F488" s="34"/>
+      <c r="A488" s="52"/>
+      <c r="B488" s="52"/>
+      <c r="D488" s="54"/>
+      <c r="E488" s="52"/>
+      <c r="F488" s="53"/>
     </row>
     <row r="489">
-      <c r="F489" s="34"/>
+      <c r="A489" s="52"/>
+      <c r="B489" s="52"/>
+      <c r="D489" s="54"/>
+      <c r="E489" s="52"/>
+      <c r="F489" s="53"/>
     </row>
     <row r="490">
-      <c r="F490" s="34"/>
+      <c r="A490" s="52"/>
+      <c r="B490" s="52"/>
+      <c r="D490" s="54"/>
+      <c r="E490" s="52"/>
+      <c r="F490" s="53"/>
     </row>
     <row r="491">
-      <c r="F491" s="34"/>
+      <c r="A491" s="52"/>
+      <c r="B491" s="52"/>
+      <c r="D491" s="54"/>
+      <c r="E491" s="52"/>
+      <c r="F491" s="53"/>
     </row>
     <row r="492">
-      <c r="F492" s="34"/>
+      <c r="A492" s="52"/>
+      <c r="B492" s="52"/>
+      <c r="D492" s="54"/>
+      <c r="E492" s="52"/>
+      <c r="F492" s="53"/>
     </row>
     <row r="493">
-      <c r="F493" s="34"/>
+      <c r="A493" s="52"/>
+      <c r="B493" s="52"/>
+      <c r="D493" s="54"/>
+      <c r="E493" s="52"/>
+      <c r="F493" s="53"/>
     </row>
     <row r="494">
-      <c r="F494" s="34"/>
+      <c r="A494" s="52"/>
+      <c r="B494" s="52"/>
+      <c r="D494" s="54"/>
+      <c r="E494" s="52"/>
+      <c r="F494" s="53"/>
     </row>
     <row r="495">
-      <c r="F495" s="34"/>
+      <c r="A495" s="52"/>
+      <c r="B495" s="52"/>
+      <c r="D495" s="54"/>
+      <c r="E495" s="52"/>
+      <c r="F495" s="53"/>
     </row>
     <row r="496">
-      <c r="F496" s="34"/>
+      <c r="A496" s="52"/>
+      <c r="B496" s="52"/>
+      <c r="D496" s="54"/>
+      <c r="E496" s="52"/>
+      <c r="F496" s="53"/>
     </row>
     <row r="497">
-      <c r="F497" s="34"/>
+      <c r="A497" s="52"/>
+      <c r="B497" s="52"/>
+      <c r="D497" s="54"/>
+      <c r="E497" s="52"/>
+      <c r="F497" s="53"/>
     </row>
     <row r="498">
-      <c r="F498" s="34"/>
+      <c r="A498" s="52"/>
+      <c r="B498" s="52"/>
+      <c r="D498" s="54"/>
+      <c r="E498" s="52"/>
+      <c r="F498" s="53"/>
     </row>
     <row r="499">
-      <c r="F499" s="34"/>
+      <c r="A499" s="52"/>
+      <c r="B499" s="52"/>
+      <c r="D499" s="54"/>
+      <c r="E499" s="52"/>
+      <c r="F499" s="53"/>
     </row>
     <row r="500">
-      <c r="F500" s="34"/>
+      <c r="A500" s="52"/>
+      <c r="B500" s="52"/>
+      <c r="D500" s="54"/>
+      <c r="E500" s="52"/>
+      <c r="F500" s="53"/>
     </row>
     <row r="501">
-      <c r="F501" s="34"/>
+      <c r="A501" s="52"/>
+      <c r="B501" s="52"/>
+      <c r="D501" s="54"/>
+      <c r="E501" s="52"/>
+      <c r="F501" s="53"/>
     </row>
     <row r="502">
-      <c r="F502" s="34"/>
+      <c r="A502" s="52"/>
+      <c r="B502" s="52"/>
+      <c r="D502" s="54"/>
+      <c r="E502" s="52"/>
+      <c r="F502" s="53"/>
     </row>
     <row r="503">
-      <c r="F503" s="34"/>
+      <c r="A503" s="52"/>
+      <c r="B503" s="52"/>
+      <c r="D503" s="54"/>
+      <c r="E503" s="52"/>
+      <c r="F503" s="53"/>
     </row>
     <row r="504">
-      <c r="F504" s="34"/>
+      <c r="A504" s="52"/>
+      <c r="B504" s="52"/>
+      <c r="D504" s="54"/>
+      <c r="E504" s="52"/>
+      <c r="F504" s="53"/>
     </row>
     <row r="505">
-      <c r="F505" s="34"/>
+      <c r="A505" s="52"/>
+      <c r="B505" s="52"/>
+      <c r="D505" s="54"/>
+      <c r="E505" s="52"/>
+      <c r="F505" s="53"/>
     </row>
     <row r="506">
-      <c r="F506" s="34"/>
+      <c r="A506" s="52"/>
+      <c r="B506" s="52"/>
+      <c r="D506" s="54"/>
+      <c r="E506" s="52"/>
+      <c r="F506" s="53"/>
     </row>
     <row r="507">
-      <c r="F507" s="34"/>
+      <c r="A507" s="52"/>
+      <c r="B507" s="52"/>
+      <c r="D507" s="54"/>
+      <c r="E507" s="52"/>
+      <c r="F507" s="53"/>
     </row>
     <row r="508">
-      <c r="F508" s="34"/>
+      <c r="A508" s="52"/>
+      <c r="B508" s="52"/>
+      <c r="D508" s="54"/>
+      <c r="E508" s="52"/>
+      <c r="F508" s="53"/>
     </row>
     <row r="509">
-      <c r="F509" s="34"/>
+      <c r="A509" s="52"/>
+      <c r="B509" s="52"/>
+      <c r="D509" s="54"/>
+      <c r="E509" s="52"/>
+      <c r="F509" s="53"/>
     </row>
     <row r="510">
-      <c r="F510" s="34"/>
+      <c r="A510" s="52"/>
+      <c r="B510" s="52"/>
+      <c r="D510" s="54"/>
+      <c r="E510" s="52"/>
+      <c r="F510" s="53"/>
     </row>
     <row r="511">
-      <c r="F511" s="34"/>
+      <c r="A511" s="52"/>
+      <c r="B511" s="52"/>
+      <c r="D511" s="54"/>
+      <c r="E511" s="52"/>
+      <c r="F511" s="53"/>
     </row>
     <row r="512">
-      <c r="F512" s="34"/>
+      <c r="A512" s="52"/>
+      <c r="B512" s="52"/>
+      <c r="D512" s="54"/>
+      <c r="E512" s="52"/>
+      <c r="F512" s="53"/>
     </row>
     <row r="513">
-      <c r="F513" s="34"/>
+      <c r="A513" s="52"/>
+      <c r="B513" s="52"/>
+      <c r="D513" s="54"/>
+      <c r="E513" s="52"/>
+      <c r="F513" s="53"/>
     </row>
     <row r="514">
-      <c r="F514" s="34"/>
+      <c r="A514" s="52"/>
+      <c r="B514" s="52"/>
+      <c r="D514" s="54"/>
+      <c r="E514" s="52"/>
+      <c r="F514" s="53"/>
     </row>
     <row r="515">
-      <c r="F515" s="34"/>
+      <c r="A515" s="52"/>
+      <c r="B515" s="52"/>
+      <c r="D515" s="54"/>
+      <c r="E515" s="52"/>
+      <c r="F515" s="53"/>
     </row>
     <row r="516">
-      <c r="F516" s="34"/>
+      <c r="A516" s="52"/>
+      <c r="B516" s="52"/>
+      <c r="D516" s="54"/>
+      <c r="E516" s="52"/>
+      <c r="F516" s="53"/>
     </row>
     <row r="517">
-      <c r="F517" s="34"/>
+      <c r="A517" s="52"/>
+      <c r="B517" s="52"/>
+      <c r="D517" s="54"/>
+      <c r="E517" s="52"/>
+      <c r="F517" s="53"/>
     </row>
     <row r="518">
-      <c r="F518" s="34"/>
+      <c r="A518" s="52"/>
+      <c r="B518" s="52"/>
+      <c r="D518" s="54"/>
+      <c r="E518" s="52"/>
+      <c r="F518" s="53"/>
     </row>
     <row r="519">
-      <c r="F519" s="34"/>
+      <c r="A519" s="52"/>
+      <c r="B519" s="52"/>
+      <c r="D519" s="54"/>
+      <c r="E519" s="52"/>
+      <c r="F519" s="53"/>
     </row>
     <row r="520">
-      <c r="F520" s="34"/>
+      <c r="A520" s="52"/>
+      <c r="B520" s="52"/>
+      <c r="D520" s="54"/>
+      <c r="E520" s="52"/>
+      <c r="F520" s="53"/>
     </row>
     <row r="521">
-      <c r="F521" s="34"/>
+      <c r="A521" s="52"/>
+      <c r="B521" s="52"/>
+      <c r="D521" s="54"/>
+      <c r="E521" s="52"/>
+      <c r="F521" s="53"/>
     </row>
     <row r="522">
-      <c r="F522" s="34"/>
+      <c r="A522" s="52"/>
+      <c r="B522" s="52"/>
+      <c r="D522" s="54"/>
+      <c r="E522" s="52"/>
+      <c r="F522" s="53"/>
     </row>
     <row r="523">
-      <c r="F523" s="34"/>
+      <c r="A523" s="52"/>
+      <c r="B523" s="52"/>
+      <c r="D523" s="54"/>
+      <c r="E523" s="52"/>
+      <c r="F523" s="53"/>
     </row>
     <row r="524">
-      <c r="F524" s="34"/>
+      <c r="A524" s="52"/>
+      <c r="B524" s="52"/>
+      <c r="D524" s="54"/>
+      <c r="E524" s="52"/>
+      <c r="F524" s="53"/>
     </row>
     <row r="525">
-      <c r="F525" s="34"/>
+      <c r="A525" s="52"/>
+      <c r="B525" s="52"/>
+      <c r="D525" s="54"/>
+      <c r="E525" s="52"/>
+      <c r="F525" s="53"/>
     </row>
     <row r="526">
-      <c r="F526" s="34"/>
+      <c r="A526" s="52"/>
+      <c r="B526" s="52"/>
+      <c r="D526" s="54"/>
+      <c r="E526" s="52"/>
+      <c r="F526" s="53"/>
     </row>
     <row r="527">
-      <c r="F527" s="34"/>
+      <c r="A527" s="52"/>
+      <c r="B527" s="52"/>
+      <c r="D527" s="54"/>
+      <c r="E527" s="52"/>
+      <c r="F527" s="53"/>
     </row>
     <row r="528">
-      <c r="F528" s="34"/>
+      <c r="A528" s="52"/>
+      <c r="B528" s="52"/>
+      <c r="D528" s="54"/>
+      <c r="E528" s="52"/>
+      <c r="F528" s="53"/>
     </row>
     <row r="529">
-      <c r="F529" s="34"/>
+      <c r="A529" s="52"/>
+      <c r="B529" s="52"/>
+      <c r="D529" s="54"/>
+      <c r="E529" s="52"/>
+      <c r="F529" s="53"/>
     </row>
     <row r="530">
-      <c r="F530" s="34"/>
+      <c r="A530" s="52"/>
+      <c r="B530" s="52"/>
+      <c r="D530" s="54"/>
+      <c r="E530" s="52"/>
+      <c r="F530" s="53"/>
     </row>
     <row r="531">
-      <c r="F531" s="34"/>
+      <c r="A531" s="52"/>
+      <c r="B531" s="52"/>
+      <c r="D531" s="54"/>
+      <c r="E531" s="52"/>
+      <c r="F531" s="53"/>
     </row>
     <row r="532">
-      <c r="F532" s="34"/>
+      <c r="A532" s="52"/>
+      <c r="B532" s="52"/>
+      <c r="D532" s="54"/>
+      <c r="E532" s="52"/>
+      <c r="F532" s="53"/>
     </row>
     <row r="533">
-      <c r="F533" s="34"/>
+      <c r="A533" s="52"/>
+      <c r="B533" s="52"/>
+      <c r="D533" s="54"/>
+      <c r="E533" s="52"/>
+      <c r="F533" s="53"/>
     </row>
     <row r="534">
-      <c r="F534" s="34"/>
+      <c r="A534" s="52"/>
+      <c r="B534" s="52"/>
+      <c r="D534" s="54"/>
+      <c r="E534" s="52"/>
+      <c r="F534" s="53"/>
     </row>
     <row r="535">
-      <c r="F535" s="34"/>
+      <c r="A535" s="52"/>
+      <c r="B535" s="52"/>
+      <c r="D535" s="54"/>
+      <c r="E535" s="52"/>
+      <c r="F535" s="53"/>
     </row>
     <row r="536">
-      <c r="F536" s="34"/>
+      <c r="A536" s="52"/>
+      <c r="B536" s="52"/>
+      <c r="D536" s="54"/>
+      <c r="E536" s="52"/>
+      <c r="F536" s="53"/>
     </row>
     <row r="537">
-      <c r="F537" s="34"/>
+      <c r="A537" s="52"/>
+      <c r="B537" s="52"/>
+      <c r="D537" s="54"/>
+      <c r="E537" s="52"/>
+      <c r="F537" s="53"/>
     </row>
     <row r="538">
-      <c r="F538" s="34"/>
+      <c r="A538" s="52"/>
+      <c r="B538" s="52"/>
+      <c r="D538" s="54"/>
+      <c r="E538" s="52"/>
+      <c r="F538" s="53"/>
     </row>
     <row r="539">
-      <c r="F539" s="34"/>
+      <c r="A539" s="52"/>
+      <c r="B539" s="52"/>
+      <c r="D539" s="54"/>
+      <c r="E539" s="52"/>
+      <c r="F539" s="53"/>
     </row>
     <row r="540">
-      <c r="F540" s="34"/>
+      <c r="A540" s="52"/>
+      <c r="B540" s="52"/>
+      <c r="D540" s="54"/>
+      <c r="E540" s="52"/>
+      <c r="F540" s="53"/>
     </row>
     <row r="541">
-      <c r="F541" s="34"/>
+      <c r="A541" s="52"/>
+      <c r="B541" s="52"/>
+      <c r="D541" s="54"/>
+      <c r="E541" s="52"/>
+      <c r="F541" s="53"/>
     </row>
     <row r="542">
-      <c r="F542" s="34"/>
+      <c r="A542" s="52"/>
+      <c r="B542" s="52"/>
+      <c r="D542" s="54"/>
+      <c r="E542" s="52"/>
+      <c r="F542" s="53"/>
     </row>
     <row r="543">
-      <c r="F543" s="34"/>
+      <c r="A543" s="52"/>
+      <c r="B543" s="52"/>
+      <c r="D543" s="54"/>
+      <c r="E543" s="52"/>
+      <c r="F543" s="53"/>
     </row>
     <row r="544">
-      <c r="F544" s="34"/>
+      <c r="A544" s="52"/>
+      <c r="B544" s="52"/>
+      <c r="D544" s="54"/>
+      <c r="E544" s="52"/>
+      <c r="F544" s="53"/>
     </row>
     <row r="545">
-      <c r="F545" s="34"/>
+      <c r="A545" s="52"/>
+      <c r="B545" s="52"/>
+      <c r="D545" s="54"/>
+      <c r="E545" s="52"/>
+      <c r="F545" s="53"/>
     </row>
     <row r="546">
-      <c r="F546" s="34"/>
+      <c r="A546" s="52"/>
+      <c r="B546" s="52"/>
+      <c r="D546" s="54"/>
+      <c r="E546" s="52"/>
+      <c r="F546" s="53"/>
     </row>
     <row r="547">
-      <c r="F547" s="34"/>
+      <c r="A547" s="52"/>
+      <c r="B547" s="52"/>
+      <c r="D547" s="54"/>
+      <c r="E547" s="52"/>
+      <c r="F547" s="53"/>
     </row>
     <row r="548">
-      <c r="F548" s="34"/>
+      <c r="A548" s="52"/>
+      <c r="B548" s="52"/>
+      <c r="D548" s="54"/>
+      <c r="E548" s="52"/>
+      <c r="F548" s="53"/>
     </row>
     <row r="549">
-      <c r="F549" s="34"/>
+      <c r="A549" s="52"/>
+      <c r="B549" s="52"/>
+      <c r="D549" s="54"/>
+      <c r="E549" s="52"/>
+      <c r="F549" s="53"/>
     </row>
     <row r="550">
-      <c r="F550" s="34"/>
+      <c r="A550" s="52"/>
+      <c r="B550" s="52"/>
+      <c r="D550" s="54"/>
+      <c r="E550" s="52"/>
+      <c r="F550" s="53"/>
     </row>
     <row r="551">
-      <c r="F551" s="34"/>
+      <c r="A551" s="52"/>
+      <c r="B551" s="52"/>
+      <c r="D551" s="54"/>
+      <c r="E551" s="52"/>
+      <c r="F551" s="53"/>
     </row>
     <row r="552">
-      <c r="F552" s="34"/>
+      <c r="A552" s="52"/>
+      <c r="B552" s="52"/>
+      <c r="D552" s="54"/>
+      <c r="E552" s="52"/>
+      <c r="F552" s="53"/>
     </row>
     <row r="553">
-      <c r="F553" s="34"/>
+      <c r="A553" s="52"/>
+      <c r="B553" s="52"/>
+      <c r="D553" s="54"/>
+      <c r="E553" s="52"/>
+      <c r="F553" s="53"/>
     </row>
     <row r="554">
-      <c r="F554" s="34"/>
+      <c r="A554" s="52"/>
+      <c r="B554" s="52"/>
+      <c r="D554" s="54"/>
+      <c r="E554" s="52"/>
+      <c r="F554" s="53"/>
     </row>
     <row r="555">
-      <c r="F555" s="34"/>
+      <c r="A555" s="52"/>
+      <c r="B555" s="52"/>
+      <c r="D555" s="54"/>
+      <c r="E555" s="52"/>
+      <c r="F555" s="53"/>
     </row>
     <row r="556">
-      <c r="F556" s="34"/>
+      <c r="A556" s="52"/>
+      <c r="B556" s="52"/>
+      <c r="D556" s="54"/>
+      <c r="E556" s="52"/>
+      <c r="F556" s="53"/>
     </row>
     <row r="557">
-      <c r="F557" s="34"/>
+      <c r="A557" s="52"/>
+      <c r="B557" s="52"/>
+      <c r="D557" s="54"/>
+      <c r="E557" s="52"/>
+      <c r="F557" s="53"/>
     </row>
     <row r="558">
-      <c r="F558" s="34"/>
+      <c r="A558" s="52"/>
+      <c r="B558" s="52"/>
+      <c r="D558" s="54"/>
+      <c r="E558" s="52"/>
+      <c r="F558" s="53"/>
     </row>
     <row r="559">
-      <c r="F559" s="34"/>
+      <c r="A559" s="52"/>
+      <c r="B559" s="52"/>
+      <c r="D559" s="54"/>
+      <c r="E559" s="52"/>
+      <c r="F559" s="53"/>
     </row>
     <row r="560">
-      <c r="F560" s="34"/>
+      <c r="A560" s="52"/>
+      <c r="B560" s="52"/>
+      <c r="D560" s="54"/>
+      <c r="E560" s="52"/>
+      <c r="F560" s="53"/>
     </row>
     <row r="561">
-      <c r="F561" s="34"/>
+      <c r="A561" s="52"/>
+      <c r="B561" s="52"/>
+      <c r="D561" s="54"/>
+      <c r="E561" s="52"/>
+      <c r="F561" s="53"/>
     </row>
     <row r="562">
-      <c r="F562" s="34"/>
+      <c r="A562" s="52"/>
+      <c r="B562" s="52"/>
+      <c r="D562" s="54"/>
+      <c r="E562" s="52"/>
+      <c r="F562" s="53"/>
     </row>
     <row r="563">
-      <c r="F563" s="34"/>
+      <c r="A563" s="52"/>
+      <c r="B563" s="52"/>
+      <c r="D563" s="54"/>
+      <c r="E563" s="52"/>
+      <c r="F563" s="53"/>
     </row>
     <row r="564">
-      <c r="F564" s="34"/>
+      <c r="A564" s="52"/>
+      <c r="B564" s="52"/>
+      <c r="D564" s="54"/>
+      <c r="E564" s="52"/>
+      <c r="F564" s="53"/>
     </row>
     <row r="565">
-      <c r="F565" s="34"/>
+      <c r="A565" s="52"/>
+      <c r="B565" s="52"/>
+      <c r="D565" s="54"/>
+      <c r="E565" s="52"/>
+      <c r="F565" s="53"/>
     </row>
     <row r="566">
-      <c r="F566" s="34"/>
+      <c r="A566" s="52"/>
+      <c r="B566" s="52"/>
+      <c r="D566" s="54"/>
+      <c r="E566" s="52"/>
+      <c r="F566" s="53"/>
     </row>
     <row r="567">
-      <c r="F567" s="34"/>
+      <c r="A567" s="52"/>
+      <c r="B567" s="52"/>
+      <c r="D567" s="54"/>
+      <c r="E567" s="52"/>
+      <c r="F567" s="53"/>
     </row>
     <row r="568">
-      <c r="F568" s="34"/>
+      <c r="A568" s="52"/>
+      <c r="B568" s="52"/>
+      <c r="D568" s="54"/>
+      <c r="E568" s="52"/>
+      <c r="F568" s="53"/>
     </row>
     <row r="569">
-      <c r="F569" s="34"/>
+      <c r="A569" s="52"/>
+      <c r="B569" s="52"/>
+      <c r="D569" s="54"/>
+      <c r="E569" s="52"/>
+      <c r="F569" s="53"/>
     </row>
     <row r="570">
-      <c r="F570" s="34"/>
+      <c r="A570" s="52"/>
+      <c r="B570" s="52"/>
+      <c r="D570" s="54"/>
+      <c r="E570" s="52"/>
+      <c r="F570" s="53"/>
     </row>
     <row r="571">
-      <c r="F571" s="34"/>
+      <c r="A571" s="52"/>
+      <c r="B571" s="52"/>
+      <c r="D571" s="54"/>
+      <c r="E571" s="52"/>
+      <c r="F571" s="53"/>
     </row>
     <row r="572">
-      <c r="F572" s="34"/>
+      <c r="A572" s="52"/>
+      <c r="B572" s="52"/>
+      <c r="D572" s="54"/>
+      <c r="E572" s="52"/>
+      <c r="F572" s="53"/>
     </row>
     <row r="573">
-      <c r="F573" s="34"/>
+      <c r="A573" s="52"/>
+      <c r="B573" s="52"/>
+      <c r="D573" s="54"/>
+      <c r="E573" s="52"/>
+      <c r="F573" s="53"/>
     </row>
     <row r="574">
-      <c r="F574" s="34"/>
+      <c r="A574" s="52"/>
+      <c r="B574" s="52"/>
+      <c r="D574" s="54"/>
+      <c r="E574" s="52"/>
+      <c r="F574" s="53"/>
     </row>
     <row r="575">
-      <c r="F575" s="34"/>
+      <c r="A575" s="52"/>
+      <c r="B575" s="52"/>
+      <c r="D575" s="54"/>
+      <c r="E575" s="52"/>
+      <c r="F575" s="53"/>
     </row>
     <row r="576">
-      <c r="F576" s="34"/>
+      <c r="A576" s="52"/>
+      <c r="B576" s="52"/>
+      <c r="D576" s="54"/>
+      <c r="E576" s="52"/>
+      <c r="F576" s="53"/>
     </row>
     <row r="577">
-      <c r="F577" s="34"/>
+      <c r="A577" s="52"/>
+      <c r="B577" s="52"/>
+      <c r="D577" s="54"/>
+      <c r="E577" s="52"/>
+      <c r="F577" s="53"/>
     </row>
     <row r="578">
-      <c r="F578" s="34"/>
+      <c r="A578" s="52"/>
+      <c r="B578" s="52"/>
+      <c r="D578" s="54"/>
+      <c r="E578" s="52"/>
+      <c r="F578" s="53"/>
     </row>
     <row r="579">
-      <c r="F579" s="34"/>
+      <c r="A579" s="52"/>
+      <c r="B579" s="52"/>
+      <c r="D579" s="54"/>
+      <c r="E579" s="52"/>
+      <c r="F579" s="53"/>
     </row>
     <row r="580">
-      <c r="F580" s="34"/>
+      <c r="A580" s="52"/>
+      <c r="B580" s="52"/>
+      <c r="D580" s="54"/>
+      <c r="E580" s="52"/>
+      <c r="F580" s="53"/>
     </row>
     <row r="581">
-      <c r="F581" s="34"/>
+      <c r="A581" s="52"/>
+      <c r="B581" s="52"/>
+      <c r="D581" s="54"/>
+      <c r="E581" s="52"/>
+      <c r="F581" s="53"/>
     </row>
     <row r="582">
-      <c r="F582" s="34"/>
+      <c r="A582" s="52"/>
+      <c r="B582" s="52"/>
+      <c r="D582" s="54"/>
+      <c r="E582" s="52"/>
+      <c r="F582" s="53"/>
     </row>
     <row r="583">
-      <c r="F583" s="34"/>
+      <c r="A583" s="52"/>
+      <c r="B583" s="52"/>
+      <c r="D583" s="54"/>
+      <c r="E583" s="52"/>
+      <c r="F583" s="53"/>
     </row>
     <row r="584">
-      <c r="F584" s="34"/>
+      <c r="A584" s="52"/>
+      <c r="B584" s="52"/>
+      <c r="D584" s="54"/>
+      <c r="E584" s="52"/>
+      <c r="F584" s="53"/>
     </row>
     <row r="585">
-      <c r="F585" s="34"/>
+      <c r="A585" s="52"/>
+      <c r="B585" s="52"/>
+      <c r="D585" s="54"/>
+      <c r="E585" s="52"/>
+      <c r="F585" s="53"/>
     </row>
     <row r="586">
-      <c r="F586" s="34"/>
+      <c r="A586" s="52"/>
+      <c r="B586" s="52"/>
+      <c r="D586" s="54"/>
+      <c r="E586" s="52"/>
+      <c r="F586" s="53"/>
     </row>
     <row r="587">
-      <c r="F587" s="34"/>
+      <c r="A587" s="52"/>
+      <c r="B587" s="52"/>
+      <c r="D587" s="54"/>
+      <c r="E587" s="52"/>
+      <c r="F587" s="53"/>
     </row>
     <row r="588">
-      <c r="F588" s="34"/>
+      <c r="A588" s="52"/>
+      <c r="B588" s="52"/>
+      <c r="D588" s="54"/>
+      <c r="E588" s="52"/>
+      <c r="F588" s="53"/>
     </row>
     <row r="589">
-      <c r="F589" s="34"/>
+      <c r="A589" s="52"/>
+      <c r="B589" s="52"/>
+      <c r="D589" s="54"/>
+      <c r="E589" s="52"/>
+      <c r="F589" s="53"/>
     </row>
     <row r="590">
-      <c r="F590" s="34"/>
+      <c r="A590" s="52"/>
+      <c r="B590" s="52"/>
+      <c r="D590" s="54"/>
+      <c r="E590" s="52"/>
+      <c r="F590" s="53"/>
     </row>
     <row r="591">
-      <c r="F591" s="34"/>
+      <c r="A591" s="52"/>
+      <c r="B591" s="52"/>
+      <c r="D591" s="54"/>
+      <c r="E591" s="52"/>
+      <c r="F591" s="53"/>
     </row>
     <row r="592">
-      <c r="F592" s="34"/>
+      <c r="A592" s="52"/>
+      <c r="B592" s="52"/>
+      <c r="D592" s="54"/>
+      <c r="E592" s="52"/>
+      <c r="F592" s="53"/>
     </row>
     <row r="593">
-      <c r="F593" s="34"/>
+      <c r="A593" s="52"/>
+      <c r="B593" s="52"/>
+      <c r="D593" s="54"/>
+      <c r="E593" s="52"/>
+      <c r="F593" s="53"/>
     </row>
     <row r="594">
-      <c r="F594" s="34"/>
+      <c r="A594" s="52"/>
+      <c r="B594" s="52"/>
+      <c r="D594" s="54"/>
+      <c r="E594" s="52"/>
+      <c r="F594" s="53"/>
     </row>
     <row r="595">
-      <c r="F595" s="34"/>
+      <c r="A595" s="52"/>
+      <c r="B595" s="52"/>
+      <c r="D595" s="54"/>
+      <c r="E595" s="52"/>
+      <c r="F595" s="53"/>
     </row>
     <row r="596">
-      <c r="F596" s="34"/>
+      <c r="A596" s="52"/>
+      <c r="B596" s="52"/>
+      <c r="D596" s="54"/>
+      <c r="E596" s="52"/>
+      <c r="F596" s="53"/>
     </row>
     <row r="597">
-      <c r="F597" s="34"/>
+      <c r="A597" s="52"/>
+      <c r="B597" s="52"/>
+      <c r="D597" s="54"/>
+      <c r="E597" s="52"/>
+      <c r="F597" s="53"/>
     </row>
     <row r="598">
-      <c r="F598" s="34"/>
+      <c r="A598" s="52"/>
+      <c r="B598" s="52"/>
+      <c r="D598" s="54"/>
+      <c r="E598" s="52"/>
+      <c r="F598" s="53"/>
     </row>
     <row r="599">
-      <c r="F599" s="34"/>
+      <c r="A599" s="52"/>
+      <c r="B599" s="52"/>
+      <c r="D599" s="54"/>
+      <c r="E599" s="52"/>
+      <c r="F599" s="53"/>
     </row>
     <row r="600">
-      <c r="F600" s="34"/>
+      <c r="A600" s="52"/>
+      <c r="B600" s="52"/>
+      <c r="D600" s="54"/>
+      <c r="E600" s="52"/>
+      <c r="F600" s="53"/>
     </row>
     <row r="601">
-      <c r="F601" s="34"/>
+      <c r="A601" s="52"/>
+      <c r="B601" s="52"/>
+      <c r="D601" s="54"/>
+      <c r="E601" s="52"/>
+      <c r="F601" s="53"/>
     </row>
     <row r="602">
-      <c r="F602" s="34"/>
+      <c r="A602" s="52"/>
+      <c r="B602" s="52"/>
+      <c r="D602" s="54"/>
+      <c r="E602" s="52"/>
+      <c r="F602" s="53"/>
     </row>
     <row r="603">
-      <c r="F603" s="34"/>
+      <c r="A603" s="52"/>
+      <c r="B603" s="52"/>
+      <c r="D603" s="54"/>
+      <c r="E603" s="52"/>
+      <c r="F603" s="53"/>
     </row>
     <row r="604">
-      <c r="F604" s="34"/>
+      <c r="A604" s="52"/>
+      <c r="B604" s="52"/>
+      <c r="D604" s="54"/>
+      <c r="E604" s="52"/>
+      <c r="F604" s="53"/>
     </row>
     <row r="605">
-      <c r="F605" s="34"/>
+      <c r="A605" s="52"/>
+      <c r="B605" s="52"/>
+      <c r="D605" s="54"/>
+      <c r="E605" s="52"/>
+      <c r="F605" s="53"/>
     </row>
     <row r="606">
-      <c r="F606" s="34"/>
+      <c r="A606" s="52"/>
+      <c r="B606" s="52"/>
+      <c r="D606" s="54"/>
+      <c r="E606" s="52"/>
+      <c r="F606" s="53"/>
     </row>
     <row r="607">
-      <c r="F607" s="34"/>
+      <c r="A607" s="52"/>
+      <c r="B607" s="52"/>
+      <c r="D607" s="54"/>
+      <c r="E607" s="52"/>
+      <c r="F607" s="53"/>
     </row>
     <row r="608">
-      <c r="F608" s="34"/>
+      <c r="A608" s="52"/>
+      <c r="B608" s="52"/>
+      <c r="D608" s="54"/>
+      <c r="E608" s="52"/>
+      <c r="F608" s="53"/>
     </row>
     <row r="609">
-      <c r="F609" s="34"/>
+      <c r="A609" s="52"/>
+      <c r="B609" s="52"/>
+      <c r="D609" s="54"/>
+      <c r="E609" s="52"/>
+      <c r="F609" s="53"/>
     </row>
     <row r="610">
-      <c r="F610" s="34"/>
+      <c r="A610" s="52"/>
+      <c r="B610" s="52"/>
+      <c r="D610" s="54"/>
+      <c r="E610" s="52"/>
+      <c r="F610" s="53"/>
     </row>
     <row r="611">
-      <c r="F611" s="34"/>
+      <c r="A611" s="52"/>
+      <c r="B611" s="52"/>
+      <c r="D611" s="54"/>
+      <c r="E611" s="52"/>
+      <c r="F611" s="53"/>
     </row>
     <row r="612">
-      <c r="F612" s="34"/>
+      <c r="A612" s="52"/>
+      <c r="B612" s="52"/>
+      <c r="D612" s="54"/>
+      <c r="E612" s="52"/>
+      <c r="F612" s="53"/>
     </row>
     <row r="613">
-      <c r="F613" s="34"/>
+      <c r="A613" s="52"/>
+      <c r="B613" s="52"/>
+      <c r="D613" s="54"/>
+      <c r="E613" s="52"/>
+      <c r="F613" s="53"/>
     </row>
     <row r="614">
-      <c r="F614" s="34"/>
+      <c r="A614" s="52"/>
+      <c r="B614" s="52"/>
+      <c r="D614" s="54"/>
+      <c r="E614" s="52"/>
+      <c r="F614" s="53"/>
     </row>
     <row r="615">
-      <c r="F615" s="34"/>
+      <c r="A615" s="52"/>
+      <c r="B615" s="52"/>
+      <c r="D615" s="54"/>
+      <c r="E615" s="52"/>
+      <c r="F615" s="53"/>
     </row>
     <row r="616">
-      <c r="F616" s="34"/>
+      <c r="A616" s="52"/>
+      <c r="B616" s="52"/>
+      <c r="D616" s="54"/>
+      <c r="E616" s="52"/>
+      <c r="F616" s="53"/>
     </row>
     <row r="617">
-      <c r="F617" s="34"/>
+      <c r="A617" s="52"/>
+      <c r="B617" s="52"/>
+      <c r="D617" s="54"/>
+      <c r="E617" s="52"/>
+      <c r="F617" s="53"/>
     </row>
     <row r="618">
-      <c r="F618" s="34"/>
+      <c r="A618" s="52"/>
+      <c r="B618" s="52"/>
+      <c r="D618" s="54"/>
+      <c r="E618" s="52"/>
+      <c r="F618" s="53"/>
     </row>
     <row r="619">
-      <c r="F619" s="34"/>
+      <c r="A619" s="52"/>
+      <c r="B619" s="52"/>
+      <c r="D619" s="54"/>
+      <c r="E619" s="52"/>
+      <c r="F619" s="53"/>
     </row>
     <row r="620">
-      <c r="F620" s="34"/>
+      <c r="A620" s="52"/>
+      <c r="B620" s="52"/>
+      <c r="D620" s="54"/>
+      <c r="E620" s="52"/>
+      <c r="F620" s="53"/>
     </row>
     <row r="621">
-      <c r="F621" s="34"/>
+      <c r="A621" s="52"/>
+      <c r="B621" s="52"/>
+      <c r="D621" s="54"/>
+      <c r="E621" s="52"/>
+      <c r="F621" s="53"/>
     </row>
     <row r="622">
-      <c r="F622" s="34"/>
+      <c r="A622" s="52"/>
+      <c r="B622" s="52"/>
+      <c r="D622" s="54"/>
+      <c r="E622" s="52"/>
+      <c r="F622" s="53"/>
     </row>
     <row r="623">
-      <c r="F623" s="34"/>
+      <c r="A623" s="52"/>
+      <c r="B623" s="52"/>
+      <c r="D623" s="54"/>
+      <c r="E623" s="52"/>
+      <c r="F623" s="53"/>
     </row>
     <row r="624">
-      <c r="F624" s="34"/>
+      <c r="A624" s="52"/>
+      <c r="B624" s="52"/>
+      <c r="D624" s="54"/>
+      <c r="E624" s="52"/>
+      <c r="F624" s="53"/>
     </row>
     <row r="625">
-      <c r="F625" s="34"/>
+      <c r="A625" s="52"/>
+      <c r="B625" s="52"/>
+      <c r="D625" s="54"/>
+      <c r="E625" s="52"/>
+      <c r="F625" s="53"/>
     </row>
     <row r="626">
-      <c r="F626" s="34"/>
+      <c r="A626" s="52"/>
+      <c r="B626" s="52"/>
+      <c r="D626" s="54"/>
+      <c r="E626" s="52"/>
+      <c r="F626" s="53"/>
     </row>
     <row r="627">
-      <c r="F627" s="34"/>
+      <c r="A627" s="52"/>
+      <c r="B627" s="52"/>
+      <c r="D627" s="54"/>
+      <c r="E627" s="52"/>
+      <c r="F627" s="53"/>
     </row>
     <row r="628">
-      <c r="F628" s="34"/>
+      <c r="A628" s="52"/>
+      <c r="B628" s="52"/>
+      <c r="D628" s="54"/>
+      <c r="E628" s="52"/>
+      <c r="F628" s="53"/>
     </row>
     <row r="629">
-      <c r="F629" s="34"/>
+      <c r="A629" s="52"/>
+      <c r="B629" s="52"/>
+      <c r="D629" s="54"/>
+      <c r="E629" s="52"/>
+      <c r="F629" s="53"/>
     </row>
     <row r="630">
-      <c r="F630" s="34"/>
+      <c r="A630" s="52"/>
+      <c r="B630" s="52"/>
+      <c r="D630" s="54"/>
+      <c r="E630" s="52"/>
+      <c r="F630" s="53"/>
     </row>
     <row r="631">
-      <c r="F631" s="34"/>
+      <c r="A631" s="52"/>
+      <c r="B631" s="52"/>
+      <c r="D631" s="54"/>
+      <c r="E631" s="52"/>
+      <c r="F631" s="53"/>
     </row>
     <row r="632">
-      <c r="F632" s="34"/>
+      <c r="A632" s="52"/>
+      <c r="B632" s="52"/>
+      <c r="D632" s="54"/>
+      <c r="E632" s="52"/>
+      <c r="F632" s="53"/>
     </row>
     <row r="633">
-      <c r="F633" s="34"/>
+      <c r="A633" s="52"/>
+      <c r="B633" s="52"/>
+      <c r="D633" s="54"/>
+      <c r="E633" s="52"/>
+      <c r="F633" s="53"/>
     </row>
     <row r="634">
-      <c r="F634" s="34"/>
+      <c r="A634" s="52"/>
+      <c r="B634" s="52"/>
+      <c r="D634" s="54"/>
+      <c r="E634" s="52"/>
+      <c r="F634" s="53"/>
     </row>
     <row r="635">
-      <c r="F635" s="34"/>
+      <c r="A635" s="52"/>
+      <c r="B635" s="52"/>
+      <c r="D635" s="54"/>
+      <c r="E635" s="52"/>
+      <c r="F635" s="53"/>
     </row>
     <row r="636">
-      <c r="F636" s="34"/>
+      <c r="A636" s="52"/>
+      <c r="B636" s="52"/>
+      <c r="D636" s="54"/>
+      <c r="E636" s="52"/>
+      <c r="F636" s="53"/>
     </row>
     <row r="637">
-      <c r="F637" s="34"/>
+      <c r="A637" s="52"/>
+      <c r="B637" s="52"/>
+      <c r="D637" s="54"/>
+      <c r="E637" s="52"/>
+      <c r="F637" s="53"/>
     </row>
     <row r="638">
-      <c r="F638" s="34"/>
+      <c r="A638" s="52"/>
+      <c r="B638" s="52"/>
+      <c r="D638" s="54"/>
+      <c r="E638" s="52"/>
+      <c r="F638" s="53"/>
     </row>
     <row r="639">
-      <c r="F639" s="34"/>
+      <c r="A639" s="52"/>
+      <c r="B639" s="52"/>
+      <c r="D639" s="54"/>
+      <c r="E639" s="52"/>
+      <c r="F639" s="53"/>
     </row>
     <row r="640">
-      <c r="F640" s="34"/>
+      <c r="A640" s="52"/>
+      <c r="B640" s="52"/>
+      <c r="D640" s="54"/>
+      <c r="E640" s="52"/>
+      <c r="F640" s="53"/>
     </row>
     <row r="641">
-      <c r="F641" s="34"/>
+      <c r="A641" s="52"/>
+      <c r="B641" s="52"/>
+      <c r="D641" s="54"/>
+      <c r="E641" s="52"/>
+      <c r="F641" s="53"/>
     </row>
     <row r="642">
-      <c r="F642" s="34"/>
+      <c r="A642" s="52"/>
+      <c r="B642" s="52"/>
+      <c r="D642" s="54"/>
+      <c r="E642" s="52"/>
+      <c r="F642" s="53"/>
     </row>
     <row r="643">
-      <c r="F643" s="34"/>
+      <c r="A643" s="52"/>
+      <c r="B643" s="52"/>
+      <c r="D643" s="54"/>
+      <c r="E643" s="52"/>
+      <c r="F643" s="53"/>
     </row>
     <row r="644">
-      <c r="F644" s="34"/>
+      <c r="A644" s="52"/>
+      <c r="B644" s="52"/>
+      <c r="D644" s="54"/>
+      <c r="E644" s="52"/>
+      <c r="F644" s="53"/>
     </row>
     <row r="645">
-      <c r="F645" s="34"/>
+      <c r="A645" s="52"/>
+      <c r="B645" s="52"/>
+      <c r="D645" s="54"/>
+      <c r="E645" s="52"/>
+      <c r="F645" s="53"/>
     </row>
     <row r="646">
-      <c r="F646" s="34"/>
+      <c r="A646" s="52"/>
+      <c r="B646" s="52"/>
+      <c r="D646" s="54"/>
+      <c r="E646" s="52"/>
+      <c r="F646" s="53"/>
     </row>
     <row r="647">
-      <c r="F647" s="34"/>
+      <c r="A647" s="52"/>
+      <c r="B647" s="52"/>
+      <c r="D647" s="54"/>
+      <c r="E647" s="52"/>
+      <c r="F647" s="53"/>
     </row>
     <row r="648">
-      <c r="F648" s="34"/>
+      <c r="A648" s="52"/>
+      <c r="B648" s="52"/>
+      <c r="D648" s="54"/>
+      <c r="E648" s="52"/>
+      <c r="F648" s="53"/>
     </row>
     <row r="649">
-      <c r="F649" s="34"/>
+      <c r="A649" s="52"/>
+      <c r="B649" s="52"/>
+      <c r="D649" s="54"/>
+      <c r="E649" s="52"/>
+      <c r="F649" s="53"/>
     </row>
     <row r="650">
-      <c r="F650" s="34"/>
+      <c r="A650" s="52"/>
+      <c r="B650" s="52"/>
+      <c r="D650" s="54"/>
+      <c r="E650" s="52"/>
+      <c r="F650" s="53"/>
     </row>
     <row r="651">
-      <c r="F651" s="34"/>
+      <c r="A651" s="52"/>
+      <c r="B651" s="52"/>
+      <c r="D651" s="54"/>
+      <c r="E651" s="52"/>
+      <c r="F651" s="53"/>
     </row>
     <row r="652">
-      <c r="F652" s="34"/>
+      <c r="A652" s="52"/>
+      <c r="B652" s="52"/>
+      <c r="D652" s="54"/>
+      <c r="E652" s="52"/>
+      <c r="F652" s="53"/>
     </row>
     <row r="653">
-      <c r="F653" s="34"/>
+      <c r="A653" s="52"/>
+      <c r="B653" s="52"/>
+      <c r="D653" s="54"/>
+      <c r="E653" s="52"/>
+      <c r="F653" s="53"/>
     </row>
     <row r="654">
-      <c r="F654" s="34"/>
+      <c r="A654" s="52"/>
+      <c r="B654" s="52"/>
+      <c r="D654" s="54"/>
+      <c r="E654" s="52"/>
+      <c r="F654" s="53"/>
     </row>
     <row r="655">
-      <c r="F655" s="34"/>
+      <c r="A655" s="52"/>
+      <c r="B655" s="52"/>
+      <c r="D655" s="54"/>
+      <c r="E655" s="52"/>
+      <c r="F655" s="53"/>
     </row>
     <row r="656">
-      <c r="F656" s="34"/>
+      <c r="A656" s="52"/>
+      <c r="B656" s="52"/>
+      <c r="D656" s="54"/>
+      <c r="E656" s="52"/>
+      <c r="F656" s="53"/>
     </row>
     <row r="657">
-      <c r="F657" s="34"/>
+      <c r="A657" s="52"/>
+      <c r="B657" s="52"/>
+      <c r="D657" s="54"/>
+      <c r="E657" s="52"/>
+      <c r="F657" s="53"/>
     </row>
     <row r="658">
-      <c r="F658" s="34"/>
+      <c r="A658" s="52"/>
+      <c r="B658" s="52"/>
+      <c r="D658" s="54"/>
+      <c r="E658" s="52"/>
+      <c r="F658" s="53"/>
     </row>
     <row r="659">
-      <c r="F659" s="34"/>
+      <c r="A659" s="52"/>
+      <c r="B659" s="52"/>
+      <c r="D659" s="54"/>
+      <c r="E659" s="52"/>
+      <c r="F659" s="53"/>
     </row>
     <row r="660">
-      <c r="F660" s="34"/>
+      <c r="A660" s="52"/>
+      <c r="B660" s="52"/>
+      <c r="D660" s="54"/>
+      <c r="E660" s="52"/>
+      <c r="F660" s="53"/>
     </row>
     <row r="661">
-      <c r="F661" s="34"/>
+      <c r="A661" s="52"/>
+      <c r="B661" s="52"/>
+      <c r="D661" s="54"/>
+      <c r="E661" s="52"/>
+      <c r="F661" s="53"/>
     </row>
     <row r="662">
-      <c r="F662" s="34"/>
+      <c r="A662" s="52"/>
+      <c r="B662" s="52"/>
+      <c r="D662" s="54"/>
+      <c r="E662" s="52"/>
+      <c r="F662" s="53"/>
     </row>
     <row r="663">
-      <c r="F663" s="34"/>
+      <c r="A663" s="52"/>
+      <c r="B663" s="52"/>
+      <c r="D663" s="54"/>
+      <c r="E663" s="52"/>
+      <c r="F663" s="53"/>
     </row>
     <row r="664">
-      <c r="F664" s="34"/>
+      <c r="A664" s="52"/>
+      <c r="B664" s="52"/>
+      <c r="D664" s="54"/>
+      <c r="E664" s="52"/>
+      <c r="F664" s="53"/>
     </row>
     <row r="665">
-      <c r="F665" s="34"/>
+      <c r="A665" s="52"/>
+      <c r="B665" s="52"/>
+      <c r="D665" s="54"/>
+      <c r="E665" s="52"/>
+      <c r="F665" s="53"/>
     </row>
     <row r="666">
-      <c r="F666" s="34"/>
+      <c r="A666" s="52"/>
+      <c r="B666" s="52"/>
+      <c r="D666" s="54"/>
+      <c r="E666" s="52"/>
+      <c r="F666" s="53"/>
     </row>
     <row r="667">
-      <c r="F667" s="34"/>
+      <c r="A667" s="52"/>
+      <c r="B667" s="52"/>
+      <c r="D667" s="54"/>
+      <c r="E667" s="52"/>
+      <c r="F667" s="53"/>
     </row>
     <row r="668">
-      <c r="F668" s="34"/>
+      <c r="A668" s="52"/>
+      <c r="B668" s="52"/>
+      <c r="D668" s="54"/>
+      <c r="E668" s="52"/>
+      <c r="F668" s="53"/>
     </row>
     <row r="669">
-      <c r="F669" s="34"/>
+      <c r="A669" s="52"/>
+      <c r="B669" s="52"/>
+      <c r="D669" s="54"/>
+      <c r="E669" s="52"/>
+      <c r="F669" s="53"/>
     </row>
     <row r="670">
-      <c r="F670" s="34"/>
+      <c r="A670" s="52"/>
+      <c r="B670" s="52"/>
+      <c r="D670" s="54"/>
+      <c r="E670" s="52"/>
+      <c r="F670" s="53"/>
     </row>
     <row r="671">
-      <c r="F671" s="34"/>
+      <c r="A671" s="52"/>
+      <c r="B671" s="52"/>
+      <c r="D671" s="54"/>
+      <c r="E671" s="52"/>
+      <c r="F671" s="53"/>
     </row>
     <row r="672">
-      <c r="F672" s="34"/>
+      <c r="A672" s="52"/>
+      <c r="B672" s="52"/>
+      <c r="D672" s="54"/>
+      <c r="E672" s="52"/>
+      <c r="F672" s="53"/>
     </row>
     <row r="673">
-      <c r="F673" s="34"/>
+      <c r="A673" s="52"/>
+      <c r="B673" s="52"/>
+      <c r="D673" s="54"/>
+      <c r="E673" s="52"/>
+      <c r="F673" s="53"/>
     </row>
     <row r="674">
-      <c r="F674" s="34"/>
+      <c r="A674" s="52"/>
+      <c r="B674" s="52"/>
+      <c r="D674" s="54"/>
+      <c r="E674" s="52"/>
+      <c r="F674" s="53"/>
     </row>
     <row r="675">
-      <c r="F675" s="34"/>
+      <c r="A675" s="52"/>
+      <c r="B675" s="52"/>
+      <c r="D675" s="54"/>
+      <c r="E675" s="52"/>
+      <c r="F675" s="53"/>
     </row>
     <row r="676">
-      <c r="F676" s="34"/>
+      <c r="A676" s="52"/>
+      <c r="B676" s="52"/>
+      <c r="D676" s="54"/>
+      <c r="E676" s="52"/>
+      <c r="F676" s="53"/>
     </row>
     <row r="677">
-      <c r="F677" s="34"/>
+      <c r="A677" s="52"/>
+      <c r="B677" s="52"/>
+      <c r="D677" s="54"/>
+      <c r="E677" s="52"/>
+      <c r="F677" s="53"/>
     </row>
     <row r="678">
-      <c r="F678" s="34"/>
+      <c r="A678" s="52"/>
+      <c r="B678" s="52"/>
+      <c r="D678" s="54"/>
+      <c r="E678" s="52"/>
+      <c r="F678" s="53"/>
     </row>
     <row r="679">
-      <c r="F679" s="34"/>
+      <c r="A679" s="52"/>
+      <c r="B679" s="52"/>
+      <c r="D679" s="54"/>
+      <c r="E679" s="52"/>
+      <c r="F679" s="53"/>
     </row>
     <row r="680">
-      <c r="F680" s="34"/>
+      <c r="A680" s="52"/>
+      <c r="B680" s="52"/>
+      <c r="D680" s="54"/>
+      <c r="E680" s="52"/>
+      <c r="F680" s="53"/>
     </row>
     <row r="681">
-      <c r="F681" s="34"/>
+      <c r="A681" s="52"/>
+      <c r="B681" s="52"/>
+      <c r="D681" s="54"/>
+      <c r="E681" s="52"/>
+      <c r="F681" s="53"/>
     </row>
     <row r="682">
-      <c r="F682" s="34"/>
+      <c r="A682" s="52"/>
+      <c r="B682" s="52"/>
+      <c r="D682" s="54"/>
+      <c r="E682" s="52"/>
+      <c r="F682" s="53"/>
     </row>
     <row r="683">
-      <c r="F683" s="34"/>
+      <c r="A683" s="52"/>
+      <c r="B683" s="52"/>
+      <c r="D683" s="54"/>
+      <c r="E683" s="52"/>
+      <c r="F683" s="53"/>
     </row>
     <row r="684">
-      <c r="F684" s="34"/>
+      <c r="A684" s="52"/>
+      <c r="B684" s="52"/>
+      <c r="D684" s="54"/>
+      <c r="E684" s="52"/>
+      <c r="F684" s="53"/>
     </row>
     <row r="685">
-      <c r="F685" s="34"/>
+      <c r="A685" s="52"/>
+      <c r="B685" s="52"/>
+      <c r="D685" s="54"/>
+      <c r="E685" s="52"/>
+      <c r="F685" s="53"/>
     </row>
     <row r="686">
-      <c r="F686" s="34"/>
+      <c r="A686" s="52"/>
+      <c r="B686" s="52"/>
+      <c r="D686" s="54"/>
+      <c r="E686" s="52"/>
+      <c r="F686" s="53"/>
     </row>
     <row r="687">
-      <c r="F687" s="34"/>
+      <c r="A687" s="52"/>
+      <c r="B687" s="52"/>
+      <c r="D687" s="54"/>
+      <c r="E687" s="52"/>
+      <c r="F687" s="53"/>
     </row>
     <row r="688">
-      <c r="F688" s="34"/>
+      <c r="A688" s="52"/>
+      <c r="B688" s="52"/>
+      <c r="D688" s="54"/>
+      <c r="E688" s="52"/>
+      <c r="F688" s="53"/>
     </row>
     <row r="689">
-      <c r="F689" s="34"/>
+      <c r="A689" s="52"/>
+      <c r="B689" s="52"/>
+      <c r="D689" s="54"/>
+      <c r="E689" s="52"/>
+      <c r="F689" s="53"/>
     </row>
     <row r="690">
-      <c r="F690" s="34"/>
+      <c r="A690" s="52"/>
+      <c r="B690" s="52"/>
+      <c r="D690" s="54"/>
+      <c r="E690" s="52"/>
+      <c r="F690" s="53"/>
     </row>
     <row r="691">
-      <c r="F691" s="34"/>
+      <c r="A691" s="52"/>
+      <c r="B691" s="52"/>
+      <c r="D691" s="54"/>
+      <c r="E691" s="52"/>
+      <c r="F691" s="53"/>
     </row>
     <row r="692">
-      <c r="F692" s="34"/>
+      <c r="A692" s="52"/>
+      <c r="B692" s="52"/>
+      <c r="D692" s="54"/>
+      <c r="E692" s="52"/>
+      <c r="F692" s="53"/>
     </row>
     <row r="693">
-      <c r="F693" s="34"/>
+      <c r="A693" s="52"/>
+      <c r="B693" s="52"/>
+      <c r="D693" s="54"/>
+      <c r="E693" s="52"/>
+      <c r="F693" s="53"/>
     </row>
     <row r="694">
-      <c r="F694" s="34"/>
+      <c r="A694" s="52"/>
+      <c r="B694" s="52"/>
+      <c r="D694" s="54"/>
+      <c r="E694" s="52"/>
+      <c r="F694" s="53"/>
     </row>
     <row r="695">
-      <c r="F695" s="34"/>
+      <c r="A695" s="52"/>
+      <c r="B695" s="52"/>
+      <c r="D695" s="54"/>
+      <c r="E695" s="52"/>
+      <c r="F695" s="53"/>
     </row>
     <row r="696">
-      <c r="F696" s="34"/>
+      <c r="A696" s="52"/>
+      <c r="B696" s="52"/>
+      <c r="D696" s="54"/>
+      <c r="E696" s="52"/>
+      <c r="F696" s="53"/>
     </row>
     <row r="697">
-      <c r="F697" s="34"/>
+      <c r="A697" s="52"/>
+      <c r="B697" s="52"/>
+      <c r="D697" s="54"/>
+      <c r="E697" s="52"/>
+      <c r="F697" s="53"/>
     </row>
     <row r="698">
-      <c r="F698" s="34"/>
+      <c r="A698" s="52"/>
+      <c r="B698" s="52"/>
+      <c r="D698" s="54"/>
+      <c r="E698" s="52"/>
+      <c r="F698" s="53"/>
     </row>
     <row r="699">
-      <c r="F699" s="34"/>
+      <c r="A699" s="52"/>
+      <c r="B699" s="52"/>
+      <c r="D699" s="54"/>
+      <c r="E699" s="52"/>
+      <c r="F699" s="53"/>
     </row>
     <row r="700">
-      <c r="F700" s="34"/>
+      <c r="A700" s="52"/>
+      <c r="B700" s="52"/>
+      <c r="D700" s="54"/>
+      <c r="E700" s="52"/>
+      <c r="F700" s="53"/>
     </row>
     <row r="701">
-      <c r="F701" s="34"/>
+      <c r="A701" s="52"/>
+      <c r="B701" s="52"/>
+      <c r="D701" s="54"/>
+      <c r="E701" s="52"/>
+      <c r="F701" s="53"/>
     </row>
     <row r="702">
-      <c r="F702" s="34"/>
+      <c r="A702" s="52"/>
+      <c r="B702" s="52"/>
+      <c r="D702" s="54"/>
+      <c r="E702" s="52"/>
+      <c r="F702" s="53"/>
     </row>
     <row r="703">
-      <c r="F703" s="34"/>
+      <c r="A703" s="52"/>
+      <c r="B703" s="52"/>
+      <c r="D703" s="54"/>
+      <c r="E703" s="52"/>
+      <c r="F703" s="53"/>
     </row>
     <row r="704">
-      <c r="F704" s="34"/>
+      <c r="A704" s="52"/>
+      <c r="B704" s="52"/>
+      <c r="D704" s="54"/>
+      <c r="E704" s="52"/>
+      <c r="F704" s="53"/>
     </row>
     <row r="705">
-      <c r="F705" s="34"/>
+      <c r="A705" s="52"/>
+      <c r="B705" s="52"/>
+      <c r="D705" s="54"/>
+      <c r="E705" s="52"/>
+      <c r="F705" s="53"/>
     </row>
     <row r="706">
-      <c r="F706" s="34"/>
+      <c r="A706" s="52"/>
+      <c r="B706" s="52"/>
+      <c r="D706" s="54"/>
+      <c r="E706" s="52"/>
+      <c r="F706" s="53"/>
     </row>
     <row r="707">
-      <c r="F707" s="34"/>
+      <c r="A707" s="52"/>
+      <c r="B707" s="52"/>
+      <c r="D707" s="54"/>
+      <c r="E707" s="52"/>
+      <c r="F707" s="53"/>
     </row>
     <row r="708">
-      <c r="F708" s="34"/>
+      <c r="A708" s="52"/>
+      <c r="B708" s="52"/>
+      <c r="D708" s="54"/>
+      <c r="E708" s="52"/>
+      <c r="F708" s="53"/>
     </row>
     <row r="709">
-      <c r="F709" s="34"/>
+      <c r="A709" s="52"/>
+      <c r="B709" s="52"/>
+      <c r="D709" s="54"/>
+      <c r="E709" s="52"/>
+      <c r="F709" s="53"/>
     </row>
     <row r="710">
-      <c r="F710" s="34"/>
+      <c r="A710" s="52"/>
+      <c r="B710" s="52"/>
+      <c r="D710" s="54"/>
+      <c r="E710" s="52"/>
+      <c r="F710" s="53"/>
     </row>
     <row r="711">
-      <c r="F711" s="34"/>
+      <c r="A711" s="52"/>
+      <c r="B711" s="52"/>
+      <c r="D711" s="54"/>
+      <c r="E711" s="52"/>
+      <c r="F711" s="53"/>
     </row>
     <row r="712">
-      <c r="F712" s="34"/>
+      <c r="A712" s="52"/>
+      <c r="B712" s="52"/>
+      <c r="D712" s="54"/>
+      <c r="E712" s="52"/>
+      <c r="F712" s="53"/>
     </row>
     <row r="713">
-      <c r="F713" s="34"/>
+      <c r="A713" s="52"/>
+      <c r="B713" s="52"/>
+      <c r="D713" s="54"/>
+      <c r="E713" s="52"/>
+      <c r="F713" s="53"/>
     </row>
     <row r="714">
-      <c r="F714" s="34"/>
+      <c r="A714" s="52"/>
+      <c r="B714" s="52"/>
+      <c r="D714" s="54"/>
+      <c r="E714" s="52"/>
+      <c r="F714" s="53"/>
     </row>
     <row r="715">
-      <c r="F715" s="34"/>
+      <c r="A715" s="52"/>
+      <c r="B715" s="52"/>
+      <c r="D715" s="54"/>
+      <c r="E715" s="52"/>
+      <c r="F715" s="53"/>
     </row>
     <row r="716">
-      <c r="F716" s="34"/>
+      <c r="A716" s="52"/>
+      <c r="B716" s="52"/>
+      <c r="D716" s="54"/>
+      <c r="E716" s="52"/>
+      <c r="F716" s="53"/>
     </row>
     <row r="717">
-      <c r="F717" s="34"/>
+      <c r="A717" s="52"/>
+      <c r="B717" s="52"/>
+      <c r="D717" s="54"/>
+      <c r="E717" s="52"/>
+      <c r="F717" s="53"/>
     </row>
     <row r="718">
-      <c r="F718" s="34"/>
+      <c r="A718" s="52"/>
+      <c r="B718" s="52"/>
+      <c r="D718" s="54"/>
+      <c r="E718" s="52"/>
+      <c r="F718" s="53"/>
     </row>
     <row r="719">
-      <c r="F719" s="34"/>
+      <c r="A719" s="52"/>
+      <c r="B719" s="52"/>
+      <c r="D719" s="54"/>
+      <c r="E719" s="52"/>
+      <c r="F719" s="53"/>
     </row>
     <row r="720">
-      <c r="F720" s="34"/>
+      <c r="A720" s="52"/>
+      <c r="B720" s="52"/>
+      <c r="D720" s="54"/>
+      <c r="E720" s="52"/>
+      <c r="F720" s="53"/>
     </row>
     <row r="721">
-      <c r="F721" s="34"/>
+      <c r="A721" s="52"/>
+      <c r="B721" s="52"/>
+      <c r="D721" s="54"/>
+      <c r="E721" s="52"/>
+      <c r="F721" s="53"/>
     </row>
     <row r="722">
-      <c r="F722" s="34"/>
+      <c r="A722" s="52"/>
+      <c r="B722" s="52"/>
+      <c r="D722" s="54"/>
+      <c r="E722" s="52"/>
+      <c r="F722" s="53"/>
     </row>
     <row r="723">
-      <c r="F723" s="34"/>
+      <c r="A723" s="52"/>
+      <c r="B723" s="52"/>
+      <c r="D723" s="54"/>
+      <c r="E723" s="52"/>
+      <c r="F723" s="53"/>
     </row>
     <row r="724">
-      <c r="F724" s="34"/>
+      <c r="A724" s="52"/>
+      <c r="B724" s="52"/>
+      <c r="D724" s="54"/>
+      <c r="E724" s="52"/>
+      <c r="F724" s="53"/>
     </row>
     <row r="725">
-      <c r="F725" s="34"/>
+      <c r="A725" s="52"/>
+      <c r="B725" s="52"/>
+      <c r="D725" s="54"/>
+      <c r="E725" s="52"/>
+      <c r="F725" s="53"/>
     </row>
     <row r="726">
-      <c r="F726" s="34"/>
+      <c r="A726" s="52"/>
+      <c r="B726" s="52"/>
+      <c r="D726" s="54"/>
+      <c r="E726" s="52"/>
+      <c r="F726" s="53"/>
     </row>
     <row r="727">
-      <c r="F727" s="34"/>
+      <c r="A727" s="52"/>
+      <c r="B727" s="52"/>
+      <c r="D727" s="54"/>
+      <c r="E727" s="52"/>
+      <c r="F727" s="53"/>
     </row>
     <row r="728">
-      <c r="F728" s="34"/>
+      <c r="A728" s="52"/>
+      <c r="B728" s="52"/>
+      <c r="D728" s="54"/>
+      <c r="E728" s="52"/>
+      <c r="F728" s="53"/>
     </row>
     <row r="729">
-      <c r="F729" s="34"/>
+      <c r="A729" s="52"/>
+      <c r="B729" s="52"/>
+      <c r="D729" s="54"/>
+      <c r="E729" s="52"/>
+      <c r="F729" s="53"/>
     </row>
     <row r="730">
-      <c r="F730" s="34"/>
+      <c r="A730" s="52"/>
+      <c r="B730" s="52"/>
+      <c r="D730" s="54"/>
+      <c r="E730" s="52"/>
+      <c r="F730" s="53"/>
     </row>
     <row r="731">
-      <c r="F731" s="34"/>
+      <c r="A731" s="52"/>
+      <c r="B731" s="52"/>
+      <c r="D731" s="54"/>
+      <c r="E731" s="52"/>
+      <c r="F731" s="53"/>
     </row>
     <row r="732">
-      <c r="F732" s="34"/>
+      <c r="A732" s="52"/>
+      <c r="B732" s="52"/>
+      <c r="D732" s="54"/>
+      <c r="E732" s="52"/>
+      <c r="F732" s="53"/>
     </row>
     <row r="733">
-      <c r="F733" s="34"/>
+      <c r="A733" s="52"/>
+      <c r="B733" s="52"/>
+      <c r="D733" s="54"/>
+      <c r="E733" s="52"/>
+      <c r="F733" s="53"/>
     </row>
     <row r="734">
-      <c r="F734" s="34"/>
+      <c r="A734" s="52"/>
+      <c r="B734" s="52"/>
+      <c r="D734" s="54"/>
+      <c r="E734" s="52"/>
+      <c r="F734" s="53"/>
     </row>
     <row r="735">
-      <c r="F735" s="34"/>
+      <c r="A735" s="52"/>
+      <c r="B735" s="52"/>
+      <c r="D735" s="54"/>
+      <c r="E735" s="52"/>
+      <c r="F735" s="53"/>
     </row>
     <row r="736">
-      <c r="F736" s="34"/>
+      <c r="A736" s="52"/>
+      <c r="B736" s="52"/>
+      <c r="D736" s="54"/>
+      <c r="E736" s="52"/>
+      <c r="F736" s="53"/>
     </row>
     <row r="737">
-      <c r="F737" s="34"/>
+      <c r="A737" s="52"/>
+      <c r="B737" s="52"/>
+      <c r="D737" s="54"/>
+      <c r="E737" s="52"/>
+      <c r="F737" s="53"/>
     </row>
     <row r="738">
-      <c r="F738" s="34"/>
+      <c r="A738" s="52"/>
+      <c r="B738" s="52"/>
+      <c r="D738" s="54"/>
+      <c r="E738" s="52"/>
+      <c r="F738" s="53"/>
     </row>
     <row r="739">
-      <c r="F739" s="34"/>
+      <c r="A739" s="52"/>
+      <c r="B739" s="52"/>
+      <c r="D739" s="54"/>
+      <c r="E739" s="52"/>
+      <c r="F739" s="53"/>
     </row>
     <row r="740">
-      <c r="F740" s="34"/>
+      <c r="A740" s="52"/>
+      <c r="B740" s="52"/>
+      <c r="D740" s="54"/>
+      <c r="E740" s="52"/>
+      <c r="F740" s="53"/>
     </row>
     <row r="741">
-      <c r="F741" s="34"/>
+      <c r="A741" s="52"/>
+      <c r="B741" s="52"/>
+      <c r="D741" s="54"/>
+      <c r="E741" s="52"/>
+      <c r="F741" s="53"/>
     </row>
     <row r="742">
-      <c r="F742" s="34"/>
+      <c r="A742" s="52"/>
+      <c r="B742" s="52"/>
+      <c r="D742" s="54"/>
+      <c r="E742" s="52"/>
+      <c r="F742" s="53"/>
     </row>
     <row r="743">
-      <c r="F743" s="34"/>
+      <c r="A743" s="52"/>
+      <c r="B743" s="52"/>
+      <c r="D743" s="54"/>
+      <c r="E743" s="52"/>
+      <c r="F743" s="53"/>
     </row>
     <row r="744">
-      <c r="F744" s="34"/>
+      <c r="A744" s="52"/>
+      <c r="B744" s="52"/>
+      <c r="D744" s="54"/>
+      <c r="E744" s="52"/>
+      <c r="F744" s="53"/>
     </row>
     <row r="745">
-      <c r="F745" s="34"/>
+      <c r="A745" s="52"/>
+      <c r="B745" s="52"/>
+      <c r="D745" s="54"/>
+      <c r="E745" s="52"/>
+      <c r="F745" s="53"/>
     </row>
     <row r="746">
-      <c r="F746" s="34"/>
+      <c r="A746" s="52"/>
+      <c r="B746" s="52"/>
+      <c r="D746" s="54"/>
+      <c r="E746" s="52"/>
+      <c r="F746" s="53"/>
     </row>
     <row r="747">
-      <c r="F747" s="34"/>
+      <c r="A747" s="52"/>
+      <c r="B747" s="52"/>
+      <c r="D747" s="54"/>
+      <c r="E747" s="52"/>
+      <c r="F747" s="53"/>
     </row>
     <row r="748">
-      <c r="F748" s="34"/>
+      <c r="A748" s="52"/>
+      <c r="B748" s="52"/>
+      <c r="D748" s="54"/>
+      <c r="E748" s="52"/>
+      <c r="F748" s="53"/>
     </row>
     <row r="749">
-      <c r="F749" s="34"/>
+      <c r="A749" s="52"/>
+      <c r="B749" s="52"/>
+      <c r="D749" s="54"/>
+      <c r="E749" s="52"/>
+      <c r="F749" s="53"/>
     </row>
     <row r="750">
-      <c r="F750" s="34"/>
+      <c r="A750" s="52"/>
+      <c r="B750" s="52"/>
+      <c r="D750" s="54"/>
+      <c r="E750" s="52"/>
+      <c r="F750" s="53"/>
     </row>
     <row r="751">
-      <c r="F751" s="34"/>
+      <c r="A751" s="52"/>
+      <c r="B751" s="52"/>
+      <c r="D751" s="54"/>
+      <c r="E751" s="52"/>
+      <c r="F751" s="53"/>
     </row>
     <row r="752">
-      <c r="F752" s="34"/>
+      <c r="A752" s="52"/>
+      <c r="B752" s="52"/>
+      <c r="D752" s="54"/>
+      <c r="E752" s="52"/>
+      <c r="F752" s="53"/>
     </row>
     <row r="753">
-      <c r="F753" s="34"/>
+      <c r="A753" s="52"/>
+      <c r="B753" s="52"/>
+      <c r="D753" s="54"/>
+      <c r="E753" s="52"/>
+      <c r="F753" s="53"/>
     </row>
     <row r="754">
-      <c r="F754" s="34"/>
+      <c r="A754" s="52"/>
+      <c r="B754" s="52"/>
+      <c r="D754" s="54"/>
+      <c r="E754" s="52"/>
+      <c r="F754" s="53"/>
     </row>
     <row r="755">
-      <c r="F755" s="34"/>
+      <c r="A755" s="52"/>
+      <c r="B755" s="52"/>
+      <c r="D755" s="54"/>
+      <c r="E755" s="52"/>
+      <c r="F755" s="53"/>
     </row>
     <row r="756">
-      <c r="F756" s="34"/>
+      <c r="A756" s="52"/>
+      <c r="B756" s="52"/>
+      <c r="D756" s="54"/>
+      <c r="E756" s="52"/>
+      <c r="F756" s="53"/>
     </row>
     <row r="757">
-      <c r="F757" s="34"/>
+      <c r="A757" s="52"/>
+      <c r="B757" s="52"/>
+      <c r="D757" s="54"/>
+      <c r="E757" s="52"/>
+      <c r="F757" s="53"/>
     </row>
     <row r="758">
-      <c r="F758" s="34"/>
+      <c r="A758" s="52"/>
+      <c r="B758" s="52"/>
+      <c r="D758" s="54"/>
+      <c r="E758" s="52"/>
+      <c r="F758" s="53"/>
     </row>
     <row r="759">
-      <c r="F759" s="34"/>
+      <c r="A759" s="52"/>
+      <c r="B759" s="52"/>
+      <c r="D759" s="54"/>
+      <c r="E759" s="52"/>
+      <c r="F759" s="53"/>
     </row>
     <row r="760">
-      <c r="F760" s="34"/>
+      <c r="A760" s="52"/>
+      <c r="B760" s="52"/>
+      <c r="D760" s="54"/>
+      <c r="E760" s="52"/>
+      <c r="F760" s="53"/>
     </row>
     <row r="761">
-      <c r="F761" s="34"/>
+      <c r="A761" s="52"/>
+      <c r="B761" s="52"/>
+      <c r="D761" s="54"/>
+      <c r="E761" s="52"/>
+      <c r="F761" s="53"/>
     </row>
     <row r="762">
-      <c r="F762" s="34"/>
+      <c r="A762" s="52"/>
+      <c r="B762" s="52"/>
+      <c r="D762" s="54"/>
+      <c r="E762" s="52"/>
+      <c r="F762" s="53"/>
     </row>
     <row r="763">
-      <c r="F763" s="34"/>
+      <c r="A763" s="52"/>
+      <c r="B763" s="52"/>
+      <c r="D763" s="54"/>
+      <c r="E763" s="52"/>
+      <c r="F763" s="53"/>
     </row>
     <row r="764">
-      <c r="F764" s="34"/>
+      <c r="A764" s="52"/>
+      <c r="B764" s="52"/>
+      <c r="D764" s="54"/>
+      <c r="E764" s="52"/>
+      <c r="F764" s="53"/>
     </row>
     <row r="765">
-      <c r="F765" s="34"/>
+      <c r="A765" s="52"/>
+      <c r="B765" s="52"/>
+      <c r="D765" s="54"/>
+      <c r="E765" s="52"/>
+      <c r="F765" s="53"/>
     </row>
     <row r="766">
-      <c r="F766" s="34"/>
+      <c r="A766" s="52"/>
+      <c r="B766" s="52"/>
+      <c r="D766" s="54"/>
+      <c r="E766" s="52"/>
+      <c r="F766" s="53"/>
     </row>
     <row r="767">
-      <c r="F767" s="34"/>
+      <c r="A767" s="52"/>
+      <c r="B767" s="52"/>
+      <c r="D767" s="54"/>
+      <c r="E767" s="52"/>
+      <c r="F767" s="53"/>
     </row>
     <row r="768">
-      <c r="F768" s="34"/>
+      <c r="A768" s="52"/>
+      <c r="B768" s="52"/>
+      <c r="D768" s="54"/>
+      <c r="E768" s="52"/>
+      <c r="F768" s="53"/>
     </row>
     <row r="769">
-      <c r="F769" s="34"/>
+      <c r="A769" s="52"/>
+      <c r="B769" s="52"/>
+      <c r="D769" s="54"/>
+      <c r="E769" s="52"/>
+      <c r="F769" s="53"/>
     </row>
     <row r="770">
-      <c r="F770" s="34"/>
+      <c r="A770" s="52"/>
+      <c r="B770" s="52"/>
+      <c r="D770" s="54"/>
+      <c r="E770" s="52"/>
+      <c r="F770" s="53"/>
     </row>
     <row r="771">
-      <c r="F771" s="34"/>
+      <c r="A771" s="52"/>
+      <c r="B771" s="52"/>
+      <c r="D771" s="54"/>
+      <c r="E771" s="52"/>
+      <c r="F771" s="53"/>
     </row>
     <row r="772">
-      <c r="F772" s="34"/>
+      <c r="A772" s="52"/>
+      <c r="B772" s="52"/>
+      <c r="D772" s="54"/>
+      <c r="E772" s="52"/>
+      <c r="F772" s="53"/>
     </row>
     <row r="773">
-      <c r="F773" s="34"/>
+      <c r="A773" s="52"/>
+      <c r="B773" s="52"/>
+      <c r="D773" s="54"/>
+      <c r="E773" s="52"/>
+      <c r="F773" s="53"/>
     </row>
     <row r="774">
-      <c r="F774" s="34"/>
+      <c r="A774" s="52"/>
+      <c r="B774" s="52"/>
+      <c r="D774" s="54"/>
+      <c r="E774" s="52"/>
+      <c r="F774" s="53"/>
     </row>
     <row r="775">
-      <c r="F775" s="34"/>
+      <c r="A775" s="52"/>
+      <c r="B775" s="52"/>
+      <c r="D775" s="54"/>
+      <c r="E775" s="52"/>
+      <c r="F775" s="53"/>
     </row>
     <row r="776">
-      <c r="F776" s="34"/>
+      <c r="A776" s="52"/>
+      <c r="B776" s="52"/>
+      <c r="D776" s="54"/>
+      <c r="E776" s="52"/>
+      <c r="F776" s="53"/>
     </row>
     <row r="777">
-      <c r="F777" s="34"/>
+      <c r="A777" s="52"/>
+      <c r="B777" s="52"/>
+      <c r="D777" s="54"/>
+      <c r="E777" s="52"/>
+      <c r="F777" s="53"/>
     </row>
     <row r="778">
-      <c r="F778" s="34"/>
+      <c r="A778" s="52"/>
+      <c r="B778" s="52"/>
+      <c r="D778" s="54"/>
+      <c r="E778" s="52"/>
+      <c r="F778" s="53"/>
     </row>
     <row r="779">
-      <c r="F779" s="34"/>
+      <c r="A779" s="52"/>
+      <c r="B779" s="52"/>
+      <c r="D779" s="54"/>
+      <c r="E779" s="52"/>
+      <c r="F779" s="53"/>
     </row>
     <row r="780">
-      <c r="F780" s="34"/>
+      <c r="A780" s="52"/>
+      <c r="B780" s="52"/>
+      <c r="D780" s="54"/>
+      <c r="E780" s="52"/>
+      <c r="F780" s="53"/>
     </row>
     <row r="781">
-      <c r="F781" s="34"/>
+      <c r="A781" s="52"/>
+      <c r="B781" s="52"/>
+      <c r="D781" s="54"/>
+      <c r="E781" s="52"/>
+      <c r="F781" s="53"/>
     </row>
     <row r="782">
-      <c r="F782" s="34"/>
+      <c r="A782" s="52"/>
+      <c r="B782" s="52"/>
+      <c r="D782" s="54"/>
+      <c r="E782" s="52"/>
+      <c r="F782" s="53"/>
     </row>
     <row r="783">
-      <c r="F783" s="34"/>
+      <c r="A783" s="52"/>
+      <c r="B783" s="52"/>
+      <c r="D783" s="54"/>
+      <c r="E783" s="52"/>
+      <c r="F783" s="53"/>
     </row>
     <row r="784">
-      <c r="F784" s="34"/>
+      <c r="A784" s="52"/>
+      <c r="B784" s="52"/>
+      <c r="D784" s="54"/>
+      <c r="E784" s="52"/>
+      <c r="F784" s="53"/>
     </row>
     <row r="785">
-      <c r="F785" s="34"/>
+      <c r="A785" s="52"/>
+      <c r="B785" s="52"/>
+      <c r="D785" s="54"/>
+      <c r="E785" s="52"/>
+      <c r="F785" s="53"/>
     </row>
     <row r="786">
-      <c r="F786" s="34"/>
+      <c r="A786" s="52"/>
+      <c r="B786" s="52"/>
+      <c r="D786" s="54"/>
+      <c r="E786" s="52"/>
+      <c r="F786" s="53"/>
     </row>
     <row r="787">
-      <c r="F787" s="34"/>
+      <c r="A787" s="52"/>
+      <c r="B787" s="52"/>
+      <c r="D787" s="54"/>
+      <c r="E787" s="52"/>
+      <c r="F787" s="53"/>
     </row>
     <row r="788">
-      <c r="F788" s="34"/>
+      <c r="A788" s="52"/>
+      <c r="B788" s="52"/>
+      <c r="D788" s="54"/>
+      <c r="E788" s="52"/>
+      <c r="F788" s="53"/>
     </row>
     <row r="789">
-      <c r="F789" s="34"/>
+      <c r="A789" s="52"/>
+      <c r="B789" s="52"/>
+      <c r="D789" s="54"/>
+      <c r="E789" s="52"/>
+      <c r="F789" s="53"/>
     </row>
     <row r="790">
-      <c r="F790" s="34"/>
+      <c r="A790" s="52"/>
+      <c r="B790" s="52"/>
+      <c r="D790" s="54"/>
+      <c r="E790" s="52"/>
+      <c r="F790" s="53"/>
     </row>
     <row r="791">
-      <c r="F791" s="34"/>
+      <c r="A791" s="52"/>
+      <c r="B791" s="52"/>
+      <c r="D791" s="54"/>
+      <c r="E791" s="52"/>
+      <c r="F791" s="53"/>
     </row>
     <row r="792">
-      <c r="F792" s="34"/>
+      <c r="A792" s="52"/>
+      <c r="B792" s="52"/>
+      <c r="D792" s="54"/>
+      <c r="E792" s="52"/>
+      <c r="F792" s="53"/>
     </row>
     <row r="793">
-      <c r="F793" s="34"/>
+      <c r="A793" s="52"/>
+      <c r="B793" s="52"/>
+      <c r="D793" s="54"/>
+      <c r="E793" s="52"/>
+      <c r="F793" s="53"/>
     </row>
     <row r="794">
-      <c r="F794" s="34"/>
+      <c r="A794" s="52"/>
+      <c r="B794" s="52"/>
+      <c r="D794" s="54"/>
+      <c r="E794" s="52"/>
+      <c r="F794" s="53"/>
     </row>
     <row r="795">
-      <c r="F795" s="34"/>
+      <c r="A795" s="52"/>
+      <c r="B795" s="52"/>
+      <c r="D795" s="54"/>
+      <c r="E795" s="52"/>
+      <c r="F795" s="53"/>
     </row>
     <row r="796">
-      <c r="F796" s="34"/>
+      <c r="A796" s="52"/>
+      <c r="B796" s="52"/>
+      <c r="D796" s="54"/>
+      <c r="E796" s="52"/>
+      <c r="F796" s="53"/>
     </row>
     <row r="797">
-      <c r="F797" s="34"/>
+      <c r="A797" s="52"/>
+      <c r="B797" s="52"/>
+      <c r="D797" s="54"/>
+      <c r="E797" s="52"/>
+      <c r="F797" s="53"/>
     </row>
     <row r="798">
-      <c r="F798" s="34"/>
+      <c r="A798" s="52"/>
+      <c r="B798" s="52"/>
+      <c r="D798" s="54"/>
+      <c r="E798" s="52"/>
+      <c r="F798" s="53"/>
     </row>
     <row r="799">
-      <c r="F799" s="34"/>
+      <c r="A799" s="52"/>
+      <c r="B799" s="52"/>
+      <c r="D799" s="54"/>
+      <c r="E799" s="52"/>
+      <c r="F799" s="53"/>
     </row>
     <row r="800">
-      <c r="F800" s="34"/>
+      <c r="A800" s="52"/>
+      <c r="B800" s="52"/>
+      <c r="D800" s="54"/>
+      <c r="E800" s="52"/>
+      <c r="F800" s="53"/>
     </row>
     <row r="801">
-      <c r="F801" s="34"/>
+      <c r="A801" s="52"/>
+      <c r="B801" s="52"/>
+      <c r="D801" s="54"/>
+      <c r="E801" s="52"/>
+      <c r="F801" s="53"/>
     </row>
     <row r="802">
-      <c r="F802" s="34"/>
+      <c r="A802" s="52"/>
+      <c r="B802" s="52"/>
+      <c r="D802" s="54"/>
+      <c r="E802" s="52"/>
+      <c r="F802" s="53"/>
     </row>
     <row r="803">
-      <c r="F803" s="34"/>
+      <c r="A803" s="52"/>
+      <c r="B803" s="52"/>
+      <c r="D803" s="54"/>
+      <c r="E803" s="52"/>
+      <c r="F803" s="53"/>
     </row>
     <row r="804">
-      <c r="F804" s="34"/>
+      <c r="A804" s="52"/>
+      <c r="B804" s="52"/>
+      <c r="D804" s="54"/>
+      <c r="E804" s="52"/>
+      <c r="F804" s="53"/>
     </row>
     <row r="805">
-      <c r="F805" s="34"/>
+      <c r="A805" s="52"/>
+      <c r="B805" s="52"/>
+      <c r="D805" s="54"/>
+      <c r="E805" s="52"/>
+      <c r="F805" s="53"/>
     </row>
     <row r="806">
-      <c r="F806" s="34"/>
+      <c r="A806" s="52"/>
+      <c r="B806" s="52"/>
+      <c r="D806" s="54"/>
+      <c r="E806" s="52"/>
+      <c r="F806" s="53"/>
     </row>
     <row r="807">
-      <c r="F807" s="34"/>
+      <c r="A807" s="52"/>
+      <c r="B807" s="52"/>
+      <c r="D807" s="54"/>
+      <c r="E807" s="52"/>
+      <c r="F807" s="53"/>
     </row>
     <row r="808">
-      <c r="F808" s="34"/>
+      <c r="A808" s="52"/>
+      <c r="B808" s="52"/>
+      <c r="D808" s="54"/>
+      <c r="E808" s="52"/>
+      <c r="F808" s="53"/>
     </row>
     <row r="809">
-      <c r="F809" s="34"/>
+      <c r="A809" s="52"/>
+      <c r="B809" s="52"/>
+      <c r="D809" s="54"/>
+      <c r="E809" s="52"/>
+      <c r="F809" s="53"/>
     </row>
     <row r="810">
-      <c r="F810" s="34"/>
+      <c r="A810" s="52"/>
+      <c r="B810" s="52"/>
+      <c r="D810" s="54"/>
+      <c r="E810" s="52"/>
+      <c r="F810" s="53"/>
     </row>
     <row r="811">
-      <c r="F811" s="34"/>
+      <c r="A811" s="52"/>
+      <c r="B811" s="52"/>
+      <c r="D811" s="54"/>
+      <c r="E811" s="52"/>
+      <c r="F811" s="53"/>
     </row>
     <row r="812">
-      <c r="F812" s="34"/>
+      <c r="A812" s="52"/>
+      <c r="B812" s="52"/>
+      <c r="D812" s="54"/>
+      <c r="E812" s="52"/>
+      <c r="F812" s="53"/>
     </row>
     <row r="813">
-      <c r="F813" s="34"/>
+      <c r="A813" s="52"/>
+      <c r="B813" s="52"/>
+      <c r="D813" s="54"/>
+      <c r="E813" s="52"/>
+      <c r="F813" s="53"/>
     </row>
     <row r="814">
-      <c r="F814" s="34"/>
+      <c r="A814" s="52"/>
+      <c r="B814" s="52"/>
+      <c r="D814" s="54"/>
+      <c r="E814" s="52"/>
+      <c r="F814" s="53"/>
     </row>
     <row r="815">
-      <c r="F815" s="34"/>
+      <c r="A815" s="52"/>
+      <c r="B815" s="52"/>
+      <c r="D815" s="54"/>
+      <c r="E815" s="52"/>
+      <c r="F815" s="53"/>
     </row>
     <row r="816">
-      <c r="F816" s="34"/>
+      <c r="A816" s="52"/>
+      <c r="B816" s="52"/>
+      <c r="D816" s="54"/>
+      <c r="E816" s="52"/>
+      <c r="F816" s="53"/>
     </row>
     <row r="817">
-      <c r="F817" s="34"/>
+      <c r="A817" s="52"/>
+      <c r="B817" s="52"/>
+      <c r="D817" s="54"/>
+      <c r="E817" s="52"/>
+      <c r="F817" s="53"/>
     </row>
     <row r="818">
-      <c r="F818" s="34"/>
+      <c r="A818" s="52"/>
+      <c r="B818" s="52"/>
+      <c r="D818" s="54"/>
+      <c r="E818" s="52"/>
+      <c r="F818" s="53"/>
     </row>
     <row r="819">
-      <c r="F819" s="34"/>
+      <c r="A819" s="52"/>
+      <c r="B819" s="52"/>
+      <c r="D819" s="54"/>
+      <c r="E819" s="52"/>
+      <c r="F819" s="53"/>
     </row>
     <row r="820">
-      <c r="F820" s="34"/>
+      <c r="A820" s="52"/>
+      <c r="B820" s="52"/>
+      <c r="D820" s="54"/>
+      <c r="E820" s="52"/>
+      <c r="F820" s="53"/>
     </row>
     <row r="821">
-      <c r="F821" s="34"/>
+      <c r="A821" s="52"/>
+      <c r="B821" s="52"/>
+      <c r="D821" s="54"/>
+      <c r="E821" s="52"/>
+      <c r="F821" s="53"/>
     </row>
     <row r="822">
-      <c r="F822" s="34"/>
+      <c r="A822" s="52"/>
+      <c r="B822" s="52"/>
+      <c r="D822" s="54"/>
+      <c r="E822" s="52"/>
+      <c r="F822" s="53"/>
     </row>
     <row r="823">
-      <c r="F823" s="34"/>
+      <c r="A823" s="52"/>
+      <c r="B823" s="52"/>
+      <c r="D823" s="54"/>
+      <c r="E823" s="52"/>
+      <c r="F823" s="53"/>
     </row>
     <row r="824">
-      <c r="F824" s="34"/>
+      <c r="A824" s="52"/>
+      <c r="B824" s="52"/>
+      <c r="D824" s="54"/>
+      <c r="E824" s="52"/>
+      <c r="F824" s="53"/>
     </row>
     <row r="825">
-      <c r="F825" s="34"/>
+      <c r="A825" s="52"/>
+      <c r="B825" s="52"/>
+      <c r="D825" s="54"/>
+      <c r="E825" s="52"/>
+      <c r="F825" s="53"/>
     </row>
     <row r="826">
-      <c r="F826" s="34"/>
+      <c r="A826" s="52"/>
+      <c r="B826" s="52"/>
+      <c r="D826" s="54"/>
+      <c r="E826" s="52"/>
+      <c r="F826" s="53"/>
     </row>
     <row r="827">
-      <c r="F827" s="34"/>
+      <c r="A827" s="52"/>
+      <c r="B827" s="52"/>
+      <c r="D827" s="54"/>
+      <c r="E827" s="52"/>
+      <c r="F827" s="53"/>
     </row>
     <row r="828">
-      <c r="F828" s="34"/>
+      <c r="A828" s="52"/>
+      <c r="B828" s="52"/>
+      <c r="D828" s="54"/>
+      <c r="E828" s="52"/>
+      <c r="F828" s="53"/>
     </row>
     <row r="829">
-      <c r="F829" s="34"/>
+      <c r="A829" s="52"/>
+      <c r="B829" s="52"/>
+      <c r="D829" s="54"/>
+      <c r="E829" s="52"/>
+      <c r="F829" s="53"/>
     </row>
     <row r="830">
-      <c r="F830" s="34"/>
+      <c r="A830" s="52"/>
+      <c r="B830" s="52"/>
+      <c r="D830" s="54"/>
+      <c r="E830" s="52"/>
+      <c r="F830" s="53"/>
     </row>
     <row r="831">
-      <c r="F831" s="34"/>
+      <c r="A831" s="52"/>
+      <c r="B831" s="52"/>
+      <c r="D831" s="54"/>
+      <c r="E831" s="52"/>
+      <c r="F831" s="53"/>
     </row>
     <row r="832">
-      <c r="F832" s="34"/>
+      <c r="A832" s="52"/>
+      <c r="B832" s="52"/>
+      <c r="D832" s="54"/>
+      <c r="E832" s="52"/>
+      <c r="F832" s="53"/>
     </row>
     <row r="833">
-      <c r="F833" s="34"/>
+      <c r="A833" s="52"/>
+      <c r="B833" s="52"/>
+      <c r="D833" s="54"/>
+      <c r="E833" s="52"/>
+      <c r="F833" s="53"/>
     </row>
     <row r="834">
-      <c r="F834" s="34"/>
+      <c r="A834" s="52"/>
+      <c r="B834" s="52"/>
+      <c r="D834" s="54"/>
+      <c r="E834" s="52"/>
+      <c r="F834" s="53"/>
     </row>
     <row r="835">
-      <c r="F835" s="34"/>
+      <c r="A835" s="52"/>
+      <c r="B835" s="52"/>
+      <c r="D835" s="54"/>
+      <c r="E835" s="52"/>
+      <c r="F835" s="53"/>
     </row>
     <row r="836">
-      <c r="F836" s="34"/>
+      <c r="A836" s="52"/>
+      <c r="B836" s="52"/>
+      <c r="D836" s="54"/>
+      <c r="E836" s="52"/>
+      <c r="F836" s="53"/>
     </row>
     <row r="837">
-      <c r="F837" s="34"/>
+      <c r="A837" s="52"/>
+      <c r="B837" s="52"/>
+      <c r="D837" s="54"/>
+      <c r="E837" s="52"/>
+      <c r="F837" s="53"/>
     </row>
     <row r="838">
-      <c r="F838" s="34"/>
+      <c r="A838" s="52"/>
+      <c r="B838" s="52"/>
+      <c r="D838" s="54"/>
+      <c r="E838" s="52"/>
+      <c r="F838" s="53"/>
     </row>
     <row r="839">
-      <c r="F839" s="34"/>
+      <c r="A839" s="52"/>
+      <c r="B839" s="52"/>
+      <c r="D839" s="54"/>
+      <c r="E839" s="52"/>
+      <c r="F839" s="53"/>
     </row>
     <row r="840">
-      <c r="F840" s="34"/>
+      <c r="A840" s="52"/>
+      <c r="B840" s="52"/>
+      <c r="D840" s="54"/>
+      <c r="E840" s="52"/>
+      <c r="F840" s="53"/>
     </row>
     <row r="841">
-      <c r="F841" s="34"/>
+      <c r="A841" s="52"/>
+      <c r="B841" s="52"/>
+      <c r="D841" s="54"/>
+      <c r="E841" s="52"/>
+      <c r="F841" s="53"/>
     </row>
     <row r="842">
-      <c r="F842" s="34"/>
+      <c r="A842" s="52"/>
+      <c r="B842" s="52"/>
+      <c r="D842" s="54"/>
+      <c r="E842" s="52"/>
+      <c r="F842" s="53"/>
     </row>
     <row r="843">
-      <c r="F843" s="34"/>
+      <c r="A843" s="52"/>
+      <c r="B843" s="52"/>
+      <c r="D843" s="54"/>
+      <c r="E843" s="52"/>
+      <c r="F843" s="53"/>
     </row>
     <row r="844">
-      <c r="F844" s="34"/>
+      <c r="A844" s="52"/>
+      <c r="B844" s="52"/>
+      <c r="D844" s="54"/>
+      <c r="E844" s="52"/>
+      <c r="F844" s="53"/>
     </row>
     <row r="845">
-      <c r="F845" s="34"/>
+      <c r="A845" s="52"/>
+      <c r="B845" s="52"/>
+      <c r="D845" s="54"/>
+      <c r="E845" s="52"/>
+      <c r="F845" s="53"/>
     </row>
     <row r="846">
-      <c r="F846" s="34"/>
+      <c r="A846" s="52"/>
+      <c r="B846" s="52"/>
+      <c r="D846" s="54"/>
+      <c r="E846" s="52"/>
+      <c r="F846" s="53"/>
     </row>
     <row r="847">
-      <c r="F847" s="34"/>
+      <c r="A847" s="52"/>
+      <c r="B847" s="52"/>
+      <c r="D847" s="54"/>
+      <c r="E847" s="52"/>
+      <c r="F847" s="53"/>
     </row>
     <row r="848">
-      <c r="F848" s="34"/>
+      <c r="A848" s="52"/>
+      <c r="B848" s="52"/>
+      <c r="D848" s="54"/>
+      <c r="E848" s="52"/>
+      <c r="F848" s="53"/>
     </row>
     <row r="849">
-      <c r="F849" s="34"/>
+      <c r="A849" s="52"/>
+      <c r="B849" s="52"/>
+      <c r="D849" s="54"/>
+      <c r="E849" s="52"/>
+      <c r="F849" s="53"/>
     </row>
     <row r="850">
-      <c r="F850" s="34"/>
+      <c r="A850" s="52"/>
+      <c r="B850" s="52"/>
+      <c r="D850" s="54"/>
+      <c r="E850" s="52"/>
+      <c r="F850" s="53"/>
     </row>
     <row r="851">
-      <c r="F851" s="34"/>
+      <c r="A851" s="52"/>
+      <c r="B851" s="52"/>
+      <c r="D851" s="54"/>
+      <c r="E851" s="52"/>
+      <c r="F851" s="53"/>
     </row>
     <row r="852">
-      <c r="F852" s="34"/>
+      <c r="A852" s="52"/>
+      <c r="B852" s="52"/>
+      <c r="D852" s="54"/>
+      <c r="E852" s="52"/>
+      <c r="F852" s="53"/>
     </row>
     <row r="853">
-      <c r="F853" s="34"/>
+      <c r="A853" s="52"/>
+      <c r="B853" s="52"/>
+      <c r="D853" s="54"/>
+      <c r="E853" s="52"/>
+      <c r="F853" s="53"/>
     </row>
     <row r="854">
-      <c r="F854" s="34"/>
+      <c r="A854" s="52"/>
+      <c r="B854" s="52"/>
+      <c r="D854" s="54"/>
+      <c r="E854" s="52"/>
+      <c r="F854" s="53"/>
     </row>
     <row r="855">
-      <c r="F855" s="34"/>
+      <c r="A855" s="52"/>
+      <c r="B855" s="52"/>
+      <c r="D855" s="54"/>
+      <c r="E855" s="52"/>
+      <c r="F855" s="53"/>
     </row>
     <row r="856">
-      <c r="F856" s="34"/>
+      <c r="A856" s="52"/>
+      <c r="B856" s="52"/>
+      <c r="D856" s="54"/>
+      <c r="E856" s="52"/>
+      <c r="F856" s="53"/>
     </row>
     <row r="857">
-      <c r="F857" s="34"/>
+      <c r="A857" s="52"/>
+      <c r="B857" s="52"/>
+      <c r="D857" s="54"/>
+      <c r="E857" s="52"/>
+      <c r="F857" s="53"/>
     </row>
     <row r="858">
-      <c r="F858" s="34"/>
+      <c r="A858" s="52"/>
+      <c r="B858" s="52"/>
+      <c r="D858" s="54"/>
+      <c r="E858" s="52"/>
+      <c r="F858" s="53"/>
     </row>
     <row r="859">
-      <c r="F859" s="34"/>
+      <c r="A859" s="52"/>
+      <c r="B859" s="52"/>
+      <c r="D859" s="54"/>
+      <c r="E859" s="52"/>
+      <c r="F859" s="53"/>
     </row>
     <row r="860">
-      <c r="F860" s="34"/>
+      <c r="A860" s="52"/>
+      <c r="B860" s="52"/>
+      <c r="D860" s="54"/>
+      <c r="E860" s="52"/>
+      <c r="F860" s="53"/>
     </row>
     <row r="861">
-      <c r="F861" s="34"/>
+      <c r="A861" s="52"/>
+      <c r="B861" s="52"/>
+      <c r="D861" s="54"/>
+      <c r="E861" s="52"/>
+      <c r="F861" s="53"/>
     </row>
     <row r="862">
-      <c r="F862" s="34"/>
+      <c r="A862" s="52"/>
+      <c r="B862" s="52"/>
+      <c r="D862" s="54"/>
+      <c r="E862" s="52"/>
+      <c r="F862" s="53"/>
     </row>
     <row r="863">
-      <c r="F863" s="34"/>
+      <c r="A863" s="52"/>
+      <c r="B863" s="52"/>
+      <c r="D863" s="54"/>
+      <c r="E863" s="52"/>
+      <c r="F863" s="53"/>
     </row>
     <row r="864">
-      <c r="F864" s="34"/>
+      <c r="A864" s="52"/>
+      <c r="B864" s="52"/>
+      <c r="D864" s="54"/>
+      <c r="E864" s="52"/>
+      <c r="F864" s="53"/>
     </row>
     <row r="865">
-      <c r="F865" s="34"/>
+      <c r="A865" s="52"/>
+      <c r="B865" s="52"/>
+      <c r="D865" s="54"/>
+      <c r="E865" s="52"/>
+      <c r="F865" s="53"/>
     </row>
     <row r="866">
-      <c r="F866" s="34"/>
+      <c r="A866" s="52"/>
+      <c r="B866" s="52"/>
+      <c r="D866" s="54"/>
+      <c r="E866" s="52"/>
+      <c r="F866" s="53"/>
     </row>
     <row r="867">
-      <c r="F867" s="34"/>
+      <c r="A867" s="52"/>
+      <c r="B867" s="52"/>
+      <c r="D867" s="54"/>
+      <c r="E867" s="52"/>
+      <c r="F867" s="53"/>
     </row>
     <row r="868">
-      <c r="F868" s="34"/>
+      <c r="A868" s="52"/>
+      <c r="B868" s="52"/>
+      <c r="D868" s="54"/>
+      <c r="E868" s="52"/>
+      <c r="F868" s="53"/>
     </row>
     <row r="869">
-      <c r="F869" s="34"/>
+      <c r="A869" s="52"/>
+      <c r="B869" s="52"/>
+      <c r="D869" s="54"/>
+      <c r="E869" s="52"/>
+      <c r="F869" s="53"/>
     </row>
     <row r="870">
-      <c r="F870" s="34"/>
+      <c r="A870" s="52"/>
+      <c r="B870" s="52"/>
+      <c r="D870" s="54"/>
+      <c r="E870" s="52"/>
+      <c r="F870" s="53"/>
     </row>
     <row r="871">
-      <c r="F871" s="34"/>
+      <c r="A871" s="52"/>
+      <c r="B871" s="52"/>
+      <c r="D871" s="54"/>
+      <c r="E871" s="52"/>
+      <c r="F871" s="53"/>
     </row>
     <row r="872">
-      <c r="F872" s="34"/>
+      <c r="A872" s="52"/>
+      <c r="B872" s="52"/>
+      <c r="D872" s="54"/>
+      <c r="E872" s="52"/>
+      <c r="F872" s="53"/>
     </row>
     <row r="873">
-      <c r="F873" s="34"/>
+      <c r="A873" s="52"/>
+      <c r="B873" s="52"/>
+      <c r="D873" s="54"/>
+      <c r="E873" s="52"/>
+      <c r="F873" s="53"/>
     </row>
     <row r="874">
-      <c r="F874" s="34"/>
+      <c r="A874" s="52"/>
+      <c r="B874" s="52"/>
+      <c r="D874" s="54"/>
+      <c r="E874" s="52"/>
+      <c r="F874" s="53"/>
     </row>
     <row r="875">
-      <c r="F875" s="34"/>
+      <c r="A875" s="52"/>
+      <c r="B875" s="52"/>
+      <c r="D875" s="54"/>
+      <c r="E875" s="52"/>
+      <c r="F875" s="53"/>
     </row>
     <row r="876">
-      <c r="F876" s="34"/>
+      <c r="A876" s="52"/>
+      <c r="B876" s="52"/>
+      <c r="D876" s="54"/>
+      <c r="E876" s="52"/>
+      <c r="F876" s="53"/>
     </row>
     <row r="877">
-      <c r="F877" s="34"/>
+      <c r="A877" s="52"/>
+      <c r="B877" s="52"/>
+      <c r="D877" s="54"/>
+      <c r="E877" s="52"/>
+      <c r="F877" s="53"/>
     </row>
     <row r="878">
-      <c r="F878" s="34"/>
+      <c r="A878" s="52"/>
+      <c r="B878" s="52"/>
+      <c r="D878" s="54"/>
+      <c r="E878" s="52"/>
+      <c r="F878" s="53"/>
     </row>
     <row r="879">
-      <c r="F879" s="34"/>
+      <c r="A879" s="52"/>
+      <c r="B879" s="52"/>
+      <c r="D879" s="54"/>
+      <c r="E879" s="52"/>
+      <c r="F879" s="53"/>
     </row>
     <row r="880">
-      <c r="F880" s="34"/>
+      <c r="A880" s="52"/>
+      <c r="B880" s="52"/>
+      <c r="D880" s="54"/>
+      <c r="E880" s="52"/>
+      <c r="F880" s="53"/>
     </row>
     <row r="881">
-      <c r="F881" s="34"/>
+      <c r="A881" s="52"/>
+      <c r="B881" s="52"/>
+      <c r="D881" s="54"/>
+      <c r="E881" s="52"/>
+      <c r="F881" s="53"/>
     </row>
     <row r="882">
-      <c r="F882" s="34"/>
+      <c r="A882" s="52"/>
+      <c r="B882" s="52"/>
+      <c r="D882" s="54"/>
+      <c r="E882" s="52"/>
+      <c r="F882" s="53"/>
     </row>
     <row r="883">
-      <c r="F883" s="34"/>
+      <c r="A883" s="52"/>
+      <c r="B883" s="52"/>
+      <c r="D883" s="54"/>
+      <c r="E883" s="52"/>
+      <c r="F883" s="53"/>
     </row>
     <row r="884">
-      <c r="F884" s="34"/>
+      <c r="A884" s="52"/>
+      <c r="B884" s="52"/>
+      <c r="D884" s="54"/>
+      <c r="E884" s="52"/>
+      <c r="F884" s="53"/>
     </row>
     <row r="885">
-      <c r="F885" s="34"/>
+      <c r="A885" s="52"/>
+      <c r="B885" s="52"/>
+      <c r="D885" s="54"/>
+      <c r="E885" s="52"/>
+      <c r="F885" s="53"/>
     </row>
     <row r="886">
-      <c r="F886" s="34"/>
+      <c r="A886" s="52"/>
+      <c r="B886" s="52"/>
+      <c r="D886" s="54"/>
+      <c r="E886" s="52"/>
+      <c r="F886" s="53"/>
     </row>
     <row r="887">
-      <c r="F887" s="34"/>
+      <c r="A887" s="52"/>
+      <c r="B887" s="52"/>
+      <c r="D887" s="54"/>
+      <c r="E887" s="52"/>
+      <c r="F887" s="53"/>
     </row>
     <row r="888">
-      <c r="F888" s="34"/>
+      <c r="A888" s="52"/>
+      <c r="B888" s="52"/>
+      <c r="D888" s="54"/>
+      <c r="E888" s="52"/>
+      <c r="F888" s="53"/>
     </row>
     <row r="889">
-      <c r="F889" s="34"/>
+      <c r="A889" s="52"/>
+      <c r="B889" s="52"/>
+      <c r="D889" s="54"/>
+      <c r="E889" s="52"/>
+      <c r="F889" s="53"/>
     </row>
     <row r="890">
-      <c r="F890" s="34"/>
+      <c r="A890" s="52"/>
+      <c r="B890" s="52"/>
+      <c r="D890" s="54"/>
+      <c r="E890" s="52"/>
+      <c r="F890" s="53"/>
     </row>
     <row r="891">
-      <c r="F891" s="34"/>
+      <c r="A891" s="52"/>
+      <c r="B891" s="52"/>
+      <c r="D891" s="54"/>
+      <c r="E891" s="52"/>
+      <c r="F891" s="53"/>
     </row>
     <row r="892">
-      <c r="F892" s="34"/>
+      <c r="A892" s="52"/>
+      <c r="B892" s="52"/>
+      <c r="D892" s="54"/>
+      <c r="E892" s="52"/>
+      <c r="F892" s="53"/>
     </row>
     <row r="893">
-      <c r="F893" s="34"/>
+      <c r="A893" s="52"/>
+      <c r="B893" s="52"/>
+      <c r="D893" s="54"/>
+      <c r="E893" s="52"/>
+      <c r="F893" s="53"/>
     </row>
     <row r="894">
-      <c r="F894" s="34"/>
+      <c r="A894" s="52"/>
+      <c r="B894" s="52"/>
+      <c r="D894" s="54"/>
+      <c r="E894" s="52"/>
+      <c r="F894" s="53"/>
     </row>
     <row r="895">
-      <c r="F895" s="34"/>
+      <c r="A895" s="52"/>
+      <c r="B895" s="52"/>
+      <c r="D895" s="54"/>
+      <c r="E895" s="52"/>
+      <c r="F895" s="53"/>
     </row>
     <row r="896">
-      <c r="F896" s="34"/>
+      <c r="A896" s="52"/>
+      <c r="B896" s="52"/>
+      <c r="D896" s="54"/>
+      <c r="E896" s="52"/>
+      <c r="F896" s="53"/>
     </row>
     <row r="897">
-      <c r="F897" s="34"/>
+      <c r="A897" s="52"/>
+      <c r="B897" s="52"/>
+      <c r="D897" s="54"/>
+      <c r="E897" s="52"/>
+      <c r="F897" s="53"/>
     </row>
     <row r="898">
-      <c r="F898" s="34"/>
+      <c r="A898" s="52"/>
+      <c r="B898" s="52"/>
+      <c r="D898" s="54"/>
+      <c r="E898" s="52"/>
+      <c r="F898" s="53"/>
     </row>
     <row r="899">
-      <c r="F899" s="34"/>
+      <c r="A899" s="52"/>
+      <c r="B899" s="52"/>
+      <c r="D899" s="54"/>
+      <c r="E899" s="52"/>
+      <c r="F899" s="53"/>
     </row>
     <row r="900">
-      <c r="F900" s="34"/>
+      <c r="A900" s="52"/>
+      <c r="B900" s="52"/>
+      <c r="D900" s="54"/>
+      <c r="E900" s="52"/>
+      <c r="F900" s="53"/>
     </row>
     <row r="901">
-      <c r="F901" s="34"/>
+      <c r="A901" s="52"/>
+      <c r="B901" s="52"/>
+      <c r="D901" s="54"/>
+      <c r="E901" s="52"/>
+      <c r="F901" s="53"/>
     </row>
     <row r="902">
-      <c r="F902" s="34"/>
+      <c r="A902" s="52"/>
+      <c r="B902" s="52"/>
+      <c r="D902" s="54"/>
+      <c r="E902" s="52"/>
+      <c r="F902" s="53"/>
     </row>
     <row r="903">
-      <c r="F903" s="34"/>
+      <c r="A903" s="52"/>
+      <c r="B903" s="52"/>
+      <c r="D903" s="54"/>
+      <c r="E903" s="52"/>
+      <c r="F903" s="53"/>
     </row>
     <row r="904">
-      <c r="F904" s="34"/>
+      <c r="A904" s="52"/>
+      <c r="B904" s="52"/>
+      <c r="D904" s="54"/>
+      <c r="E904" s="52"/>
+      <c r="F904" s="53"/>
     </row>
     <row r="905">
-      <c r="F905" s="34"/>
+      <c r="A905" s="52"/>
+      <c r="B905" s="52"/>
+      <c r="D905" s="54"/>
+      <c r="E905" s="52"/>
+      <c r="F905" s="53"/>
     </row>
     <row r="906">
-      <c r="F906" s="34"/>
+      <c r="A906" s="52"/>
+      <c r="B906" s="52"/>
+      <c r="D906" s="54"/>
+      <c r="E906" s="52"/>
+      <c r="F906" s="53"/>
     </row>
     <row r="907">
-      <c r="F907" s="34"/>
+      <c r="A907" s="52"/>
+      <c r="B907" s="52"/>
+      <c r="D907" s="54"/>
+      <c r="E907" s="52"/>
+      <c r="F907" s="53"/>
     </row>
     <row r="908">
-      <c r="F908" s="34"/>
+      <c r="A908" s="52"/>
+      <c r="B908" s="52"/>
+      <c r="D908" s="54"/>
+      <c r="E908" s="52"/>
+      <c r="F908" s="53"/>
     </row>
     <row r="909">
-      <c r="F909" s="34"/>
+      <c r="A909" s="52"/>
+      <c r="B909" s="52"/>
+      <c r="D909" s="54"/>
+      <c r="E909" s="52"/>
+      <c r="F909" s="53"/>
     </row>
     <row r="910">
-      <c r="F910" s="34"/>
+      <c r="A910" s="52"/>
+      <c r="B910" s="52"/>
+      <c r="D910" s="54"/>
+      <c r="E910" s="52"/>
+      <c r="F910" s="53"/>
     </row>
     <row r="911">
-      <c r="F911" s="34"/>
+      <c r="A911" s="52"/>
+      <c r="B911" s="52"/>
+      <c r="D911" s="54"/>
+      <c r="E911" s="52"/>
+      <c r="F911" s="53"/>
     </row>
     <row r="912">
-      <c r="F912" s="34"/>
+      <c r="A912" s="52"/>
+      <c r="B912" s="52"/>
+      <c r="D912" s="54"/>
+      <c r="E912" s="52"/>
+      <c r="F912" s="53"/>
     </row>
     <row r="913">
-      <c r="F913" s="34"/>
+      <c r="A913" s="52"/>
+      <c r="B913" s="52"/>
+      <c r="D913" s="54"/>
+      <c r="E913" s="52"/>
+      <c r="F913" s="53"/>
     </row>
     <row r="914">
-      <c r="F914" s="34"/>
+      <c r="A914" s="52"/>
+      <c r="B914" s="52"/>
+      <c r="D914" s="54"/>
+      <c r="E914" s="52"/>
+      <c r="F914" s="53"/>
     </row>
     <row r="915">
-      <c r="F915" s="34"/>
+      <c r="A915" s="52"/>
+      <c r="B915" s="52"/>
+      <c r="D915" s="54"/>
+      <c r="E915" s="52"/>
+      <c r="F915" s="53"/>
     </row>
     <row r="916">
-      <c r="F916" s="34"/>
+      <c r="A916" s="52"/>
+      <c r="B916" s="52"/>
+      <c r="D916" s="54"/>
+      <c r="E916" s="52"/>
+      <c r="F916" s="53"/>
     </row>
     <row r="917">
-      <c r="F917" s="34"/>
+      <c r="A917" s="52"/>
+      <c r="B917" s="52"/>
+      <c r="D917" s="54"/>
+      <c r="E917" s="52"/>
+      <c r="F917" s="53"/>
     </row>
     <row r="918">
-      <c r="F918" s="34"/>
+      <c r="A918" s="52"/>
+      <c r="B918" s="52"/>
+      <c r="D918" s="54"/>
+      <c r="E918" s="52"/>
+      <c r="F918" s="53"/>
     </row>
     <row r="919">
-      <c r="F919" s="34"/>
+      <c r="A919" s="52"/>
+      <c r="B919" s="52"/>
+      <c r="D919" s="54"/>
+      <c r="E919" s="52"/>
+      <c r="F919" s="53"/>
     </row>
     <row r="920">
-      <c r="F920" s="34"/>
+      <c r="A920" s="52"/>
+      <c r="B920" s="52"/>
+      <c r="D920" s="54"/>
+      <c r="E920" s="52"/>
+      <c r="F920" s="53"/>
     </row>
     <row r="921">
-      <c r="F921" s="34"/>
+      <c r="A921" s="52"/>
+      <c r="B921" s="52"/>
+      <c r="D921" s="54"/>
+      <c r="E921" s="52"/>
+      <c r="F921" s="53"/>
     </row>
     <row r="922">
-      <c r="F922" s="34"/>
+      <c r="A922" s="52"/>
+      <c r="B922" s="52"/>
+      <c r="D922" s="54"/>
+      <c r="E922" s="52"/>
+      <c r="F922" s="53"/>
     </row>
     <row r="923">
-      <c r="F923" s="34"/>
+      <c r="A923" s="52"/>
+      <c r="B923" s="52"/>
+      <c r="D923" s="54"/>
+      <c r="E923" s="52"/>
+      <c r="F923" s="53"/>
     </row>
     <row r="924">
-      <c r="F924" s="34"/>
+      <c r="A924" s="52"/>
+      <c r="B924" s="52"/>
+      <c r="D924" s="54"/>
+      <c r="E924" s="52"/>
+      <c r="F924" s="53"/>
     </row>
     <row r="925">
-      <c r="F925" s="34"/>
+      <c r="A925" s="52"/>
+      <c r="B925" s="52"/>
+      <c r="D925" s="54"/>
+      <c r="E925" s="52"/>
+      <c r="F925" s="53"/>
     </row>
     <row r="926">
-      <c r="F926" s="34"/>
+      <c r="A926" s="52"/>
+      <c r="B926" s="52"/>
+      <c r="D926" s="54"/>
+      <c r="E926" s="52"/>
+      <c r="F926" s="53"/>
     </row>
     <row r="927">
-      <c r="F927" s="34"/>
+      <c r="A927" s="52"/>
+      <c r="B927" s="52"/>
+      <c r="D927" s="54"/>
+      <c r="E927" s="52"/>
+      <c r="F927" s="53"/>
     </row>
     <row r="928">
-      <c r="F928" s="34"/>
+      <c r="A928" s="52"/>
+      <c r="B928" s="52"/>
+      <c r="D928" s="54"/>
+      <c r="E928" s="52"/>
+      <c r="F928" s="53"/>
     </row>
     <row r="929">
-      <c r="F929" s="34"/>
+      <c r="A929" s="52"/>
+      <c r="B929" s="52"/>
+      <c r="D929" s="54"/>
+      <c r="E929" s="52"/>
+      <c r="F929" s="53"/>
     </row>
     <row r="930">
-      <c r="F930" s="34"/>
+      <c r="A930" s="52"/>
+      <c r="B930" s="52"/>
+      <c r="D930" s="54"/>
+      <c r="E930" s="52"/>
+      <c r="F930" s="53"/>
     </row>
     <row r="931">
-      <c r="F931" s="34"/>
+      <c r="A931" s="52"/>
+      <c r="B931" s="52"/>
+      <c r="D931" s="54"/>
+      <c r="E931" s="52"/>
+      <c r="F931" s="53"/>
     </row>
     <row r="932">
-      <c r="F932" s="34"/>
+      <c r="A932" s="52"/>
+      <c r="B932" s="52"/>
+      <c r="D932" s="54"/>
+      <c r="E932" s="52"/>
+      <c r="F932" s="53"/>
     </row>
     <row r="933">
-      <c r="F933" s="34"/>
+      <c r="A933" s="52"/>
+      <c r="B933" s="52"/>
+      <c r="D933" s="54"/>
+      <c r="E933" s="52"/>
+      <c r="F933" s="53"/>
     </row>
     <row r="934">
-      <c r="F934" s="34"/>
+      <c r="A934" s="52"/>
+      <c r="B934" s="52"/>
+      <c r="D934" s="54"/>
+      <c r="E934" s="52"/>
+      <c r="F934" s="53"/>
     </row>
     <row r="935">
-      <c r="F935" s="34"/>
+      <c r="A935" s="52"/>
+      <c r="B935" s="52"/>
+      <c r="D935" s="54"/>
+      <c r="E935" s="52"/>
+      <c r="F935" s="53"/>
     </row>
     <row r="936">
-      <c r="F936" s="34"/>
+      <c r="A936" s="52"/>
+      <c r="B936" s="52"/>
+      <c r="D936" s="54"/>
+      <c r="E936" s="52"/>
+      <c r="F936" s="53"/>
     </row>
     <row r="937">
-      <c r="F937" s="34"/>
+      <c r="A937" s="52"/>
+      <c r="B937" s="52"/>
+      <c r="D937" s="54"/>
+      <c r="E937" s="52"/>
+      <c r="F937" s="53"/>
     </row>
     <row r="938">
-      <c r="F938" s="34"/>
+      <c r="A938" s="52"/>
+      <c r="B938" s="52"/>
+      <c r="D938" s="54"/>
+      <c r="E938" s="52"/>
+      <c r="F938" s="53"/>
     </row>
     <row r="939">
-      <c r="F939" s="34"/>
+      <c r="A939" s="52"/>
+      <c r="B939" s="52"/>
+      <c r="D939" s="54"/>
+      <c r="E939" s="52"/>
+      <c r="F939" s="53"/>
     </row>
     <row r="940">
-      <c r="F940" s="34"/>
+      <c r="A940" s="52"/>
+      <c r="B940" s="52"/>
+      <c r="D940" s="54"/>
+      <c r="E940" s="52"/>
+      <c r="F940" s="53"/>
     </row>
     <row r="941">
-      <c r="F941" s="34"/>
+      <c r="A941" s="52"/>
+      <c r="B941" s="52"/>
+      <c r="D941" s="54"/>
+      <c r="E941" s="52"/>
+      <c r="F941" s="53"/>
     </row>
     <row r="942">
-      <c r="F942" s="34"/>
+      <c r="A942" s="52"/>
+      <c r="B942" s="52"/>
+      <c r="D942" s="54"/>
+      <c r="E942" s="52"/>
+      <c r="F942" s="53"/>
     </row>
     <row r="943">
-      <c r="F943" s="34"/>
+      <c r="A943" s="52"/>
+      <c r="B943" s="52"/>
+      <c r="D943" s="54"/>
+      <c r="E943" s="52"/>
+      <c r="F943" s="53"/>
     </row>
     <row r="944">
-      <c r="F944" s="34"/>
+      <c r="A944" s="52"/>
+      <c r="B944" s="52"/>
+      <c r="D944" s="54"/>
+      <c r="E944" s="52"/>
+      <c r="F944" s="53"/>
     </row>
     <row r="945">
-      <c r="F945" s="34"/>
+      <c r="A945" s="52"/>
+      <c r="B945" s="52"/>
+      <c r="D945" s="54"/>
+      <c r="E945" s="52"/>
+      <c r="F945" s="53"/>
     </row>
     <row r="946">
-      <c r="F946" s="34"/>
+      <c r="A946" s="52"/>
+      <c r="B946" s="52"/>
+      <c r="D946" s="54"/>
+      <c r="E946" s="52"/>
+      <c r="F946" s="53"/>
     </row>
     <row r="947">
-      <c r="F947" s="34"/>
+      <c r="A947" s="52"/>
+      <c r="B947" s="52"/>
+      <c r="D947" s="54"/>
+      <c r="E947" s="52"/>
+      <c r="F947" s="53"/>
     </row>
     <row r="948">
-      <c r="F948" s="34"/>
+      <c r="A948" s="52"/>
+      <c r="B948" s="52"/>
+      <c r="D948" s="54"/>
+      <c r="E948" s="52"/>
+      <c r="F948" s="53"/>
     </row>
     <row r="949">
-      <c r="F949" s="34"/>
+      <c r="A949" s="52"/>
+      <c r="B949" s="52"/>
+      <c r="D949" s="54"/>
+      <c r="E949" s="52"/>
+      <c r="F949" s="53"/>
     </row>
     <row r="950">
-      <c r="F950" s="34"/>
+      <c r="A950" s="52"/>
+      <c r="B950" s="52"/>
+      <c r="D950" s="54"/>
+      <c r="E950" s="52"/>
+      <c r="F950" s="53"/>
     </row>
     <row r="951">
-      <c r="F951" s="34"/>
+      <c r="A951" s="52"/>
+      <c r="B951" s="52"/>
+      <c r="D951" s="54"/>
+      <c r="E951" s="52"/>
+      <c r="F951" s="53"/>
     </row>
     <row r="952">
-      <c r="F952" s="34"/>
+      <c r="A952" s="52"/>
+      <c r="B952" s="52"/>
+      <c r="D952" s="54"/>
+      <c r="E952" s="52"/>
+      <c r="F952" s="53"/>
     </row>
     <row r="953">
-      <c r="F953" s="34"/>
+      <c r="A953" s="52"/>
+      <c r="B953" s="52"/>
+      <c r="D953" s="54"/>
+      <c r="E953" s="52"/>
+      <c r="F953" s="53"/>
     </row>
     <row r="954">
-      <c r="F954" s="34"/>
+      <c r="A954" s="52"/>
+      <c r="B954" s="52"/>
+      <c r="D954" s="54"/>
+      <c r="E954" s="52"/>
+      <c r="F954" s="53"/>
     </row>
     <row r="955">
-      <c r="F955" s="34"/>
+      <c r="A955" s="52"/>
+      <c r="B955" s="52"/>
+      <c r="D955" s="54"/>
+      <c r="E955" s="52"/>
+      <c r="F955" s="53"/>
     </row>
     <row r="956">
-      <c r="F956" s="34"/>
+      <c r="A956" s="52"/>
+      <c r="B956" s="52"/>
+      <c r="D956" s="54"/>
+      <c r="E956" s="52"/>
+      <c r="F956" s="53"/>
     </row>
     <row r="957">
-      <c r="F957" s="34"/>
+      <c r="A957" s="52"/>
+      <c r="B957" s="52"/>
+      <c r="D957" s="54"/>
+      <c r="E957" s="52"/>
+      <c r="F957" s="53"/>
     </row>
     <row r="958">
-      <c r="F958" s="34"/>
+      <c r="A958" s="52"/>
+      <c r="B958" s="52"/>
+      <c r="D958" s="54"/>
+      <c r="E958" s="52"/>
+      <c r="F958" s="53"/>
     </row>
     <row r="959">
-      <c r="F959" s="34"/>
+      <c r="A959" s="52"/>
+      <c r="B959" s="52"/>
+      <c r="D959" s="54"/>
+      <c r="E959" s="52"/>
+      <c r="F959" s="53"/>
     </row>
     <row r="960">
-      <c r="F960" s="34"/>
+      <c r="A960" s="52"/>
+      <c r="B960" s="52"/>
+      <c r="D960" s="54"/>
+      <c r="E960" s="52"/>
+      <c r="F960" s="53"/>
     </row>
     <row r="961">
-      <c r="F961" s="34"/>
+      <c r="A961" s="52"/>
+      <c r="B961" s="52"/>
+      <c r="D961" s="54"/>
+      <c r="E961" s="52"/>
+      <c r="F961" s="53"/>
     </row>
     <row r="962">
-      <c r="F962" s="34"/>
+      <c r="A962" s="52"/>
+      <c r="B962" s="52"/>
+      <c r="D962" s="54"/>
+      <c r="E962" s="52"/>
+      <c r="F962" s="53"/>
     </row>
     <row r="963">
-      <c r="F963" s="34"/>
+      <c r="A963" s="52"/>
+      <c r="B963" s="52"/>
+      <c r="D963" s="54"/>
+      <c r="E963" s="52"/>
+      <c r="F963" s="53"/>
     </row>
     <row r="964">
-      <c r="F964" s="34"/>
+      <c r="A964" s="52"/>
+      <c r="B964" s="52"/>
+      <c r="D964" s="54"/>
+      <c r="E964" s="52"/>
+      <c r="F964" s="53"/>
     </row>
     <row r="965">
-      <c r="F965" s="34"/>
+      <c r="A965" s="52"/>
+      <c r="B965" s="52"/>
+      <c r="D965" s="54"/>
+      <c r="E965" s="52"/>
+      <c r="F965" s="53"/>
     </row>
     <row r="966">
-      <c r="F966" s="34"/>
+      <c r="A966" s="52"/>
+      <c r="B966" s="52"/>
+      <c r="D966" s="54"/>
+      <c r="E966" s="52"/>
+      <c r="F966" s="53"/>
     </row>
     <row r="967">
-      <c r="F967" s="34"/>
+      <c r="A967" s="52"/>
+      <c r="B967" s="52"/>
+      <c r="D967" s="54"/>
+      <c r="E967" s="52"/>
+      <c r="F967" s="53"/>
     </row>
     <row r="968">
-      <c r="F968" s="34"/>
+      <c r="A968" s="52"/>
+      <c r="B968" s="52"/>
+      <c r="D968" s="54"/>
+      <c r="E968" s="52"/>
+      <c r="F968" s="53"/>
     </row>
     <row r="969">
-      <c r="F969" s="34"/>
+      <c r="A969" s="52"/>
+      <c r="B969" s="52"/>
+      <c r="D969" s="54"/>
+      <c r="E969" s="52"/>
+      <c r="F969" s="53"/>
     </row>
     <row r="970">
-      <c r="F970" s="34"/>
+      <c r="A970" s="52"/>
+      <c r="B970" s="52"/>
+      <c r="D970" s="54"/>
+      <c r="E970" s="52"/>
+      <c r="F970" s="53"/>
     </row>
     <row r="971">
-      <c r="F971" s="34"/>
+      <c r="A971" s="52"/>
+      <c r="B971" s="52"/>
+      <c r="D971" s="54"/>
+      <c r="E971" s="52"/>
+      <c r="F971" s="53"/>
     </row>
     <row r="972">
-      <c r="F972" s="34"/>
+      <c r="A972" s="52"/>
+      <c r="B972" s="52"/>
+      <c r="D972" s="54"/>
+      <c r="E972" s="52"/>
+      <c r="F972" s="53"/>
     </row>
     <row r="973">
-      <c r="F973" s="34"/>
+      <c r="A973" s="52"/>
+      <c r="B973" s="52"/>
+      <c r="D973" s="54"/>
+      <c r="E973" s="52"/>
+      <c r="F973" s="53"/>
     </row>
     <row r="974">
-      <c r="F974" s="34"/>
+      <c r="A974" s="52"/>
+      <c r="B974" s="52"/>
+      <c r="D974" s="54"/>
+      <c r="E974" s="52"/>
+      <c r="F974" s="53"/>
     </row>
     <row r="975">
-      <c r="F975" s="34"/>
+      <c r="A975" s="52"/>
+      <c r="B975" s="52"/>
+      <c r="D975" s="54"/>
+      <c r="E975" s="52"/>
+      <c r="F975" s="53"/>
     </row>
     <row r="976">
-      <c r="F976" s="34"/>
+      <c r="A976" s="52"/>
+      <c r="B976" s="52"/>
+      <c r="D976" s="54"/>
+      <c r="E976" s="52"/>
+      <c r="F976" s="53"/>
     </row>
     <row r="977">
-      <c r="F977" s="34"/>
+      <c r="A977" s="52"/>
+      <c r="B977" s="52"/>
+      <c r="D977" s="54"/>
+      <c r="E977" s="52"/>
+      <c r="F977" s="53"/>
     </row>
     <row r="978">
-      <c r="F978" s="34"/>
+      <c r="A978" s="52"/>
+      <c r="B978" s="52"/>
+      <c r="D978" s="54"/>
+      <c r="E978" s="52"/>
+      <c r="F978" s="53"/>
     </row>
     <row r="979">
-      <c r="F979" s="34"/>
+      <c r="A979" s="52"/>
+      <c r="B979" s="52"/>
+      <c r="D979" s="54"/>
+      <c r="E979" s="52"/>
+      <c r="F979" s="53"/>
     </row>
     <row r="980">
-      <c r="F980" s="34"/>
+      <c r="A980" s="52"/>
+      <c r="B980" s="52"/>
+      <c r="D980" s="54"/>
+      <c r="E980" s="52"/>
+      <c r="F980" s="53"/>
     </row>
     <row r="981">
-      <c r="F981" s="34"/>
+      <c r="A981" s="52"/>
+      <c r="B981" s="52"/>
+      <c r="D981" s="54"/>
+      <c r="E981" s="52"/>
+      <c r="F981" s="53"/>
     </row>
     <row r="982">
-      <c r="F982" s="34"/>
+      <c r="A982" s="52"/>
+      <c r="B982" s="52"/>
+      <c r="D982" s="54"/>
+      <c r="E982" s="52"/>
+      <c r="F982" s="53"/>
     </row>
     <row r="983">
-      <c r="F983" s="34"/>
+      <c r="A983" s="52"/>
+      <c r="B983" s="52"/>
+      <c r="D983" s="54"/>
+      <c r="E983" s="52"/>
+      <c r="F983" s="53"/>
     </row>
     <row r="984">
-      <c r="F984" s="34"/>
+      <c r="A984" s="52"/>
+      <c r="B984" s="52"/>
+      <c r="D984" s="54"/>
+      <c r="E984" s="52"/>
+      <c r="F984" s="53"/>
     </row>
     <row r="985">
-      <c r="F985" s="34"/>
+      <c r="A985" s="52"/>
+      <c r="B985" s="52"/>
+      <c r="D985" s="54"/>
+      <c r="E985" s="52"/>
+      <c r="F985" s="53"/>
     </row>
     <row r="986">
-      <c r="F986" s="34"/>
+      <c r="A986" s="52"/>
+      <c r="B986" s="52"/>
+      <c r="D986" s="54"/>
+      <c r="E986" s="52"/>
+      <c r="F986" s="53"/>
     </row>
     <row r="987">
-      <c r="F987" s="34"/>
+      <c r="A987" s="52"/>
+      <c r="B987" s="52"/>
+      <c r="D987" s="54"/>
+      <c r="E987" s="52"/>
+      <c r="F987" s="53"/>
     </row>
     <row r="988">
-      <c r="F988" s="34"/>
+      <c r="A988" s="52"/>
+      <c r="B988" s="52"/>
+      <c r="D988" s="54"/>
+      <c r="E988" s="52"/>
+      <c r="F988" s="53"/>
     </row>
     <row r="989">
-      <c r="F989" s="34"/>
+      <c r="A989" s="52"/>
+      <c r="B989" s="52"/>
+      <c r="D989" s="54"/>
+      <c r="E989" s="52"/>
+      <c r="F989" s="53"/>
     </row>
     <row r="990">
-      <c r="F990" s="34"/>
+      <c r="A990" s="52"/>
+      <c r="B990" s="52"/>
+      <c r="D990" s="54"/>
+      <c r="E990" s="52"/>
+      <c r="F990" s="53"/>
     </row>
     <row r="991">
-      <c r="F991" s="34"/>
+      <c r="A991" s="52"/>
+      <c r="B991" s="52"/>
+      <c r="D991" s="54"/>
+      <c r="E991" s="52"/>
+      <c r="F991" s="53"/>
     </row>
     <row r="992">
-      <c r="F992" s="34"/>
+      <c r="A992" s="52"/>
+      <c r="B992" s="52"/>
+      <c r="D992" s="54"/>
+      <c r="E992" s="52"/>
+      <c r="F992" s="53"/>
     </row>
     <row r="993">
-      <c r="F993" s="34"/>
+      <c r="A993" s="52"/>
+      <c r="B993" s="52"/>
+      <c r="D993" s="54"/>
+      <c r="E993" s="52"/>
+      <c r="F993" s="53"/>
     </row>
     <row r="994">
-      <c r="F994" s="34"/>
+      <c r="A994" s="52"/>
+      <c r="B994" s="52"/>
+      <c r="D994" s="54"/>
+      <c r="E994" s="52"/>
+      <c r="F994" s="53"/>
     </row>
     <row r="995">
-      <c r="F995" s="34"/>
+      <c r="A995" s="52"/>
+      <c r="B995" s="52"/>
+      <c r="D995" s="54"/>
+      <c r="E995" s="52"/>
+      <c r="F995" s="53"/>
     </row>
     <row r="996">
-      <c r="F996" s="34"/>
+      <c r="A996" s="52"/>
+      <c r="B996" s="52"/>
+      <c r="D996" s="54"/>
+      <c r="E996" s="52"/>
+      <c r="F996" s="53"/>
     </row>
     <row r="997">
-      <c r="F997" s="34"/>
+      <c r="A997" s="52"/>
+      <c r="B997" s="52"/>
+      <c r="D997" s="54"/>
+      <c r="E997" s="52"/>
+      <c r="F997" s="53"/>
     </row>
     <row r="998">
-      <c r="F998" s="34"/>
+      <c r="A998" s="52"/>
+      <c r="B998" s="52"/>
+      <c r="D998" s="54"/>
+      <c r="E998" s="52"/>
+      <c r="F998" s="53"/>
     </row>
     <row r="999">
-      <c r="F999" s="34"/>
+      <c r="A999" s="52"/>
+      <c r="B999" s="52"/>
+      <c r="D999" s="54"/>
+      <c r="E999" s="52"/>
+      <c r="F999" s="53"/>
     </row>
     <row r="1000">
-      <c r="F1000" s="34"/>
+      <c r="A1000" s="52"/>
+      <c r="B1000" s="52"/>
+      <c r="D1000" s="54"/>
+      <c r="E1000" s="52"/>
+      <c r="F1000" s="53"/>
     </row>
     <row r="1001">
-      <c r="F1001" s="34"/>
+      <c r="A1001" s="52"/>
+      <c r="B1001" s="52"/>
+      <c r="D1001" s="54"/>
+      <c r="E1001" s="52"/>
+      <c r="F1001" s="53"/>
     </row>
     <row r="1002">
-      <c r="F1002" s="34"/>
-    </row>
-    <row r="1003">
-      <c r="F1003" s="34"/>
-    </row>
-    <row r="1004">
-      <c r="F1004" s="34"/>
-    </row>
-    <row r="1005">
-      <c r="F1005" s="34"/>
-    </row>
-    <row r="1006">
-      <c r="F1006" s="34"/>
-    </row>
-    <row r="1007">
-      <c r="F1007" s="34"/>
-    </row>
-    <row r="1008">
-      <c r="F1008" s="34"/>
-    </row>
-    <row r="1009">
-      <c r="F1009" s="34"/>
-    </row>
-    <row r="1010">
-      <c r="F1010" s="34"/>
-    </row>
-    <row r="1011">
-      <c r="F1011" s="34"/>
-    </row>
-    <row r="1012">
-      <c r="F1012" s="34"/>
-    </row>
-    <row r="1013">
-      <c r="F1013" s="34"/>
-    </row>
-    <row r="1014">
-      <c r="F1014" s="34"/>
-    </row>
-    <row r="1015">
-      <c r="F1015" s="34"/>
-    </row>
-    <row r="1016">
-      <c r="F1016" s="34"/>
-    </row>
-    <row r="1017">
-      <c r="F1017" s="34"/>
-    </row>
-    <row r="1018">
-      <c r="F1018" s="34"/>
-    </row>
-    <row r="1019">
-      <c r="F1019" s="34"/>
-    </row>
-    <row r="1020">
-      <c r="F1020" s="34"/>
-    </row>
-    <row r="1021">
-      <c r="F1021" s="34"/>
-    </row>
-    <row r="1022">
-      <c r="F1022" s="34"/>
-    </row>
-    <row r="1023">
-      <c r="F1023" s="34"/>
+      <c r="A1002" s="52"/>
+      <c r="B1002" s="52"/>
+      <c r="D1002" s="54"/>
+      <c r="E1002" s="52"/>
+      <c r="F1002" s="53"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
